--- a/lazada_/download/data_promo_list.xlsx
+++ b/lazada_/download/data_promo_list.xlsx
@@ -211,47 +211,47 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>2.2732698674E10</v>
+        <v>2.0730696012E10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4954693039</t>
+          <t>4924890256</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2 ฟรี 2 (snow lotus 2 ขวด +สบู่ 120 g 2 ชิ้น)</t>
+          <t>[TOTAL 2 PACK] MERRIES DIAPER TYPE PANTS SIZE L-XL</t>
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1790.0</v>
+        <v>1538.0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1790.0</v>
+        <v>1065.0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0%</t>
+          <t>-31%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/4cebb7b03615f7e810ed0372e4a485f3.jpg</t>
+          <t>https://th-live-01.slatic.net/p/c4212ebcfef6b95ad9ae2ac263025016.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/2-2-snow-lotus-2-120-g-2-i4954693039-s22732698674.html</t>
+          <t>https://pages.lazada.co.th/products/2-merries-l-xl-i4924890256-s20730696012.html</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>MADAME LOUISE</t>
+          <t>Merries</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -261,7 +261,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>100200906671</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -281,12 +281,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/2-2-snow-lotus-2-120-g-2-i4954693039-s22732698674.html?exlaz=e_bHnj0jZvEZ9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcF7l2aqvUIs3dgGepir1a16U8oeqr%252FymHvWa41U6SZ2aCVhvZ0JcxPB6WwlWYhhS7C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9pkXeoWn7cqz7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsHMVPZFSMq5CRKcpHY5rKMHrbfrHxTmCmlKrjR4BTydck%252BTJNcmqxpzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3eVEefsUVHCHACjnAleFiKXV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/2-merries-l-xl-i4924890256-s20730696012.html?exlaz=e_EQEd8t4Js6RsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7Tldt90FqnFUq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZGVLsqILF4T8NEh%252F7Psw1bWcn7WG0FoLn%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SadJRqzKcS1rxWZ0hRMRPNrQ%253D</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEW</t>
+          <t>https://c.lazada.co.th/t/c.YcAUiw</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -342,47 +342,47 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1.7517055454E10</v>
+        <v>1.5131495665E10</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4393973172</t>
+          <t>3929082287</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The X เดอะเอ็กซ์สูตรบำรุง Set 1 กล่อง [10 เเคปซูล/กล่อง]  ของแท้ แถม 💥ส่งฟรี💥</t>
+          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมีพรีไบโอพลัส ดีเอชเอ สูตร4 รสจืด กลิ่นวานิลลา 180 มล.(2 ลัง : 72 กล่อง) นมกล่องยูเอชทีสำหรับเด็กและทุกคนในครอบครัว</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>890.0</v>
+        <v>968.0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>389.0</v>
+        <v>809.0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-56%</t>
+          <t>-16%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/a5ef10d9d24b96fda215eb29f4e3d03f.png</t>
+          <t>https://th-live-01.slatic.net/p/a95051cd062237147d61d3f798e62e3d.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/the-x-set-1-10-i4393973172-s17517055454.html</t>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-4-180-2-72-i3929082287-s15131495665.html</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>THEX</t>
+          <t>Bear Brand</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -392,7 +392,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>100287012693</t>
+          <t>1000001033</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -412,12 +412,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/the-x-set-1-10-i4393973172-s17517055454.html?exlaz=e_x2g5uZmwD%252FJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfs2%252Bierz9wyNqWmPeOgCBp6U8oeqr%252FymHvWa41U6SZ2aCVhvZ0JcxPd6oAIB4k0qrC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPH7zURDu8zhknC6SNdOX%252By7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsHtIkEA%252BXw40%252FzaLm8EKrLnrbfrHxTmCmgQnyO%252B0fBLz8QKPg7X40QDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3OrUkA%252FxGxdIuuxWylcaYn3V0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-4-180-2-72-i3929082287-s15131495665.html?exlaz=e_Daradz1Fl25sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7ZVKytTZFUvOM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZRVAqyT83i5MtoNYCq8GH%252BjSMl31BMDZuTaYknftDWZ4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK%252BB%252FClAi503HVIDgB%252FOV4cg%253D%253D</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVE3</t>
+          <t>https://c.lazada.co.th/t/c.YcAUiD</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -473,47 +473,47 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>2.129394615E10</v>
+        <v>1.9653801199E10</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5035909478</t>
+          <t>4765210412</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Liposomal Vitamin C Capsules 1500MG - supports immune health, skin rejuvenation, and promotes iron absorption</t>
+          <t>[ขายยกลังx3] โฟร์โมสต์ โอเมก้า สมาร์ท โกลด์ 4 พลัส รสจืด 180มล (24กล่อง/ลัง) Foremost Omega 369 Smart Gold 4 Plus Plain 180ml (นมกล่องUHT)</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>334.96</v>
+        <v>1368.0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>98.98</v>
+        <v>1198.0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-70%</t>
+          <t>-12%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/171f3b050d3afe9b5f2defae5e6a54f2.jpg</t>
+          <t>https://th-live-01.slatic.net/p/793b6b5be50547140412431226e68c77.png</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/liposomal-vitamin-c-capsules-1500mg-i5035909478-s21293946150.html</t>
+          <t>https://pages.lazada.co.th/products/x3-4-180-24-foremost-omega-369-smart-gold-4-plus-plain-180ml-uht-i4765210412-s19653801199.html</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Daitea</t>
+          <t>FOREMOST</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>100611744315</t>
+          <t>1000001028</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/liposomal-vitamin-c-capsules-1500mg-i5035909478-s21293946150.html?exlaz=e_5VechSMG251sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNd7bCP0rPC%252FCWHjvOgE8Y7v6U8oeqr%252FymHvWa41U6SZ2aCVhvZ0JcxPJOtKAcipVanC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrP4dadk%252BroeTQQ4MHqtvHIU7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsWJniPoEZbyvXWpr0ZuY9DHrbfrHxTmCmA3O5RBsGPCunWAGMdHieTjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3OZ97h451EYeGX6sTlZZCwXV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/x3-4-180-24-foremost-omega-369-smart-gold-4-plus-plain-180ml-uht-i4765210412-s19653801199.html?exlaz=e_fMp82tNp2%252FJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7a6TQLkZmj8%252FZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZCPN0ucrDK4nTHWh4YX5jdTSMl31BMDZuwxAbB01%252BAoIOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKUnRjZwq5joGP%252BEAZHVreCg%253D%253D</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEe</t>
+          <t>https://c.lazada.co.th/t/c.YcAUix</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -604,47 +604,47 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>2.1529284429E10</v>
+        <v>2.2031144188E10</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5103617278</t>
+          <t>5186724753</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5 PCs 8 PCs 10 PCs bait station termite/termite hero termite removal bait/termite trap/termite bait system/colony removal system/insect control</t>
+          <t>[ส่งฟรี มีทุกไซส์] ใหม่!! Toy Box Mamypoko Pants Organic กางเกงผ้าอ้อม มามี่โพโค แพ้นท์ ออร์แกนิค (กล่องเก็บของเล่น) ไซส์ M-XXL แพ็ค 3</t>
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>3000.0</v>
+        <v>2007.0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>853.67</v>
+        <v>1499.0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-72%</t>
+          <t>-25%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/9f8bc20fe77dc4d675bf234feb102cfb.jpg</t>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S6277d564f1e6405a8d1b7a6d14c44d03K.jpg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/5-8-10-termite-hero-i5103617278-s21529284429.html</t>
+          <t>https://pages.lazada.co.th/products/toy-box-mamypoko-pants-organic-m-xxl-3-i5186724753-s22031144188.html</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>No Brand</t>
+          <t>MamyPoko</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>100410304190</t>
+          <t>1000001012</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -674,12 +674,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/5-8-10-termite-hero-i5103617278-s21529284429.html?exlaz=e_e9y5t%252B6ahMJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfdTbJjNyV5Tw6i73lmuWA26U8oeqr%252FymHvWa41U6SZ2d8837Pf0xuDjpqROiEJfn3C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNkEA8sdpya9Ph4CD7plEk97lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs0Ep1ifPbW1XBYMyY4I4nhXrbfrHxTmCmFSBlaHcLa74IkDPnTw0%252BMzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3OPQK4ky8UugauhXtk5P%252FEnV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/toy-box-mamypoko-pants-organic-m-xxl-3-i5186724753-s22031144188.html?exlaz=e_O4P07mIJqNRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7aBFD7SvljJJ%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZV68uv9kfW%252Br1o9kMaWasTTSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKL7REKRlTo6rBkaZoU%252FeV0w%253D%253D</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEV</t>
+          <t>https://c.lazada.co.th/t/c.YcAUiC</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -735,47 +735,47 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>1.9818919126E10</v>
+        <v>9.29702415E8</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4796929893</t>
+          <t>521926507</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Merry Plant Protein โปรตีนพืช 5 ชนิด : รส Strawberry Milk Flavor 1 กระปุก 2.3lb. / 1,050g. [ 20 Servings ]</t>
+          <t>เอส-26 โกลด์ นม uht เด็ก ยูเอชที สูตร 3 แพ็ค 72 กล่อง เพิ่มดีเอชเอ (S-26 Gold UHT Formula 3 2 case - 72 boxes) แพ็คเกจอาจมีการเปลี่ยนแปลง</t>
         </is>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1500.0</v>
+        <v>1378.0</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>799.0</v>
+        <v>1050.0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-47%</t>
+          <t>-24%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://th-live.slatic.net/p/5c040732dca2ab4ff01f9299d5ed3c34.jpg</t>
+          <t>https://th-live-01.slatic.net/p/d47950f1e9d64c63f3b6d9b710a27d60.jpg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/merry-plant-protein-5-strawberry-milk-flavor-1-23lb-1050g-20-servings-i4796929893-s19818919126.html</t>
+          <t>https://pages.lazada.co.th/products/26-uht-3-72-s-26-gold-uht-formula-3-2-case-72-boxes-i521926507-s929702415.html</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>MERRY NUTRITION</t>
+          <t>S-26</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>32.9%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>100200891632</t>
+          <t>1000001031</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/merry-plant-protein-5-strawberry-milk-flavor-1-23lb-1050g-20-servings-i4796929893-s19818919126.html?exlaz=e_agOagj0SZBVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcShX1IABwEa87Ix7%252B%252Fx%252Fmj6U8oeqr%252FymHvWa41U6SZ2d8837Pf0xuDD8hMacxtp2bC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOoKDQHreaWauri3GGHl2%252FA7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjst7OOXIJhvdxXP1WUL57%252F0HrbfrHxTmCm7nbsKT1jPQRY%252BnqC2psEjTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC35VnAJ7%252FakcQHzsc5eUzDGXV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/26-uht-3-72-s-26-gold-uht-formula-3-2-case-72-boxes-i521926507-s929702415.html?exlaz=e_jXaJByNL5TxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7SiPF146QCFSM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZrR664Hs4JVPzqLK7rQKA1LXvxAT%252FH7D6uTvW45Tm5GzDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNyhIaLXj7EeNluB1sM6BixQ%253D%253D</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVE4</t>
+          <t>https://c.lazada.co.th/t/c.YcAUiy</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -866,47 +866,47 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>2.2385285489E10</v>
+        <v>1.7249068642E10</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5265540537</t>
+          <t>4329930392</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEDIHEAL RETINOL COLLAGEN LIFTING PAD สูตรยกกระชับผิว ลดเลือนริ้วรอย</t>
+          <t>S-26 นมกล่องยูเอชที โกลด์ โปร แพ็ค 3 x 9 2 ลัง (54 กล่อง) S-26 UHT Gold Pro 3x9 pack 2 cases (54 boxes)</t>
         </is>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1199.0</v>
+        <v>1256.0</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>555.0</v>
+        <v>1028.0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-54%</t>
+          <t>-18%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/a6c31f0a564204243d023e90a4107e69.png</t>
+          <t>https://th-live-01.slatic.net/p/0d2478876c64d1c20d0255033c6fcec7.jpg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mediheal-retinol-collagen-lifting-pad-i5265540537-s22385285489.html</t>
+          <t>https://pages.lazada.co.th/products/s-26-3-x-9-2-54-s-26-uht-gold-pro-3x9-pack-2-cases-54-boxes-i4329930392-s17249068642.html</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Mediheal</t>
+          <t>S-26</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>100190895552</t>
+          <t>1000001031</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mediheal-retinol-collagen-lifting-pad-i5265540537-s22385285489.html?exlaz=e_J7Wg4xrL9xhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdoOqrWOHgZ3pNawOmjATTe6U8oeqr%252FymHvWa41U6SZ2d8837Pf0xuDd6oAIB4k0qrC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNydRiblFVGzLBNkRuU2NEl7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjssk%252BU%252F2li8%252B2u%252FDlOQIV1UnrbfrHxTmCmJXF2mpaD%252BGqJiEGkcu769DLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3Bovk6xZA7QC6YGA0rxWNUXV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/s-26-3-x-9-2-54-s-26-uht-gold-pro-3x9-pack-2-cases-54-boxes-i4329930392-s17249068642.html?exlaz=e_zmmM68i01%252B9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7YyaGCWbjTL0s3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZyRbFbtXSR7I%252Bt%252F5TqfVrZzSMl31BMDZuovLcky0FEDMOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK6Gcc9t%252BomwrQIWuFiVQ7Iw%253D%253D</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEU</t>
+          <t>https://c.lazada.co.th/t/c.YcAUiB</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -997,47 +997,47 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>2.2207113413E10</v>
+        <v>5.23692041E8</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5230499368</t>
+          <t>303382409</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>โรงงานผลิต มีราคาส่ง พร้อมส่ง น้ำมันสกัดเย็น 7 ชนิด น้ำมันสกัดเย็น น้ำมัน7กษัตริย์ ของแท้ SWAY</t>
+          <t>[ยกลัง] [น้ำยาล้างขวดนม] เบบี้มายด์ และ จุกนม ถุงเติม (570 มล. x แพ็ค 12) / Babimild Baby Bottle &amp; Nipple Cleaner Refill (570 ml x12)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n">
-        <v>299.0</v>
+        <v>1044.0</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>69.0</v>
+        <v>418.0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-77%</t>
+          <t>-60%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/b399df8a435afccdf92d490d9097d8f8.png</t>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S59e8ff6efbaf4760b8305ba7cc8146d2E.jpg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/7-7-sway-i5230499368-s22207113413.html</t>
+          <t>https://pages.lazada.co.th/products/570-x12-babi-mild-bottle-nipple-cleaner-refill-570ml-x12-i303382409-s523692041.html</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>SWAY</t>
+          <t>Babi Mild</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>8.8%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>100822064336</t>
+          <t>100107263</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/7-7-sway-i5230499368-s22207113413.html?exlaz=e_0c1yfVjWU5VsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNda7CJTQ1apMLqngvHjWd5U6U8oeqr%252FymHvWa41U6SZ2d8837Pf0xuDy035hFNbmDHC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOeVCwr6bMowLfU5fO12axJ7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsXecu784RMHRxGJxLMzSCVnrbfrHxTmCmC6R%252BehUSPOgpgN5naawEkjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3YyczL%252BE4SU92yN%252FwqSABPnV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/570-x12-babi-mild-bottle-nipple-cleaner-refill-570ml-x12-i303382409-s523692041.html?exlaz=e_LnRywMGb2Y9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdzl%252BvD5IasyU5BI0h76j%252B6DZzd3uOh8OiHkOIqZ%252BuV7fWXrJSI6LK7l9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ8rnr8DIOyDM%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ2UOgRreHimoCIIRt8IzKfSLlYjhYeFku2AxcB5B3iMbtGfupcRfwU2dlXDqhrzzZxwTJ97Cs2cY%252FTHjoWWXZz0ASfMaCeW879OSovb%252FzvXl1dGbznhhDVA%253D%253D</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVE5</t>
+          <t>https://c.lazada.co.th/t/c.YcAUiz</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1128,47 +1128,47 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>2.2878563549E10</v>
+        <v>1.079978412E9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5386785990</t>
+          <t>584034671</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RAN Radiance Matte Reflection Powder แป้งนางฟ้ารัน</t>
+          <t>นมกล่อง ยกลังx2ลัง นมยูเอชที ดูเม็กซ์ ดูโกร รสจืด 180 มล (72 กล่อง) UHT Dumex Dugro นมดูโกร</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>790.0</v>
+        <v>940.0</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>399.0</v>
+        <v>835.0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-49%</t>
+          <t>-11%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/3a30bf289f23e0b2fedebc9bd5c1ca2b.jpg</t>
+          <t>https://th-live-01.slatic.net/p/e4ea4dc4eae90ce03e814d47e3c785b5.jpg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/ran-radiance-matte-reflection-powder-i5386785990-s22878563549.html</t>
+          <t>https://pages.lazada.co.th/products/x2-180-72-uht-dumex-dugro-i584034671-s1079978412.html</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>RAN Cosmetic</t>
+          <t>Dumex</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>100184151414</t>
+          <t>1000001029</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/ran-radiance-matte-reflection-powder-i5386785990-s22878563549.html?exlaz=e_33XS6u1DaxlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdGDti4vu2lpEYAlAoiyfyr6U8oeqr%252FymHvWa41U6SZ2ScZctT0S9Wf22hwJSGBNNnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNydRiblFVGzJRLxKl%252BOpXK7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsLbJkyo3Mwv%252BnJGhTpOA%252B73rbfrHxTmCmOPVES592%252BzHjlhkBCd4yKDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC38D%252FEY4GxlZm06%252BqnklWkkXV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/x2-180-72-uht-dumex-dugro-i584034671-s1079978412.html?exlaz=e_2yQ%252B7BpC1l5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7T3fE8uSRla0jcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZcdes36UMORSblByqyqXQQrXvxAT%252FH7D6F20p4BqrYSXDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNPRgmHAZd8rXIVeZbXjLalw%253D%253D</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEg</t>
+          <t>https://c.lazada.co.th/t/c.YcAUiA</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1259,47 +1259,47 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>2.0476116339E10</v>
+        <v>2.2973809466E10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4878047987</t>
+          <t>5397815603</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(4 Pcs.) Aquatia Double Water Filter for Shower (Water Softener , Water purifier fillter , Shower head filter)</t>
+          <t>Softher Kids Ashwagandha Gummy วิตามินเหนียว 60 เม็ด</t>
         </is>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1196.0</v>
+        <v>1899.0</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>654.0</v>
+        <v>372.06</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-45%</t>
+          <t>-80%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/feb63d368543b4df0a60b03113007d48.png</t>
+          <t>https://th-live-01.slatic.net/p/be3c655f5b4d53c81aea6be66a8ff86a.jpg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/4-aquatia-2-i4878047987-s20476116339.html</t>
+          <t>https://pages.lazada.co.th/products/softher-kids-ashwagandha-gummy-60-i5397815603-s22973809466.html</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Aquatia</t>
+          <t>SOFTHER HEALTHY CHOICES</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>10.8%</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>100470784241</t>
+          <t>100907872123</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/4-aquatia-2-i4878047987-s20476116339.html?exlaz=e_zDBHbQEueBNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNf35HPPUMEbFDrEXl6Xxbj26U8oeqr%252FymHvWa41U6SZ2ScZctT0S9WfD8hMacxtp2bC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9YFAwiK5eRIW7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsMpDgwF3kZJbmW9g9%252B2eIa3rbfrHxTmCmqP8SOy5ufXRZF9smv39NUDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3stkKFI%252Fie7X2vP8dNBOMPnV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/softher-kids-ashwagandha-gummy-60-i5397815603-s22973809466.html?exlaz=e_NyI1L9JusVxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNe9soKLBHrRddqWmPeOgCBp6U8oeqr%252FymHvWa41U6SZ2U8GP7nM6zncE2h%252BYDiHFknC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNOysa3%252BG31MN2qT6AFWcA07lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsdz5%252BzYwKQz4%252BvIeTpCEb3nrbfrHxTmCmNc7RUjvqa45Smid39d4J6TLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC306O1b7dRuqxIbd4nCHW6w3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVET</t>
+          <t>https://c.lazada.co.th/t/c.YcAURa</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1390,47 +1390,47 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>1.6382864794E10</v>
+        <v>2.2974719106E10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4168755062</t>
+          <t>5372730357</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pro 3 แถม 1 ขวด DoctorLine Brightening Golden C Serum  ด็อกเตอร์ไลน์ ไบร์ทเทนนิ่ง โกลเด้น ซี เซรั่ม ลดเลือนรอยฝ้า กระ จุดด่างดำ รอยสิว ผิวหน้าสว่าง ดูโกลด์</t>
+          <t>Omilay Kids OMEGA DHA Gummy อาหารเสริมสำหรับเด็กช่วยเสริมสร้างความจำ ดีเอชเอ วิตตามิน Gummies 60เม็ด</t>
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1990.0</v>
+        <v>1995.0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1990.0</v>
+        <v>372.06</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0%</t>
+          <t>-81%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/87bf6d56c163cef7f14d1681a4247cb0.png</t>
+          <t>https://th-live-01.slatic.net/p/b4bac1d7e8308d38cdbece383b4da275.jpg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/pro-3-1-doctorline-brightening-golden-c-serum-i4168755062-s16382864794.html</t>
+          <t>https://pages.lazada.co.th/products/omilay-kids-omega-dha-gummy-gummies-60-i5372730357-s22974719106.html</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DoctorLine</t>
+          <t>Omilay</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>10.8%</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>100233690519</t>
+          <t>100879296237</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1460,12 +1460,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/pro-3-1-doctorline-brightening-golden-c-serum-i4168755062-s16382864794.html?exlaz=e_z1Y9REE4lpZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc2n%252BJtIBX0bixWm%252F1WMfXx6U8oeqr%252FymHvWa41U6SZ2ScZctT0S9WfqCkPDTFGwgPC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPH7zURDu8zhpSXLVK%252Bvqig7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsrv9MRoqTwqxpq1uU%252BRH4ynrbfrHxTmCmd4I1AGjQvHPSfEJGyFaGXDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3exAsROFU6xmPF2DYByu5B3V0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/omilay-kids-omega-dha-gummy-gummies-60-i5372730357-s22974719106.html?exlaz=e_VuxXkiGOxkVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfNjuWZctHtOXMexoqXFY5g6U8oeqr%252FymHvWa41U6SZ2U8GP7nM6zncZR1I5jHBV6%252FC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNOysa3%252BG31MIFwYXB5H3Kc7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsLTex4e0fep4EAJi%252Fa%252FCwGHrbfrHxTmCmz%252B7pHNXYsJSEISKvVXVkhjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC306O1b7dRuqzPw3lUpeKQNXV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVE6</t>
+          <t>https://c.lazada.co.th/t/c.YcAURZ</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1521,47 +1521,47 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>2.1560623446E10</v>
+        <v>1.93388178E8</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5110606903</t>
+          <t>160577993</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>🚛จัดส่งฟรี🔥(1แถม1)Vitamores Dietary Supplement Product Creatine  ครีเอทีน ไวต้ามอร์ส เสริมสร้างรูปร่าง เพิ่มมวลกล้ามเนื้อ  พลังงานสูงเหมาะแก่การออกกำลังกาย</t>
+          <t>[โฉมใหม่ ขายยกลัง] BabyLove Playpants เบบี้เลิฟกางเกงผ้าอ้อมเพลย์แพ้นท์ ไซส์ L 4 แพ็ค 184 ชิ้น (แพ็คละ 46 ชิ้น)</t>
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1900.0</v>
+        <v>1996.0</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1388.0</v>
+        <v>1239.0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-27%</t>
+          <t>-38%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://th-live.slatic.net/p/5aba0f4e89d5b0b324a6266a891f64ad.jpg</t>
+          <t>https://th-live-01.slatic.net/p/3fdec66dd2d8ae040946c670b9138089.jpg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/11vitamores-dietary-supplement-product-creatine-i5110606903-s21560623446.html</t>
+          <t>https://pages.lazada.co.th/products/babylove-playpants-l-4-184-46-i160577993-s193388178.html</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Vitamores</t>
+          <t>BabyLove</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>100707616127</t>
+          <t>1000001002</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/11vitamores-dietary-supplement-product-creatine-i5110606903-s21560623446.html?exlaz=e_%252ByEu3J12i3dsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNe2cn7klXz1uHwe3HrpSd9A6U8oeqr%252FymHvWa41U6SZ2ScZctT0S9Wfy035hFNbmDHC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOIsTmAth7FV6BpfxQh3Pty7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsDDs76be6NMEuihFlvRgF8nrbfrHxTmCmLScVPhn1XYLYo8WV%252BLxFbzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3OPQK4ky8UuiDOG3SPTWRjHV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/babylove-playpants-l-4-184-46-i160577993-s193388178.html?exlaz=e_HnkOFsw7o5FsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7QKHs%252BWRhKnavLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZv%252Bn73QIpA2sDvbRTsWhZsLXvxAT%252FH7D6XWAwW4j7dHPDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNvSxaVXr2nEOOdCNjLQOj3Q%253D%253D</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEh</t>
+          <t>https://c.lazada.co.th/t/c.YcAUR0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1652,47 +1652,47 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>1.8824078349E10</v>
+        <v>6.447574834E9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4596732827</t>
+          <t>2004462017</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>🔥พร้อมส่ง!🔥 CN Collagen ผลิตภัณฑ์เสริมอาหาร คอลลาเจนกู้ผิวเสีย ฟื้นฟูผิวอ่อนวัย ป้องกันผิวแห้งกร้านให้นุ่มชุ่มชื้น (1 แถม 1 = 120 แคปซูล)</t>
+          <t>[ส่งฟรี มีทุกไซส์] ขายยกลัง! MamyPoko Lovely Day&amp;Night ผ้าอ้อมเด็กแบบกางเกง รุ่นบางสบาย ไซส์ S - XXL (แพ็ค 3)</t>
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>700.0</v>
+        <v>1275.0</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>292.0</v>
+        <v>779.0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-58%</t>
+          <t>-39%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://sg-test-11.slatic.net/p/7c01bb2b141f44ace0c5c52e05975bd9.jpg</t>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S52ac9935c0ea4b6ab535492925cb82abH.jpg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/cn-collagen-1-1-120-i4596732827-s18824078349.html</t>
+          <t>https://pages.lazada.co.th/products/mamypoko-lovely-daynight-s-xxl-3-i2004462017-s6447574834.html</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MamyPoko</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>100350880459</t>
+          <t>1000001012</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/cn-collagen-1-1-120-i4596732827-s18824078349.html?exlaz=e_ejxcifjW52psbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdELhA4D0PFrbJfJOxfKN9Q6U8oeqr%252FymHvWa41U6SZ2akBIIeSx481jpqROiEJfn3C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNkEA8sdpya9G7qCjkg%252F5QY7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs03SeHxMfBlCOsl8K%252FGviN3rbfrHxTmCmHiQSiCWnabjlA%252FXEHPP2wTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC32bVrZ8atlnW6odMEi3qNZnV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/mamypoko-lovely-daynight-s-xxl-3-i2004462017-s6447574834.html?exlaz=e_6kZ7Tzc1iSlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7SB%252BUjoAsr2NvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZKQP0NoJEtDO7dS6cB%252FSfgDSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKPiiY88IwX16ZRGVnUxWUdA%253D%253D</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVES</t>
+          <t>https://c.lazada.co.th/t/c.YcAURb</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1783,47 +1783,47 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2.2594087065E10</v>
+        <v>2.09040073E8</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5309644024</t>
+          <t>168696071</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>หนังสือ กฎเหล็ก 99 ประการ (แห่งการแหกกฎชีวิต)</t>
+          <t>นมกล่อง ยกลัง x 2 ลัง นมยูเอชที นมไฮคิวสูตร3 สตาร์ท พรีไบโอโพรเทก รสจืด 180 มล (72 กล่อง) นม UHT HiQ Start PrebioProteq UHT</t>
         </is>
       </c>
       <c r="E14" s="1" t="n">
-        <v>690.0</v>
+        <v>1514.0</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>349.0</v>
+        <v>1343.0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-49%</t>
+          <t>-11%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/Sec392b7e1aa4493db0c469c1f5250745A.jpg</t>
+          <t>https://th-live-01.slatic.net/p/747fdafc8785d6f0754b343219a2521a.jpg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/99-i5309644024-s22594087065.html</t>
+          <t>https://pages.lazada.co.th/products/x-2-3-180-72-uht-hiq-start-prebioproteq-uht-i168696071-s209040073.html</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>No Brand</t>
+          <t>HiQ</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>100193457306</t>
+          <t>1000001025</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/99-i5309644024-s22594087065.html?exlaz=e_rLcf5PEUEMZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdmiTJ6x%252BtJJMitWNw0wlly6U8oeqr%252FymHvWa41U6SZ2akBIIeSx481E4YWB8SlFWvC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOeVCwr6bMowAG311PZF7LR7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjshcusJlZV%252F5IjuVtJ8nZ85nrbfrHxTmCmC%252Ffg5v4N2KkittKug4LKtzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3t%252BFpMOQqkOkTsdrCunNix3V0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/x-2-3-180-72-uht-hiq-start-prebioproteq-uht-i168696071-s209040073.html?exlaz=e_m8I48DgXmf5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7W%252F%252B%252FRVuwNpP95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZc6WqHmsDvm%252BblByqyqXQQrXvxAT%252FH7D6Uy%252BEe6K2CVrDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNvQr4plg7hFE7fzuKMrVTTQ%253D%253D</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVE7</t>
+          <t>https://c.lazada.co.th/t/c.YcAURY</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1914,47 +1914,47 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1.9367663706E10</v>
+        <v>4.963970597E9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4699346719</t>
+          <t>1731448226</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NACHU - JAPANESR TOMATO SUNCREAM 3</t>
+          <t>เอส26 นมกล่องยูเฮชที โอเมก้าพลัส (สูตร3) แพ็ค 4 x 9 จำนวน 2 ลัง (72 กล่อง)(S-26 Omega Plus UHT New Formulation! Added DHA (Formula 3) Pack4x9 = 2 case ( 72 boxes)</t>
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1650.0</v>
+        <v>992.0</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>950.0</v>
+        <v>839.0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-42%</t>
+          <t>-15%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/085751c44d37063c193b31b581b847e8.jpg</t>
+          <t>https://th-live-01.slatic.net/p/1facb94275f7213a60726fc92a4a5265.jpg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-spf50-pa-i4699346719-s19367663706.html</t>
+          <t>https://pages.lazada.co.th/products/26-3-4-x-9-2-72-s-26-omega-plus-uht-new-formulation-added-dha-formula-3-pack4x9-2-case-72-boxes-i1731448226-s4963970597.html</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>No Brand</t>
+          <t>S-26</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>100411696797</t>
+          <t>1000001031</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-spf50-pa-i4699346719-s19367663706.html?exlaz=e_YILfMa8HQERsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc3Qr7khgZIWVjKkD66bAvP6U8oeqr%252FymHvWa41U6SZ2akBIIeSx481ZfCscqRNpJXC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9ko%252BeN1mZU9Y7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs2FOpqDqHI7CKkSX149NktHrbfrHxTmCmUAktaJIwJyfRNZOFw6wmIjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3HiRehfSnnD%252FNrPrxcOi4MnV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/26-3-4-x-9-2-72-s-26-omega-plus-uht-new-formulation-added-dha-formula-3-pack4x9-2-case-72-boxes-i1731448226-s4963970597.html?exlaz=e_C8aU65zB8bFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cfNKYwLWeI0ZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZTebEUCCmBdBtBfJbIJqiSzSMl31BMDZuovLcky0FEDMOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKjyCPif1ZrswA70lKOPUKgQ%253D%253D</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEi</t>
+          <t>https://c.lazada.co.th/t/c.YcAUR1</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2045,47 +2045,47 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.1250275776E10</v>
+        <v>1.9661943811E10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5026366520</t>
+          <t>999580591</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ส่งฟรี💥 สครับจ๊ะ Jcrown สครับผิวจ๊ะ นงผณี เนื้อละเอียด ไม่บาดผิว  Jcrown Ocean Salt Body Scrub สครับชาโคล ขัดผิวกาย</t>
+          <t>เลือกไซส์ก่อนกดสั่งซื้อ! [โฉมใหม่ ขายยกลัง] BabyLove Smile Pants เบบี้เลิฟ สไมล์แพ้นส์ กางเกงผ้าอ้อมสำเร็จรูป ขนาดเมก้า ไซส์ S-XXXL 3 แพ็ค</t>
         </is>
       </c>
       <c r="E16" s="1" t="n">
-        <v>690.0</v>
+        <v>1377.0</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>349.0</v>
+        <v>739.0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-49%</t>
+          <t>-46%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/76318e930adf3abbd9214b5151eea11a.png</t>
+          <t>https://th-live-01.slatic.net/p/451dc1f6b1639cc35546f1932624a829.jpg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/jcrown-jcrown-ocean-salt-body-scrub-i5026366520-s21250275776.html</t>
+          <t>https://pages.lazada.co.th/products/babylove-smile-pants-s-xxxl-3-i999580591-s19661943811.html</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>No Brand</t>
+          <t>BabyLove</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>100601776032</t>
+          <t>1000001002</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2115,12 +2115,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/jcrown-jcrown-ocean-salt-body-scrub-i5026366520-s21250275776.html?exlaz=e_gWAj6%252F30HH1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNf7yXjBcIUQf%252F26DzSt0JQK6U8oeqr%252FymHvWa41U6SZ2akBIIeSx481B1iM%252FMwtUQTC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrP4dadk%252BroeTXf26sZF8fb67lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsT8MOGRPEC04FurgOVxOUfHrbfrHxTmCmNZgJ6punblBY%252BnqC2psEjTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3OZ97h451EYcLPRJifwRS3nV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/babylove-smile-pants-s-xxxl-3-i999580591-s19661943811.html?exlaz=e_tGSUMezqOspsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7YU0bQkJOBdel9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZZAUrjN8Y3qGblByqyqXQQrXvxAT%252FH7D6XWAwW4j7dHPDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNwAmUvvxu3lgxHMD5mFRpxw%253D%253D</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVE8</t>
+          <t>https://c.lazada.co.th/t/c.YcAURc</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2176,47 +2176,47 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2.2538344366E10</v>
+        <v>9.3102276E8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5292774157</t>
+          <t>522364141</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FIVB Official ลูกบอล วอลเลย์บอล ลูกวอลเล่ย์บอล อุปกรณ์วอลเลย์บอล หนังPU นุ่ม Mikasa VWL 210 S Volleyball ไซซ์ 5</t>
+          <t>นมกล่อง เอนฟาโกร ยูเอชที สูตร4 ชนิดจืด (36 กล่อง) x2 ลัง Enfagrow UHT Stage4 Plain (36 boxes) x2 cases</t>
         </is>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1699.0</v>
+        <v>1428.0</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>650.07</v>
+        <v>1233.0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-62%</t>
+          <t>-14%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://sg-test-11.slatic.net/p/10727b387bf20f058a7d7ba10562be1f.jpg</t>
+          <t>https://sg-live-01.slatic.net/p/35daf5c350103f72929fcc46a4f87418.jpg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/fivb-official-pu-mikasa-vwl-210-s-volleyball-5-i5292774157-s22538344366.html</t>
+          <t>https://pages.lazada.co.th/products/4-36-x2-enfagrow-uht-stage4-plain-36-boxes-x2-cases-i522364141-s931022760.html</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>OEM</t>
+          <t>Enfagrow</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>100451312571</t>
+          <t>1000001020</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2246,12 +2246,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/fivb-official-pu-mikasa-vwl-210-s-volleyball-5-i5292774157-s22538344366.html?exlaz=e_H3vkOOlsis5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6r0z3YM%252BIyDIDZTAlNNPv6U8oeqr%252FymHvWa41U6SZ2akBIIeSx481HPPgNYJCfFDC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOeVCwr6bMowGwkOm5h3egS7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsFCb04ogkDo1VpERn05LRKXrbfrHxTmCmkyPsrIwyC1Ek%252BTJNcmqxpzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3t%252BFpMOQqkOnIlohpLfC5rnV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/4-36-x2-enfagrow-uht-stage4-plain-36-boxes-x2-cases-i522364141-s931022760.html?exlaz=e_4iQeajysWDlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7RWDkNEX1XDlZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZWkys5%252FoBwCSblByqyqXQQrXvxAT%252FH7D6b%252BozplRGABTDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNdjbP%252FD0etQeEBEobxSO9Jg%253D%253D</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEj</t>
+          <t>https://c.lazada.co.th/t/c.YcAURX</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2307,47 +2307,47 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.7334374006E10</v>
+        <v>5.445604673E9</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4345805365</t>
+          <t>1817098347</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dagoderma Scar Emulgel 2 tubes</t>
+          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมี พรีไบโอพลัส ดีเอชเอ สูตร 3 ผสมน้ำผึ้งแท้ ไม่เติมน้ำตาลทราย 180 มล. (2 ลัง : 72 กล่อง)</t>
         </is>
       </c>
       <c r="E18" s="1" t="n">
-        <v>568.0</v>
+        <v>968.0</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>515.0</v>
+        <v>809.0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-9%</t>
+          <t>-16%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/e5c0c7b7bec2404a1f06da199ee35afc.jpg</t>
+          <t>https://th-live-01.slatic.net/p/0359dddc9a19bbbb8667602cb9441e38.jpg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/dagoderma-scar-emulgel-15-g-x-2-i4345805365-s17334374006.html</t>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i1817098347-s5445604673.html</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DAGOKIDS</t>
+          <t>Bear Brand</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1000143300</t>
+          <t>1000001033</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/dagoderma-scar-emulgel-15-g-x-2-i4345805365-s17334374006.html?exlaz=e_pNrMx2ezWYZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdXD4uBIsHKybJfJOxfKN9Q6U8oeqr%252FymHvWa41U6SZ2a2opMc%252BwEGM4qIG8xyOQPbC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOIsTmAth7FV0C740MECbpy7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsSOTMELkFnQ3vmx4EvnhBsnrbfrHxTmCm3nxb7keR%252BdL7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpmA4NFW63MAE4emnygQVrnw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i1817098347-s5445604673.html?exlaz=e_XbPaM5OTitBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fVSxkUUa%252FAxvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZRzCglqQ3zf9KeYdJW41HITSMl31BMDZuTaYknftDWZ4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKM8uz4R3biWiNlISWQOOrLg%253D%253D</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEQ</t>
+          <t>https://c.lazada.co.th/t/c.YcAUR2</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2438,47 +2438,47 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1.9818924898E10</v>
+        <v>9.31004709E8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4796947884</t>
+          <t>522301000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Merry Plant Protein โปรตีนพืช 5 ชนิด : รส Mixed Berry Flavor 1 กระปุก 2.3lb. / 1,050g. [ 20 Servings ]</t>
+          <t>นมกล่อง เอนฟาโกร ยูเอชที ซุพีเรียร์ สูตร3 ชนิดจืด (24 กล่อง) x2 ลัง Enfagrow UHT Superior Stage3 Plain (24 boxes) x2 cases</t>
         </is>
       </c>
       <c r="E19" s="1" t="n">
-        <v>1500.0</v>
+        <v>1216.0</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>799.0</v>
+        <v>1049.0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-47%</t>
+          <t>-14%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://th-live.slatic.net/p/58016883fafe590116a60ba019c88ec9.jpg</t>
+          <t>https://th-live-01.slatic.net/p/11bd678765cf1e13490ff3540196e616.jpg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/merry-plant-protein-5-mixed-berry-flavor-1-23lb-1050g-20-servings-i4796947884-s19818924898.html</t>
+          <t>https://pages.lazada.co.th/products/3-24-x2-enfagrow-uht-superior-stage3-plain-24-boxes-x2-cases-i522301000-s931004709.html</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>MERRY NUTRITION</t>
+          <t>Enfagrow</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>32.9%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>100200891632</t>
+          <t>1000001020</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2508,12 +2508,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/merry-plant-protein-5-mixed-berry-flavor-1-23lb-1050g-20-servings-i4796947884-s19818924898.html?exlaz=e_AhOgAvlF8%252FdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc%252BVroPZsqe%252FlANXdHOxoTg6U8oeqr%252FymHvWa41U6SZ2a2opMc%252BwEGMlz0aNC35%252FLnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOoKDQHreaWahHNxXb787es7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagiscllIJGI5mGhbzi1ZhkH%252BWPcKDd27BEKtxb1XNqlnyHYG6zENRPYJYLA7U5U25WfX8ihLrvz8X9yP09aS8y7ovMWE9zCRSZrXS5%252F86%252FHQxt9%252FMMywsK5fz9G5hp%252FtORKTVMsHYqgb%252FA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/3-24-x2-enfagrow-uht-superior-stage3-plain-24-boxes-x2-cases-i522301000-s931004709.html?exlaz=e_I8zkhcLsZkBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7WeOhMtdQ28HM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZCp63uTaqoY3doouIs6WpS7XvxAT%252FH7D6b%252BozplRGABTDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNLjyHaAi83j8ATbf83fV7yg%253D%253D</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVE9</t>
+          <t>https://c.lazada.co.th/t/c.YcAURd</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2569,47 +2569,47 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.7241032854E10</v>
+        <v>4.567096781E9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4327404334</t>
+          <t>1647500736</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ใหม่! เซรั่มที่ชั้นผิว The Skin Collection Bakuchiol Serum</t>
+          <t>นมกล่อง ยกลัง x2ลัง นมยูเอชที นมไฮคิวสูตร3 1พลัส ซูเปอร์โกลด์ รสจืด180 มล (54 กล่อง) นม UHT HiQ Super Gold UHT</t>
         </is>
       </c>
       <c r="E20" s="1" t="n">
-        <v>690.0</v>
+        <v>1514.0</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>389.0</v>
+        <v>1343.0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-44%</t>
+          <t>-11%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://th-live.slatic.net/p/5188aff446951a8c8e0b31e53417a7b2.jpg</t>
+          <t>https://th-live-01.slatic.net/p/328850d16f855e4859e594479302e25e.jpg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/the-skin-collection-bakuchiol-serum-i4327404334-s17241032854.html</t>
+          <t>https://pages.lazada.co.th/products/x2-3-1-180-54-uht-hiq-super-gold-uht-i1647500736-s4567096781.html</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>The skin collection</t>
+          <t>HiQ</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>100190928612</t>
+          <t>1000001025</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/the-skin-collection-bakuchiol-serum-i4327404334-s17241032854.html?exlaz=e_M%252FBoNbIfyK1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeuo4brKU219xOoskJvGhMeDZzd3uOh8OiHkOIqZ%252BuV7Q%252FczUwUJ4Bq%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8yCWktsu77nPXFf%252BmK7MpLg%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZKxpkN3GoQHPO7MjUavoCw7%252Bbo3qBc%252Bw9v3UMV4lAaz37VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJp%252FvZ8BE16t6LEljCK6MM0dw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/x2-3-1-180-54-uht-hiq-super-gold-uht-i1647500736-s4567096781.html?exlaz=e_YlG3rmEBOANsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cKlLikwsKP9s3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZrAuQKxx6WhuNv7EtgYsuBTSMl31BMDZuGIU0QW92Lb4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKSMllupRuryWBEcAXFatW4Q%253D%253D</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEk</t>
+          <t>https://c.lazada.co.th/t/c.YcAURW</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2700,47 +2700,47 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.9515709958E10</v>
+        <v>3.541300414E9</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4721035309</t>
+          <t>1388642280</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MEDIHEAL TEATREE TROUBLE PAD สูตรคุมมันส่วนเกิน ลดต้นตอการเกิดสิว</t>
+          <t>นมกล่อง เอนฟาโกร ยูเอชที ซุพีเรียร์ สูตร3 ชนิดจืด (27 กล่อง) x2 ลัง Enfagrow UHT Superior Stage3 Plain (27 boxes) x2 cases</t>
         </is>
       </c>
       <c r="E21" s="1" t="n">
-        <v>1199.0</v>
+        <v>1356.0</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>555.0</v>
+        <v>1175.0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-54%</t>
+          <t>-13%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/7cdee8e158d468801f12610c4b9b8ea9.png</t>
+          <t>https://th-live-01.slatic.net/p/a07b1fd2ad68811ef7abe8b91c61b4c3.jpg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mediheal-teatree-trouble-pad-i4721035309-s19515709958.html</t>
+          <t>https://pages.lazada.co.th/products/3-27-x2-enfagrow-uht-superior-stage3-plain-27-boxes-x2-cases-i1388642280-s3541300414.html</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Mediheal</t>
+          <t>Enfagrow</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>100190895552</t>
+          <t>1000001020</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2770,12 +2770,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mediheal-teatree-trouble-pad-i4721035309-s19515709958.html?exlaz=e_n3LTyIj%252F4itsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcMdZijt6Cfss7Ix7%252B%252Fx%252Fmj6U8oeqr%252FymHvWa41U6SZ2Ym5ewkeZM2QaT%252B%252B5AY1l%252BDC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPj%252F2nwKFQwfUQSNm%252BBwMgX7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsK%252BXetyd3vQP2l7W2RzgP0XrbfrHxTmCmJXF2mpaD%252BGqJiEGkcu769DLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3SVLgHLbz1hXPvqbb8ATQr3V0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/3-27-x2-enfagrow-uht-superior-stage3-plain-27-boxes-x2-cases-i1388642280-s3541300414.html?exlaz=e_Jap9IAqJJbZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7dNj7FjDpCNUZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ47eP0Vu8URB9Q%252FeeY3I47TSMl31BMDZuOLYwS%252F4Wk24OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKr8XwCTXGSGqt%252Bqqj0YGm1A%253D%253D</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEP</t>
+          <t>https://c.lazada.co.th/t/c.YcAUR3</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2831,47 +2831,47 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.6382800786E10</v>
+        <v>1.9111666275E10</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4168604896</t>
+          <t>4648754220</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DoctorLine Brightening Golden C Serum  ด็อกเตอร์ไลน์ ไบร์ทเทนนิ่ง โกลเด้น ซี เซรั่ม ลดเลือนรอยฝ้า กระ จุดด่างดำ รอยสิว ผิวหน้าสว่าง ดูโกลด์</t>
+          <t>[TOTAL 3 PACK] BABYLOVE BABY DIAPERS EASYTAPE</t>
         </is>
       </c>
       <c r="E22" s="1" t="n">
-        <v>690.0</v>
+        <v>1467.0</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>690.0</v>
+        <v>1022.0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-0%</t>
+          <t>-30%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/1737bda2d70a35d95d7abaa0c3ac00b5.png</t>
+          <t>https://th-live.slatic.net/p/1530285a5bc0f1f2d0098d3ee23ffe3b.jpg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/doctorline-brightening-golden-c-serum-i4168604896-s16382800786.html</t>
+          <t>https://pages.lazada.co.th/products/3-i4648754220-s19111666275.html</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DoctorLine</t>
+          <t>BabyLove</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>100233690519</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/doctorline-brightening-golden-c-serum-i4168604896-s16382800786.html?exlaz=e_a5MQzruyvJtsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc2n%252BJtIBX0bixWm%252F1WMfXx6U8oeqr%252FymHvWa41U6SZ2Ym5ewkeZM2Q4qIG8xyOQPbC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPH7zURDu8zhpSXLVK%252Bvqig7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsHCQSu2eEnPBC8RardVH7%252BnrbfrHxTmCmd4I1AGjQvHPSfEJGyFaGXDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3exAsROFU6xmdZVQuQk%252FfuHV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/3-i4648754220-s19111666275.html?exlaz=e_xDm%252BV9LVvcRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7bMJLPPaNQ64l9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH6Gedpz%252BmqDV3dy7qZfuOpXdoouIs6WpS3LetVhV7nF%252Bab0kUCnTYmdaANM%252BMLvs2nyXb%252BVCI0U6apvwW63pOXTm42JXw2YvyBbU1669TETQmT8xdOMnmm0%253D</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEl</t>
+          <t>https://c.lazada.co.th/t/c.YcAURe</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2962,47 +2962,47 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.6010097164E10</v>
+        <v>1.115998636E9</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4097729888</t>
+          <t>594384741</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>พร้อมส่ง!! น้ำยาเคลือบแก้วกราฟีน Terra 10H+Graphene เพิ่มนวัตกรรมกราฟีน 1 ชุด</t>
+          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมี พรีไบโอพลัส ดีเอชเอ สูตร 3 รสจืด กลิ่นวานิลลา 180 มล. (2 ลัง : 72 กล่อง)</t>
         </is>
       </c>
       <c r="E23" s="1" t="n">
-        <v>990.0</v>
+        <v>968.0</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>539.0</v>
+        <v>809.0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-46%</t>
+          <t>-16%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/6fd5f96b2701479db9d45a07726504b9.png</t>
+          <t>https://th-live-01.slatic.net/p/54c915eb8dd29647b90640f0b33c2931.jpg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/terra-10hgraphene-1-i4097729888-s16010097164.html</t>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i594384741-s1115998636.html</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Terra</t>
+          <t>Bear Brand</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>100229667364</t>
+          <t>1000001033</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3032,12 +3032,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/terra-10hgraphene-1-i4097729888-s16010097164.html?exlaz=e_%252BazpTWLTmgpsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNce6p%252Bw4%252BUI%252F5fqTrHMsOTO6U8oeqr%252FymHvWa41U6SZ2Ym5ewkeZM2Qd6oAIB4k0qrC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMJ65wg8ouk9cDuBxDjUxBW7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsWgT1LTa9PAKQMkcczv2HdXrbfrHxTmCmkBInDSiqNEPwUc9f68eilTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3XFKUwJHzOFSSv88OeYlABXV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i594384741-s1115998636.html?exlaz=e_H5W65EjNfNhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7RejBWxK7x6Fq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZc3Q9D700zXmblByqyqXQQrXvxAT%252FH7D66ct0cpBQgvfDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNJByKwEkSb1TRvoNLOJqgaw%253D%253D</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEO</t>
+          <t>https://c.lazada.co.th/t/c.YcAURV</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3093,47 +3093,47 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.2226112302E10</v>
+        <v>1.241978164E10</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5235564637</t>
+          <t>3348861701</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Easyout สเปรย์กำจัดไรฝุ่น กำจัดไรฝุ่น 99% ป้องกันไรฝุ่นและตัวเรือด สเปรย์ไรฝุ่นบนที่นอน หมอน ผ้าห่ม ลดอาการภูมิแพ้ ไอจามคันจากไรฝุ่น</t>
+          <t>Molfix โมลฟิกซ์ เอ็กซ์ตร้า ดราย แพ้นส์ XXL48 SJ (ยกลัง)</t>
         </is>
       </c>
       <c r="E24" s="1" t="n">
-        <v>319.0</v>
+        <v>1287.0</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>128.57</v>
+        <v>799.0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-60%</t>
+          <t>-38%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/d0cf7a4ad2a9adb8ea19b0d6af7a263e.jpg</t>
+          <t>https://th-live-01.slatic.net/p/e91476723bb6f58976731fb94c3fe15b.jpg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/easyout-99-i5235564637-s22226112302.html</t>
+          <t>https://pages.lazada.co.th/products/molfix-xxl48-sj-i3348861701-s12419781640.html</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Easy</t>
+          <t>Molfix</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>100793904134</t>
+          <t>100200927053</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3163,12 +3163,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/easyout-99-i5235564637-s22226112302.html?exlaz=e_v7vQxwstHtRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNewyFZFGacdM1jKkD66bAvP6U8oeqr%252FymHvWa41U6SZ2Ym5ewkeZM2QrJAYccxZdyPC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMheldQbIfrB32gHND7U5qp7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjswMzUHs%252Fb5Gbb7kGtamXicnrbfrHxTmCmJ%252BA%252BPvqsrQF8znDwVoY8yDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3YyczL%252BE4SU9krJVrw9xdeXV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/molfix-xxl48-sj-i3348861701-s12419781640.html?exlaz=e_3qrmvmG5gGZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7c2NtkhNqRXxl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZpBZ%252BDbjpDW5OdDttJXdwdp14eY4SxhuRxWSNVx4bN1r7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpPH85kbeaAev%252BbJtiwUhLcQ%253D%253D</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEm</t>
+          <t>https://c.lazada.co.th/t/c.YcAUR4</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3224,47 +3224,47 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>2.2042005313E10</v>
+        <v>6.466558893E9</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5189271097</t>
+          <t>2009120121</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>น้ำหอมแท้100% นำเข้า Polo Sport EDT 100ml. (กล่องพร้อมชีล )ราคานี้สำหรับ 10 ท่านแรกเท่านั้น!! แท้ 100%</t>
+          <t>[ส่งฟรี มีทุกไซส์] ขายยกลัง !! Mamypoko Pants Organic  กางเกงผ้าอ้อม มามี่โพโค แพ้นท์ ออร์แกนิค ไซส์ S-XXL แพ็ค 3</t>
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>2990.0</v>
+        <v>2007.0</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>599.0</v>
+        <v>1605.0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-80%</t>
+          <t>-20%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/88e63257953c914af725266a2ba25058.jpg</t>
+          <t>https://filebroker-cdn.lazada.co.th/kf/Sbd4e99648d604ff99637e36d4afa4865e.jpg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/100-polo-sport-edt-100ml-10-100-i5189271097-s22042005313.html</t>
+          <t>https://pages.lazada.co.th/products/mamypoko-pants-organic-s-xxl-3-i2009120121-s6466558893.html</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>No Brand</t>
+          <t>MamyPoko</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>100774720888</t>
+          <t>1000001012</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/100-polo-sport-edt-100ml-10-100-i5189271097-s22042005313.html?exlaz=e_yNaXzNyIV%252FFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfgnXW8SgpuJZfqTrHMsOTO6U8oeqr%252FymHvWa41U6SZ2YimAChNF9i6aT%252B%252B5AY1l%252BDC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPj%252F2nwKFQwfVFlnDh43P4J7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsAEq8G70U3I69CddMp62ykHrbfrHxTmCm9K5zbL0A4Afs04Oj3wr4yzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3HMMvNqFg6MG3FNGihGzl5nV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/mamypoko-pants-organic-s-xxl-3-i2009120121-s6466558893.html?exlaz=e_BeFqU7YrxQFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fwWSA3eDPG2jcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZMLgticrKSZgJiCiLLRmsZTSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKVKuI7LZ%252FcuDibnXwOybrkQ%253D%253D</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEN</t>
+          <t>https://c.lazada.co.th/t/c.YcAURf</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3355,47 +3355,47 @@
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2.271818414E10</v>
+        <v>7.864518185E9</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5345560594</t>
+          <t>2326616645</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>🎁แถมถุงแบรนเคาน์เตอร์🎁 Giorgio Armani Si Red Eau De Parfum EDP 100ML 💯ของแท้ 100 น้ำหอมผู้หญิง</t>
+          <t>[ขายยกลังx2] โฟร์โมสต์ โอเมก้า สมาร์ท โกลด์ 4 พลัส รสจืด 180มล (24กล่อง/ลัง) Foremost Omega Smart Gold 4 Plus Plain 180ml (นมกล่องUHT)</t>
         </is>
       </c>
       <c r="E26" s="1" t="n">
-        <v>3468.0</v>
+        <v>912.0</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>890.76</v>
+        <v>805.0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-74%</t>
+          <t>-12%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/01181d617b2048ac76e1bee502061646.jpg</t>
+          <t>https://th-live-01.slatic.net/p/69a2a665a45909635e57f37e80583c53.png</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/giorgio-armani-si-red-eau-de-parfum-edp-100ml-100-i5345560594-s22718184140.html</t>
+          <t>https://pages.lazada.co.th/products/x2-4-180-24-foremost-omega-smart-gold-4-plus-plain-180ml-uht-i2326616645-s7864518185.html</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Giorgio Armani</t>
+          <t>FOREMOST</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>100201185672</t>
+          <t>1000001028</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/giorgio-armani-si-red-eau-de-parfum-edp-100ml-100-i5345560594-s22718184140.html?exlaz=e_m8O9v%252FoKAmdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeuxX1cNQwbsERmhjPdPbWN6U8oeqr%252FymHvWa41U6SZ2YimAChNF9i6D8hMacxtp2bC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNydRiblFVGzFDE0kBFlmMm7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs%252FfcymXKr4R699nx4DklgsXrbfrHxTmCmazTE1LRwvED8XitX5ABasDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3eVEefsUVHCG3bRu32vO2HnV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/x2-4-180-24-foremost-omega-smart-gold-4-plus-plain-180ml-uht-i2326616645-s7864518185.html?exlaz=e_CLzefkgAvXBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XAMbjkUM1Vhq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZvq4Fiq0hkOlEajiywKBCdTSMl31BMDZuwxAbB01%252BAoIOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKJPDtVYo16x%252F0oUg%252FyGQ0xg%253D%253D</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEn</t>
+          <t>https://c.lazada.co.th/t/c.YcAURU</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -3486,47 +3486,47 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>7.107766545E9</v>
+        <v>2.049066416E10</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2116958969</t>
+          <t>1120468948</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Naturista Tea Tree Special Set เซ็ททีทรีสเปเชียลสุดคุ้ม ซื้อเป็นเซตถูกกว่า!</t>
+          <t>[ถูกยกลัง] Merries ผ้าอ้อมเมอร์รี่ส์ชนิดกางเกง อัลตร้าจัมโบ้แพ็ค ขนาด M, L, XL, XXL 2 แพ็ค</t>
         </is>
       </c>
       <c r="E27" s="1" t="n">
-        <v>1700.0</v>
+        <v>1198.0</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>399.0</v>
+        <v>875.0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-77%</t>
+          <t>-27%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/b24a0a9629c8693abe67e3a668c47065.jpg</t>
+          <t>https://sg-test-11.slatic.net/p/86a5de2404840fa92df0e1edef8529c9.png</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/naturista-tea-tree-special-set-i2116958969-s7107766545.html</t>
+          <t>https://pages.lazada.co.th/products/x-2-i1120468948-s20490664160.html</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Naturista</t>
+          <t>Merries</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>100181481667</t>
+          <t>1000379863</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3556,12 +3556,12 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/naturista-tea-tree-special-set-i2116958969-s7107766545.html?exlaz=e_wV8Byzd5QiJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcf4hvldqmuxQnPRst%252BgfiUDZzd3uOh8OiHkOIqZ%252BuV7V6DgHWquW1nZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8yVGB5NrYWuWqtKJpPBXLhq%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZmIJVuXchbBRlkX5qvrakO7%252Bbo3qBc%252Bw9tahd7c2fTdH7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJp1C3d4UXVlZvqC0o4AlWudA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/x-2-i1120468948-s20490664160.html?exlaz=e_IMOn92DAfGVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7TXY8fI1J8mhjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZyb4INwgt3boltocuCuwvGTSMl31BMDZu8plFHtsWWt4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKCIQV%252F390k8Gh9870b4J8uA%253D%253D</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEM</t>
+          <t>https://c.lazada.co.th/t/c.YcAUR5</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -3617,47 +3617,47 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.2687871057E10</v>
+        <v>1.93388173E8</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5337984273</t>
+          <t>160577988</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>หนังสือ Grammar Level Up คัมภีร์แกรมมาร์ฉบับสมบูรณ์ โดย ครูพี่แอน พร้อมคลิปสอน มีตัวอย่างข้อสอบและเฉลยกว่า 500 ข้อ</t>
+          <t>[โฉมใหม่ ขายยกลัง] BabyLove Playpants เบบี้เลิฟกางเกงผ้าอ้อมเพลย์แพ้นท์ ไซส์ XL 4 แพ็ค 168 ชิ้น (แพ็คละ 42 ชิ้น)</t>
         </is>
       </c>
       <c r="E28" s="1" t="n">
-        <v>1190.0</v>
+        <v>1996.0</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>412.87</v>
+        <v>1239.0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-65%</t>
+          <t>-38%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/97b952d19ebd50846b7601df17be5e83.jpg</t>
+          <t>https://th-live-01.slatic.net/p/5c0d836d4864b64cee364257e4cd9178.jpg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/grammar-level-up-500-i5337984273-s22687871057.html</t>
+          <t>https://pages.lazada.co.th/products/babylove-playpants-xl-4-168-42-i160577988-s193388173.html</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>No Brand</t>
+          <t>BabyLove</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>100478208123</t>
+          <t>1000001002</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3687,12 +3687,12 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/grammar-level-up-500-i5337984273-s22687871057.html?exlaz=e_QQ%252B9C5tzr45sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfNcLFjvx7sRt7mbCFD038j6U8oeqr%252FymHvWa41U6SZ2YimAChNF9i6ve4OlqVnqkXC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNydRiblFVGzA%252B0z3sJgNXf7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsEk8F8vkxeu0pO2K6ydMJMXrbfrHxTmCmCsgpVXJyf1JSmid39d4J6TLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3cIZJFRxM0bRJYxxEYJn9KHV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/babylove-playpants-xl-4-168-42-i160577988-s193388173.html?exlaz=e_V9ejysArsKxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Q5gX%252B6dTH1O95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZjORKpme0wbAspoq%252FhM9SbbXvxAT%252FH7D6XWAwW4j7dHPDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNvSxaVXr2nEM7fzuKMrVTTQ%253D%253D</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEo</t>
+          <t>https://c.lazada.co.th/t/c.YcAURg</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3748,47 +3748,47 @@
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.0446453118E10</v>
+        <v>1.9108812023E10</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4875427639</t>
+          <t>4648157736</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pure Zen Ultra-soft adjustable cooling pillow comfortably supports and aligns your neck - proprietary gel-infused cooling memory foam promotes cool, cloud-like sleep</t>
+          <t>[SOLD CRATE!][TOTAL 4 PACK] MAMYPOKO PANTS PREMIUM PERFECT DRY</t>
         </is>
       </c>
       <c r="E29" s="1" t="n">
-        <v>1990.0</v>
+        <v>2356.0</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>499.0</v>
+        <v>1555.0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-75%</t>
+          <t>-34%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/babf9f31beed4046c11e14e78521bfcf.jpg</t>
+          <t>https://th-live-01.slatic.net/p/10e558d79c2850bb0abeed7bf16ffa5c.jpg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/pure-zen-gel-infused-i4875427639-s20446453118.html</t>
+          <t>https://pages.lazada.co.th/products/4-i4648157736-s19108812023.html</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Pure Zen</t>
+          <t>MamyPoko</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>100501568864</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3818,12 +3818,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/pure-zen-gel-infused-i4875427639-s20446453118.html?exlaz=e_1gUJFEXEQhdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdBhsbxtzvXLf0u8UlRiVDw6U8oeqr%252FymHvWa41U6SZ2YimAChNF9i6HPPgNYJCfFDC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9vAGWLHfNblb7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsAiYDHzVhgCfuNauTcegCnHrbfrHxTmCmVdUjaThvYrTwUc9f68eilTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3stkKFI%252Fie7XL7rKtRtPAj3V0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/4-i4648157736-s19108812023.html?exlaz=e_striR%252B1SEtxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7UCW9eSsUG3wvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZJKMZbvL%252BygKNv7EtgYsuBWcn7WG0FoLn%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SaV9TQOOiFaaYRMFopfFGTpQ%253D</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEL</t>
+          <t>https://c.lazada.co.th/t/c.YcAURT</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3879,47 +3879,47 @@
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.2385360576E10</v>
+        <v>2.137816465E9</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5265702242</t>
+          <t>985560283</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MEDIHEAL PHYTO-ENZYME PEELING PAD สูตรผลัดเซลล์ผิว ลดการเกิดสิวหัวดำ</t>
+          <t>[ยกลัง x 2 ลัง] นมยูเอชที นมไฮคิวสูตร3 สตาร์ท พรีไบโอโพรเทก รสจืด 110 มล (48 กล่อง) นม UHT HiQ Start PrebioProteq UHT</t>
         </is>
       </c>
       <c r="E30" s="1" t="n">
-        <v>1199.0</v>
+        <v>1296.0</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>555.0</v>
+        <v>1155.0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-54%</t>
+          <t>-11%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/67eb55da525fbcbd65d37f95901a30ef.png</t>
+          <t>https://th-live-01.slatic.net/p/089ade6ad7957b728c735382ded8bf00.jpg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mediheal-phyto-enzyme-peeling-pad-i5265702242-s22385360576.html</t>
+          <t>https://pages.lazada.co.th/products/x-2-3-110-48-uht-hiq-start-prebioproteq-uht-i985560283-s2137816465.html</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Mediheal</t>
+          <t>HiQ</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>100190895552</t>
+          <t>1000001025</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mediheal-phyto-enzyme-peeling-pad-i5265702242-s22385360576.html?exlaz=e_IJfOhsCxfvxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeBHQ5BMoHynHf%252F%252BWtsj42i6U8oeqr%252FymHvWa41U6SZ2UuEGJ69Idc6RHclC8ub%252F5fC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNydRiblFVGzIjga5PiS5eI7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs7AJYZhAkHXDrnACjBTmM%252FXrbfrHxTmCmJXF2mpaD%252BGqJiEGkcu769DLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3Bovk6xZA7QB9CTYd26XLi3V0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/x-2-3-110-48-uht-hiq-start-prebioproteq-uht-i985560283-s2137816465.html?exlaz=e_esfS3itKvi1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cSB1e8zufxEvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZoVmO%252Fg5u9lEDvbRTsWhZsLXvxAT%252FH7D6Uy%252BEe6K2CVrDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNtx06yXD7wIMpu4zUw6Hp%252FA%253D%253D</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEp</t>
+          <t>https://c.lazada.co.th/t/c.YcAUR6</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -4010,47 +4010,47 @@
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.0499562227E10</v>
+        <v>1.2878330639E10</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4880081774</t>
+          <t>3473679173</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[Top seller] CHE-i Rejuglow Booster serum เชอิ รีจูโกลว์ เซรั่ม ของแท้ จากเกาหลี สูตรพัฒนาจากรีจูรัน</t>
+          <t>[ขายยกลังx2] โฟร์โมสต์ โอเมก้า 369 สมาร์ท 1 พลัส รสจืด 180มล (36กล่อง/ลัง) Foremost Omega 369 Smart 1 Plus Plain 180ml (นมกล่องUHT)</t>
         </is>
       </c>
       <c r="E31" s="1" t="n">
-        <v>990.0</v>
+        <v>1080.0</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>467.0</v>
+        <v>936.0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-53%</t>
+          <t>-13%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/Sd20cc500d0984cd698692f7322733778t.jpg</t>
+          <t>https://th-live-01.slatic.net/p/ad07881ae2d7f9f7397d67effb7998ac.png</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/top-seller-che-i-rejuglow-booster-serum-i4880081774-s20499562227.html</t>
+          <t>https://pages.lazada.co.th/products/x2-369-1-180-36-foremost-omega-369-smart-1-plus-plain-180ml-uht-i3473679173-s12878330639.html</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>FOREMOST</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>100511872809</t>
+          <t>1000001028</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4080,12 +4080,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/top-seller-che-i-rejuglow-booster-serum-i4880081774-s20499562227.html?exlaz=e_aRHC5fw5MfVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdRrSZdBb3auhHdGQMlotIJ6U8oeqr%252FymHvWa41U6SZ2UuEGJ69Idc6RrkSUWk4vkTC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrP4dadk%252BroeTRqi5wiJ9LZ67lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsLYLA2CWq4rraOe74DNVsKXrbfrHxTmCmZxC6h4rl9WX3tMNXMzw0FzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3stkKFI%252Fie7Vj23IWvh2FknV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/x2-369-1-180-36-foremost-omega-369-smart-1-plus-plain-180ml-uht-i3473679173-s12878330639.html?exlaz=e_G569BOTn47JsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7W%252B9oe%252BZiSzhq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZUTj8R3RPoGxkHw40ugGWITSMl31BMDZuwxAbB01%252BAoIOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKb3z0VfHPk9EWc4%252Fp0FEFog%253D%253D</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEK</t>
+          <t>https://c.lazada.co.th/t/c.YcAURh</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -4129,2364 +4129,6 @@
         </is>
       </c>
       <c r="AA31" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>2.0898154561E10</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4965232712</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>THANIKA – Hemp Seed Face Oil ออยล์ฟื้นฟูผิวหน้าให้อ่อนเยาว์ ชุ่มชื้น</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>930.0</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>510.0</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>-45%</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/9a8e295c9954057e476974983f75e511.jpg</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/thanika-hemp-seed-face-oil-i4965232712-s20898154561.html</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>THANIKA</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>24%</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>100314720018</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/thanika-hemp-seed-face-oil-i4965232712-s20898154561.html?exlaz=e_elL8rW3CayRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeHzhOTQh%252F8s7JfJOxfKN9Q6U8oeqr%252FymHvWa41U6SZ2UuEGJ69Idc6wZ6CRyIPDlLC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9ggAjd346J1r7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsHAfOc6d7gJSJjD6QHenOXnrbfrHxTmCmJZ4dO0d4fl%252FVe2%252Fnp2H2hzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3fCwUc%252BBUE2Wcr8dyiPT5MXV0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEq</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>1.1505744116E10</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2753964486</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Sleep dee สเปรย์หอมกล่อมนอน สเปรย์ฉีดหมอน  สเปรย์นอนหลับ หลับสนิท ผ่อนคลาย pillow spray 30ml</t>
-        </is>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>790.0</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>-56%</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/be70721003f3e02b3b415938629fbd08.png</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/sleep-dee-pillow-spray-30ml-i2753964486-s11505744116.html</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>WANDO</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>100195476065</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/sleep-dee-pillow-spray-30ml-i2753964486-s11505744116.html?exlaz=e_GaqT3ubHtN9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdZEHJBoyRItURmhjPdPbWN6U8oeqr%252FymHvWa41U6SZ2UuEGJ69Idc6J815S6r%252BBjjC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPH7zURDu8zhvG6hS%252FA0mfR7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsWXlp1EQf4%252FDMMTmvEsXFKnrbfrHxTmCmS%252FkT3%252B%252FFKBpGqpgS8zKf3zLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC37LhT6lNG9w4ro7Os2BILL3V0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEJ</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>1.0134716016E10</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2784855711</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>แอดโพรสท์ ADD PROST-ของแท้- แอ๊ดเทวดา (เซท1กระปุก) อาหารเสริมดูแลอาการฉี่ที่ไม่ปกติ  อาการฉี่บ่อย ฉี่ขัด ฉี่เล็ด ต่อมลูกหมากโต</t>
-        </is>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>603.0</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>-50%</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>https://th-live.slatic.net/p/80bfacfd4f7cc64269ffcf4a0325f8b4.jpg</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/add-prost-1-i2784855711-s10134716016.html</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>ADD PROST</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>100193634513</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/add-prost-1-i2784855711-s10134716016.html?exlaz=e_ytRWte7ToZdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdABEiSJIGA5yIniQKN8QPWDZzd3uOh8OiHkOIqZ%252BuV7UkLmfSMrM%252FH%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8xnwCtFW94svQKmDkpj%252FpFu%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ8OTXhQ2MfhlcN0dY9L7RcL%252Bbo3qBc%252Bw9RkT%252F6%252Fsh2Gr7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpZuN1ok9yw%252FV7OsYZr4KdAA%253D%253D</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEr</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>1.3161329086E10</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2517289739</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>บาลานซ์ ยูคอร์ Balance UCore ส่งตรงจากบริษัทของแท้ 100% ผลิตภัณฑ์เสริมอาหาร BLU</t>
-        </is>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>3870.0</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>1800.0</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>-53%</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/461952b6c6df7689a3015e0b212c5dbf.jpg</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/balance-ucore-100-blu-i2517289739-s13161329086.html</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>BLB</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>100191033329</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/balance-ucore-100-blu-i2517289739-s13161329086.html?exlaz=e_%252FxKHOYak7zRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfXSYYPp2s0gwGoVeQ5yqQlDZzd3uOh8OiHkOIqZ%252BuV7XvJ0G8peXfqM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8x0sFPYa0phfqt0Zy0KEDsG%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH0GKWIqjqlboEhr6kjgMVA4CIIRt8IzKfcDlozS%252FUcLa4CoETvxjZGhpvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FI5W0wctOdIfmn%252FVOmRQfLDw%253D%253D</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEI</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>1.601009937E10</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>4097805430</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>พร้อมส่ง!! น้ำยาเคลือบแก้วกราฟีน Terra 10H+Graphene เพิ่มนวัตกรรมกราฟีน 2 ชุด</t>
-        </is>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>1980.0</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>814.35</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>-59%</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/add027c56e4d85a308b0ea51a9808e35.png</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/terra-10hgraphene-2-i4097805430-s16010099370.html</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Terra</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>21%</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>100229667364</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/terra-10hgraphene-2-i4097805430-s16010099370.html?exlaz=e_aOZEYFxmirdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfIb1UdjdXpuY22v6TU4sLo6U8oeqr%252FymHvWa41U6SZ2f1b4vAxhNvA973Q4qyHfiLC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMJ65wg8ouk9VTWaPK4ca9n7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsXorw1H9Kif2tp0CwJczTNXrbfrHxTmCmkBInDSiqNEPwUc9f68eilTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3XFKUwJHzOFTXGhw0TlfYr3V0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEs</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>1.0874812738E10</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2963475588</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>[แพ็คเดี่ยว / แพ็คคู่] Dermatix Acne Scar เดอร์มาติกซ์แอคเน่สการ์ เจลลดรอยแผลจากสิว ขนาด 5 กรัม</t>
-        </is>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>299.0</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>-7%</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>https://sg-live-01.slatic.net/p/e890556a8289bbc3c1c7c2e21fd19d4e.png</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/fluffy-bag-dermatix-acne-scar-5-i2963475588-s10874812738.html</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Dermatix</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>100192059828</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/fluffy-bag-dermatix-acne-scar-5-i2963475588-s10874812738.html?exlaz=e_%252F%252B9bkYtEczVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNftluEk8r25KzdZgQYYh7jI6U8oeqr%252FymHvWa41U6SZ2f1b4vAxhNvAj8QCKUe%252F0PbC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrP4dadk%252BroeTRxpWvdkjoQf7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs3K4XrkUBNafIFfVRtvcz%252BnrbfrHxTmCmQW%252FQQv7p%252FIME9QPhu6eSOTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3eKkRywuhnvXCTx19oTn6pnV0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEH</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>1.973946954E10</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>4748777402</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>เพียวเกรน น้ำมันงาสกัดเย็น100%</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>190.0</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>-24%</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/4a8ff74f3dc9c3a1faccc87b07584a98.jpg</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/100-i4748777402-s19739469540.html</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>โกเด้นท์-GODENT</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>100106692</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/100-i4748777402-s19739469540.html?exlaz=e_ynrqtkTHg9VsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfHZcsZdFrQ4D4ut99l2%252BG36U8oeqr%252FymHvWa41U6SZ2f1b4vAxhNvAyAnrDeZOuGXC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOeVCwr6bMowOl9I5CwYjyA7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsXFVPkPVaw17zf1wet3c%252BVnrbfrHxTmCm%252BeRnHrauGNJpvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FImVDUD2AvMuyK0ep62osleQ%253D%253D</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEt</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>2.253825045E10</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>5292793145</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>FIVB Official ลูกบอล วอลเลย์บอล ลูกวอลเล่ย์บอล อุปกรณ์วอลเลย์บอล หนังPU Mikasa MVA 300 Volleyball ไซซ์ 5</t>
-        </is>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>1699.0</v>
-      </c>
-      <c r="F39" s="1" t="n">
-        <v>799.0</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>-53%</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>https://sg-test-11.slatic.net/p/c566108242ff47a96a9d0e6a7658559f.jpg</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/fivb-official-pu-mikasa-mva-300-volleyball-5-i5292793145-s22538250450.html</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>OEM</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>100451312571</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/fivb-official-pu-mikasa-mva-300-volleyball-5-i5292793145-s22538250450.html?exlaz=e_A1Q4AU4djV9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6r0z3YM%252BIyDIDZTAlNNPv6U8oeqr%252FymHvWa41U6SZ2XV6kr6XcJK04qIG8xyOQPbC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOeVCwr6bMowGwkOm5h3egS7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsPbmvuYHkLrfW%252FuZbAGoCxHrbfrHxTmCmkyPsrIwyC1Ek%252BTJNcmqxpzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3t%252BFpMOQqkOl6%252Fva2AntHm3V0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEG</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>2.0476013717E10</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>4878089505</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>(2 Pcs.) Aquatia Double Water Filter for Shower (Water Softener , Water purifier fillter , Shower head filter)</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>598.0</v>
-      </c>
-      <c r="F40" s="1" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>-42%</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/22e848a708183a6881943e91a6c2582c.png</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/2-aquatia-2-i4878089505-s20476013717.html</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Aquatia</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>100470784241</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/2-aquatia-2-i4878089505-s20476013717.html?exlaz=e_AlHchll7HUlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdOhzw0gO6xJ7hkSJ7WGZbV6U8oeqr%252FymHvWa41U6SZ2XV6kr6XcJK0hM2sAF1nU5%252FC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9Tdb9VBeYhm57lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs%252Bqs9YZj%252FoLGdWheVGUpNiXrbfrHxTmCmqP8SOy5ufXRZF9smv39NUDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3stkKFI%252Fie7W1Uz%252Bt%252FdSGa3V0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEu</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>2.1290272765E10</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>5035442706</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Organic Ceylon Cinnamon 1200 mg per serving, Blood Sugar Balance Support, Heart Health Support, Joint Support, Natural Dietary Supplement</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>328.54</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <v>134.83</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>-59%</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/e62d8876d59b4d4281d74bed3a19ebb4.jpg</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/organic-ceylon-cinnamon-1200-i5035442706-s21290272765.html</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Bcuelov</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>100610512376</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/organic-ceylon-cinnamon-1200-i5035442706-s21290272765.html?exlaz=e_GUbZigbHMBhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeGQHb2ovOVidEPidDtVuIa6U8oeqr%252FymHvWa41U6SZ2XV6kr6XcJK0u73xPwADCYnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrP4dadk%252BroeTWxRdBsCl97p7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsO3OELDFlCSW1B1TL7TBYxHrbfrHxTmCmgZMCFrAE0yomtQ1uhFeOrTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3OZ97h451EYcnhp2RGeu3CnV0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEF</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>1.7238909729E10</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>4326783215</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>ใหม่! เซรั่มช่วยเติมความชุ่มชื้นให้แก่ผิว The Skin Collection Hya Filler Serum</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>590.0</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <v>329.0</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>-44%</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/e8cdecf2ed7aa5c8a1560de8cd593a4a.jpg</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/the-skin-collection-hya-filler-serum-i4326783215-s17238909729.html</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>The skin collection</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>100190928612</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/the-skin-collection-hya-filler-serum-i4326783215-s17238909729.html?exlaz=e_FxczqFQUhAJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeuo4brKU219xOoskJvGhMeDZzd3uOh8OiHkOIqZ%252BuV7cUYA8tFKL5WM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8yCWktsu77nPXFf%252BmK7MpLg%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ06eNcoLSjdD3rg1V5XYwH7%252Bbo3qBc%252Bw9v3UMV4lAaz37VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpkj5pDQurzWXYMcAQTpOs5w%253D%253D</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEv</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>6.468176157E9</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2009216040</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>ไคโตซานผง เกรดAA สรรพคุณนำไปใช้แปรูปด้านเลี้ยงสัตว์ การเกษตรเช่นทำปุ๋ย และทางการแพทย์ บรรจุ 500 กรัม(ครึ่งกิโลกรัม) ขายตรงจากโรงงาน</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>980.0</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <v>649.0</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>-34%</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/6510950de172d06c7a37e60eacf751d8.jpg</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/aa-500-i2009216040-s6468176157.html</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>No Brand</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>100186587176</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/aa-500-i2009216040-s6468176157.html?exlaz=e_%252FZLjy1USs95sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfjnqTPthUokaD4yejFF4b7DZzd3uOh8OiHkOIqZ%252BuV7XwUz1ivYWXCs3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfiEC5RWKUAMfCylB7aty5%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZVmHJ7GbMGbZGqw%252BvgUJ0TL%252Bbo3qBc%252Bw9rN21cNf2miz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpoR6R4QMBYSQe6R0QBNhfVw%253D%253D</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEE</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>1.5203119504E10</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3941075768</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>ใหม่! ชุดสกินแคร์สำหรับคนเป็นสิว ผลัดเซลล์ผิว ช่วยปลอบประโลม ลดการระคายเคือง The Skin Collection Special Set ซื้อเป็นเซตถูกกว่า!</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>1800.0</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>399.0</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>-78%</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/bf202a56e8e3d66cc82d6a9ffe05fbdd.jpg</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/the-skin-collection-special-set-i3941075768-s15203119504.html</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>The skin collection</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>100190928612</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/the-skin-collection-special-set-i3941075768-s15203119504.html?exlaz=e_SQHpbxqbw9hsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeuo4brKU219xOoskJvGhMeDZzd3uOh8OiHkOIqZ%252BuV7dDw4nG0nul3l9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8yCWktsu77nPXFf%252BmK7MpLg%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ4fNeKKfYoiJt%252FPMbiMLCwL%252Bbo3qBc%252Bw9v3UMV4lAaz37VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJplEL5kv2%252BoRdH%252FAItamyYvQ%253D%253D</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVED</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>2.1023637832E10</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4986099080</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>ALEENA COFFEE กาแฟอะลีน่า โปร 2 แถม 1 กาแฟบำรุงสายตา บำรุงกระดูก แก้ปวดเมื่อย ขำรุงเข่า รุ่นใหม่ล่าสุด ส่งฟรี</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>1120.0</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>560.0</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>-50%</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/78946985b7fd2318b1345b2ddc576d88.jpg</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/aleena-coffee-2-1-i4986099080-s21023637832.html</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>No Brand</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>100222305036</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/aleena-coffee-2-1-i4986099080-s21023637832.html?exlaz=e_bR%252FMMSazQmtsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcpJ4ONAvsAQ0RmhjPdPbWN6U8oeqr%252FymHvWa41U6SZ2UU8bEkR1kYXoHfuwGnTdp%252FC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9m3n2pcfFf8R7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsoSjtRi80BdCrQehZTzUoeHrbfrHxTmCmS7RmJ4uHVQwpgN5naawEkjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3IuWIrcOP7195EunkBoLTCnV0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEx</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>2.1456947078E10</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>5085629453</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>ALEENA COFFEE กาแฟอะลีน่า 4 แถม 3  กาแฟบำรุงสายตา บำรุงกระดูก แก้ปวดเมื่อย บำรุงเข่า ปวดข้อ ปวดขา รุ่นใหม่ล่าสุด ส่งฟรี</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>2999.0</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>-67%</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/db490afb506577e90b882af77f844f49.jpg</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/aleena-coffee-4-3-i5085629453-s21456947078.html</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>No Brand</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>100222305036</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/aleena-coffee-4-3-i5085629453-s21456947078.html?exlaz=e_ZmpZyj2rDqBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcpJ4ONAvsAQ0RmhjPdPbWN6U8oeqr%252FymHvWa41U6SZ2doIsE2M9YM6Hw2HSuYv%252BO%252FC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9m3n2pcfFf8R7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs%252BZXsn1TSo3DTXMpea0KhnHrbfrHxTmCmS7RmJ4uHVQwpgN5naawEkjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3NzDwxLL3WAsrm49pwgEnWXV0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEC</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>2.1292302132E10</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>5035344173</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>แอดโพรสท์ ADDPROST แอ๊ดเทวดา อาหารเสริม ฉี่บ่อย ฉี่บ่อยกลางคืน ฉี่เล็ด ฉี่ขัด ฉี่ไม่สุด อั้นฉี่ไม่ได้ ปวดหน่วงเวลาฉี่ แสบขัดเวลาฉี่ ฉี่กระปริบกระปรอย  ฉี่ไม่พุ่ง ฉี่ไม่ออก ปัสสาวะบ่อย ปัสสาวะเล็ด ปัสสาวะขัด กระเพาะปัสสาวะอักเสบ ต่อมลูกหมากโต ฉี่ผิดปกติ</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>999.0</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>699.0</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/73c03963327870e72b9fc5d0187054df.png</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/addprost-i5035344173-s21292302132.html</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>ADD PROST</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>100635488258</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/addprost-i5035344173-s21292302132.html?exlaz=e_l7bDPiAyBQVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfIya8hCuAMfLgDo2m5A0Om6U8oeqr%252FymHvWa41U6SZ2doIsE2M9YM6SE59P7Ec8rDC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOs9SeI8JcngBVAKqzPXNmQ7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs7p1WawcIEG%252Bkuk4vRO7WPXrbfrHxTmCmH7crug8CZJUG%252FEXMwXyg%252FzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3OZ97h451EYflzLCm5dOzZnV0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEy</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>1.9463621742E10</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>4718849952</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Beneficial Bacteria for Pond and Fish Tank Living inside</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>170.0</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>-6%</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/d52e73123709ac33748ed5f28a529dec.png</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/living-inside-i4718849952-s19463621742.html</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>No Brand</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>100412688107</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/living-inside-i4718849952-s19463621742.html?exlaz=e_amYPUoCFRitsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNebu%252FzCAN0tHLJfJOxfKN9Q6U8oeqr%252FymHvWa41U6SZ2doIsE2M9YM6uX%252F5cuolSgXC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMqUCdsuKYGi36470sisq8c7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsdFAKUCjhNCjOAIJqy48ieXrbfrHxTmCmto%252FGub0EHHeb0qWEzSZJPjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC307PBE7SjhOx837iejZP7RnV0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEB</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="n">
-        <v>2.2538333373E10</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>5292713441</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Molten GG7X ลูกบาส หนังพียู รุ่นยอดนิยม ซื้อหนึ่งแถมสี่ จัดส่งที่รวดเร็ว ลูกบาสเก็ตบอลขนาด 7</t>
-        </is>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>1699.0</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>656.12</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>-61%</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>https://sg-test-11.slatic.net/p/f22486a47d6479be54bc9f90e1af1f85.jpg</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/molten-gg7x-7-i5292713441-s22538333373.html</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>MOLTEN</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>100451312571</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/molten-gg7x-7-i5292713441-s22538333373.html?exlaz=e_5KNP7jfaTCBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6r0z3YM%252BIyDIDZTAlNNPv6U8oeqr%252FymHvWa41U6SZ2doIsE2M9YM6egxi%252FvSfqxvC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOeVCwr6bMowGwkOm5h3egS7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsXsYwShI8cnC6YttV8sPVkHrbfrHxTmCmkyPsrIwyC1Ek%252BTJNcmqxpzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3t%252BFpMOQqkOn5QMJzBeSs13V0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAVEz</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
         <is>
           <t>Bonus Products Link</t>
         </is>

--- a/lazada_/download/data_promo_list.xlsx
+++ b/lazada_/download/data_promo_list.xlsx
@@ -211,37 +211,37 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>2.0730696012E10</v>
+        <v>1.9150073004E10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4924890256</t>
+          <t>4656921747</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[TOTAL 2 PACK] MERRIES DIAPER TYPE PANTS SIZE L-XL</t>
+          <t>(เลือกไซต์ด้านใน) Merries Japan Pants ผ้าอ้อมเมอร์รี่ส์ชนิดกางเกง Size M- XXL x 2แพ็ค แพมเพิส Merries ยกลัง</t>
         </is>
       </c>
       <c r="E2" s="1" t="n">
         <v>1538.0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1065.0</v>
+        <v>1538.0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-31%</t>
+          <t>-0%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/c4212ebcfef6b95ad9ae2ac263025016.jpg</t>
+          <t>https://th-live-01.slatic.net/p/8b0b68f18daa8ea0d96d61b1a8449381.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/2-merries-l-xl-i4924890256-s20730696012.html</t>
+          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-m-xxl-x-2-merries-i4656921747-s19150073004.html</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -251,7 +251,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -261,7 +261,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -281,12 +281,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/2-merries-l-xl-i4924890256-s20730696012.html?exlaz=e_EQEd8t4Js6RsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7Tldt90FqnFUq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZGVLsqILF4T8NEh%252F7Psw1bWcn7WG0FoLn%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SadJRqzKcS1rxWZ0hRMRPNrQ%253D</t>
+          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-m-xxl-x-2-merries-i4656921747-s19150073004.html?exlaz=e_6AQUteEQnudsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7ZetC%252BI%252Fxfwa95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH6Gedpz%252BmqDVNlm2kPbPUNXzqLK7rQKA1C%252BrMWhx2bM2ab0kUCnTYmdaANM%252BMLvs2nyXb%252BVCI0U6apvwW63pOXTm42JXw2YvyKXV677ot60%252F%252FZi%252BmtHVZ1U%253D</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUiw</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAn</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -342,47 +342,47 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1.5131495665E10</v>
+        <v>1.2419791273E10</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3929082287</t>
+          <t>3348841850</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมีพรีไบโอพลัส ดีเอชเอ สูตร4 รสจืด กลิ่นวานิลลา 180 มล.(2 ลัง : 72 กล่อง) นมกล่องยูเอชทีสำหรับเด็กและทุกคนในครอบครัว</t>
+          <t>Molfix โมลฟิกซ์ เอ็กซ์ตร้า ดราย แพ้นส์ L62 SJ (ยกลัง)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>968.0</v>
+        <v>1287.0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>809.0</v>
+        <v>799.0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-16%</t>
+          <t>-38%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/a95051cd062237147d61d3f798e62e3d.jpg</t>
+          <t>https://th-live-01.slatic.net/p/871f84ce0baf98ad231b72984d75b006.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-4-180-2-72-i3929082287-s15131495665.html</t>
+          <t>https://pages.lazada.co.th/products/molfix-l62-sj-i3348841850-s12419791273.html</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Bear Brand</t>
+          <t>Molfix</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>7.8%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -392,7 +392,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1000001033</t>
+          <t>100200927053</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -412,12 +412,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-4-180-2-72-i3929082287-s15131495665.html?exlaz=e_Daradz1Fl25sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7ZVKytTZFUvOM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZRVAqyT83i5MtoNYCq8GH%252BjSMl31BMDZuTaYknftDWZ4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK%252BB%252FClAi503HVIDgB%252FOV4cg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/molfix-l62-sj-i3348841850-s12419791273.html?exlaz=e_Vmm6Cm3vdVRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdkjFCX%252F%252FLpZ%252BYGauRBkp%252BM6U8oeqr%252FymHvWa41U6SZ2W6ZxyPDDFU1qnKpacTbAO3C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9c4VC74TE3wL7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsJEn3hCN1lAGV7pnta24Pk3rbfrHxTmCmYAmF2TyPBZ%252BRptzIAJtG%252FjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3BAQ4GPvGaPoOOwcp8sJrX3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUiD</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAM</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -473,47 +473,47 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>1.9653801199E10</v>
+        <v>1.8705935603E10</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4765210412</t>
+          <t>2564940595</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[ขายยกลังx3] โฟร์โมสต์ โอเมก้า สมาร์ท โกลด์ 4 พลัส รสจืด 180มล (24กล่อง/ลัง) Foremost Omega 369 Smart Gold 4 Plus Plain 180ml (นมกล่องUHT)</t>
+          <t>(รุ่นใหม่)Pigeon พีเจ้น ขวดนมPPSUสนูปี้160มล.จุกซอฟทัชSS และ 240 มล.จุกซอฟทัช M แพ็คคู่</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1368.0</v>
+        <v>1045.0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1198.0</v>
+        <v>898.0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-12%</t>
+          <t>-14%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/793b6b5be50547140412431226e68c77.png</t>
+          <t>https://th-live-01.slatic.net/p/8da9bc292d1c5e934d279e524d61be03.jpg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x3-4-180-24-foremost-omega-369-smart-gold-4-plus-plain-180ml-uht-i4765210412-s19653801199.html</t>
+          <t>https://pages.lazada.co.th/products/pigeon-ppsu160ss-240-m-i2564940595-s18705935603.html</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>FOREMOST</t>
+          <t>Pigeon</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1000001028</t>
+          <t>1000454608</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x3-4-180-24-foremost-omega-369-smart-gold-4-plus-plain-180ml-uht-i4765210412-s19653801199.html?exlaz=e_fMp82tNp2%252FJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7a6TQLkZmj8%252FZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZCPN0ucrDK4nTHWh4YX5jdTSMl31BMDZuwxAbB01%252BAoIOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKUnRjZwq5joGP%252BEAZHVreCg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/pigeon-ppsu160ss-240-m-i2564940595-s18705935603.html?exlaz=e_LoqEYKI%252F8iVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdFHYwPqdMW2P0u8UlRiVDw6U8oeqr%252FymHvWa41U6SZ2W6ZxyPDDFU1u73xPwADCYnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMheldQbIfrBwoLk0cCwgos7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagiscllIJGI5mGhbzi1ZhkH%252BQs6XIKK7d8SApM1zqs2%252FN3YG6zENRPYJaEAZb7ydj%252FxpvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FIq8lIvUiqOQwLt2wHm3dy4A%253D%253D</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUix</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAo</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -604,42 +604,42 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>2.2031144188E10</v>
+        <v>1.5131495665E10</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5186724753</t>
+          <t>3929082287</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[ส่งฟรี มีทุกไซส์] ใหม่!! Toy Box Mamypoko Pants Organic กางเกงผ้าอ้อม มามี่โพโค แพ้นท์ ออร์แกนิค (กล่องเก็บของเล่น) ไซส์ M-XXL แพ็ค 3</t>
+          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมีพรีไบโอพลัส ดีเอชเอ สูตร4 รสจืด กลิ่นวานิลลา 180 มล.(2 ลัง : 72 กล่อง) นมกล่องยูเอชทีสำหรับเด็กและทุกคนในครอบครัว</t>
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2007.0</v>
+        <v>968.0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1499.0</v>
+        <v>809.0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-25%</t>
+          <t>-16%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S6277d564f1e6405a8d1b7a6d14c44d03K.jpg</t>
+          <t>https://th-live-01.slatic.net/p/a95051cd062237147d61d3f798e62e3d.jpg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/toy-box-mamypoko-pants-organic-m-xxl-3-i5186724753-s22031144188.html</t>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-4-180-2-72-i3929082287-s15131495665.html</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>MamyPoko</t>
+          <t>Bear Brand</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1000001012</t>
+          <t>1000001033</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -674,12 +674,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/toy-box-mamypoko-pants-organic-m-xxl-3-i5186724753-s22031144188.html?exlaz=e_O4P07mIJqNRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7aBFD7SvljJJ%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZV68uv9kfW%252Br1o9kMaWasTTSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKL7REKRlTo6rBkaZoU%252FeV0w%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-4-180-2-72-i3929082287-s15131495665.html?exlaz=e_ulD9clcZTw9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7TUSfZbljUXfM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZRVAqyT83i5MtoNYCq8GH%252BjSMl31BMDZuTaYknftDWZ4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK%252BB%252FClAi503HVIDgB%252FOV4cg%253D%253D</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUiC</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAL</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/26-uht-3-72-s-26-gold-uht-formula-3-2-case-72-boxes-i521926507-s929702415.html?exlaz=e_jXaJByNL5TxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7SiPF146QCFSM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZrR664Hs4JVPzqLK7rQKA1LXvxAT%252FH7D6uTvW45Tm5GzDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNyhIaLXj7EeNluB1sM6BixQ%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/26-uht-3-72-s-26-gold-uht-formula-3-2-case-72-boxes-i521926507-s929702415.html?exlaz=e_CT9KnCUVJ61sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7WbkXaxmfOTl95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZrR664Hs4JVPzqLK7rQKA1LXvxAT%252FH7D6uTvW45Tm5GzDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNyhIaLXj7EeNluB1sM6BixQ%253D%253D</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUiy</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAs</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/s-26-3-x-9-2-54-s-26-uht-gold-pro-3x9-pack-2-cases-54-boxes-i4329930392-s17249068642.html?exlaz=e_zmmM68i01%252B9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7YyaGCWbjTL0s3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZyRbFbtXSR7I%252Bt%252F5TqfVrZzSMl31BMDZuovLcky0FEDMOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK6Gcc9t%252BomwrQIWuFiVQ7Iw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/s-26-3-x-9-2-54-s-26-uht-gold-pro-3x9-pack-2-cases-54-boxes-i4329930392-s17249068642.html?exlaz=e_KhuM%252FwHcibRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7UfYWZ2Y4edyq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZyRbFbtXSR7I%252Bt%252F5TqfVrZzSMl31BMDZuovLcky0FEDMOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK6Gcc9t%252BomwrQIWuFiVQ7Iw%253D%253D</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUiB</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAu</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -997,47 +997,47 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>5.23692041E8</v>
+        <v>1.4397632571E10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>303382409</t>
+          <t>3786970440</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[ยกลัง] [น้ำยาล้างขวดนม] เบบี้มายด์ และ จุกนม ถุงเติม (570 มล. x แพ็ค 12) / Babimild Baby Bottle &amp; Nipple Cleaner Refill (570 ml x12)</t>
+          <t>เลือกไซส์ก่อนกดสั่งซื้อ! [ToyBox] เบบี้เลิฟ เพลย์แพ้นส์ พรีเมี่ยม ลังประหยัด ไซส์ M-XXL (3 แพ็ค)</t>
         </is>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1044.0</v>
+        <v>1497.0</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>418.0</v>
+        <v>899.0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-60%</t>
+          <t>-40%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S59e8ff6efbaf4760b8305ba7cc8146d2E.jpg</t>
+          <t>https://th-live-01.slatic.net/p/f87435519294c3c0ebc56e2c7466e5df.jpg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/570-x12-babi-mild-bottle-nipple-cleaner-refill-570ml-x12-i303382409-s523692041.html</t>
+          <t>https://pages.lazada.co.th/products/toybox-m-xxl-3-i3786970440-s14397632571.html</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Babi Mild</t>
+          <t>BabyLove</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>100107263</t>
+          <t>1000001002</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/570-x12-babi-mild-bottle-nipple-cleaner-refill-570ml-x12-i303382409-s523692041.html?exlaz=e_LnRywMGb2Y9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdzl%252BvD5IasyU5BI0h76j%252B6DZzd3uOh8OiHkOIqZ%252BuV7fWXrJSI6LK7l9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ8rnr8DIOyDM%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ2UOgRreHimoCIIRt8IzKfSLlYjhYeFku2AxcB5B3iMbtGfupcRfwU2dlXDqhrzzZxwTJ97Cs2cY%252FTHjoWWXZz0ASfMaCeW879OSovb%252FzvXl1dGbznhhDVA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/toybox-m-xxl-3-i3786970440-s14397632571.html?exlaz=e_G3qhxOndXptsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7W6jFNSda%252BxDZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZyNtmhsBjnXxGqw%252BvgUJ0TDSMl31BMDZulAZ19yY3Ys4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKCHLjyBsYYhmuk4r9IFpzZg%253D%253D</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUiz</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAF</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1128,47 +1128,47 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>1.079978412E9</v>
+        <v>2.0894389845E10</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>584034671</t>
+          <t>4965170072</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>นมกล่อง ยกลังx2ลัง นมยูเอชที ดูเม็กซ์ ดูโกร รสจืด 180 มล (72 กล่อง) UHT Dumex Dugro นมดูโกร</t>
+          <t>Beige รถเข็นเด็ก รถเข็นเด็กโต เข็นหน้า-หลังได้ รถเข็นเด็กพับได้ เข็มขัดนิรภัยห้าจุด ล้อสากล ที่นั่งขนาดใหญ่ รับน้ำหนักได้มากถึง 50 โล</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>940.0</v>
+        <v>1999.0</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>835.0</v>
+        <v>968.75</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-11%</t>
+          <t>-52%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/e4ea4dc4eae90ce03e814d47e3c785b5.jpg</t>
+          <t>https://th-live-01.slatic.net/p/b732dab076ab3e1a9a4122e6b7ddcbce.jpg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-180-72-uht-dumex-dugro-i584034671-s1079978412.html</t>
+          <t>https://pages.lazada.co.th/products/beige-50-i4965170072-s20894389845.html</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Dumex</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1000001029</t>
+          <t>1000455452</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-180-72-uht-dumex-dugro-i584034671-s1079978412.html?exlaz=e_2yQ%252B7BpC1l5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7T3fE8uSRla0jcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZcdes36UMORSblByqyqXQQrXvxAT%252FH7D6F20p4BqrYSXDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNPRgmHAZd8rXIVeZbXjLalw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/beige-50-i4965170072-s20894389845.html?exlaz=e_Zdg6JQrTUXZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNf0B27FoEoitDcjpuqaKNfODZzd3uOh8OiHkOIqZ%252BuV7Xyrq8VV2ONwZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8w%252FpZrZYzkNpiK8%252BDrBKnwA%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZRyRb2RdFJ06w8770vgDWEjSMl31BMDZuldDUO2rtG2YOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKcLayQza1QpFmdWNlh%252BxuYg%253D%253D</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUiA</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAE</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1259,47 +1259,47 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>2.2973809466E10</v>
+        <v>1.0089689518E10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5397815603</t>
+          <t>2774325161</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Softher Kids Ashwagandha Gummy วิตามินเหนียว 60 เม็ด</t>
+          <t>DODOLOVE เครื่องนึ่งขวดนมพร้อมอบแห้ง สามารถฆ่าเชื้อด้วยไอน้ำ อบแห้งโดยลมร้อน นึ่งขวดนม</t>
         </is>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1899.0</v>
+        <v>5900.0</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>372.06</v>
+        <v>1290.0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-80%</t>
+          <t>-78%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/be3c655f5b4d53c81aea6be66a8ff86a.jpg</t>
+          <t>https://th-live-01.slatic.net/p/321f8d113af411f6ef372770d47c7546.jpg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/softher-kids-ashwagandha-gummy-60-i5397815603-s22973809466.html</t>
+          <t>https://pages.lazada.co.th/products/dodolove-i2774325161-s10089689518.html</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SOFTHER HEALTHY CHOICES</t>
+          <t>Dodolove</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>100907872123</t>
+          <t>1000395507</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/softher-kids-ashwagandha-gummy-60-i5397815603-s22973809466.html?exlaz=e_NyI1L9JusVxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNe9soKLBHrRddqWmPeOgCBp6U8oeqr%252FymHvWa41U6SZ2U8GP7nM6zncE2h%252BYDiHFknC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNOysa3%252BG31MN2qT6AFWcA07lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsdz5%252BzYwKQz4%252BvIeTpCEb3nrbfrHxTmCmNc7RUjvqa45Smid39d4J6TLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC306O1b7dRuqxIbd4nCHW6w3V0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/dodolove-i2774325161-s10089689518.html?exlaz=e_Finihd%252B6BqdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdWQ7WztrASWLgDo2m5A0Om6U8oeqr%252FymHvWa41U6SZ2TFnpmNC5TgZo6%252BtJnVkCKPC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9kuOZm2GQxFt7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagiscllIJGI5mGhbzi1ZhkH%252B6t85vIJDSHhkCglsVXddunYG6zENRPYJUJAqian%252BNk9pvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FILTizfpWgrVd8qaN8bDBNhQ%253D%253D</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURa</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAD</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1390,47 +1390,47 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>2.2974719106E10</v>
+        <v>1.2878470257E10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5372730357</t>
+          <t>3473673237</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Omilay Kids OMEGA DHA Gummy อาหารเสริมสำหรับเด็กช่วยเสริมสร้างความจำ ดีเอชเอ วิตตามิน Gummies 60เม็ด</t>
+          <t>[ขายยกลังx2] โฟร์โมสต์ โอเมก้า 369 สมาร์ท 4 พลัส รสจืด 180มล (36กล่อง/ลัง) Foremost Omega 369 Smart 4 Plus Plain 180ml (นมกล่องUHT)</t>
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1995.0</v>
+        <v>1080.0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>372.06</v>
+        <v>936.0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-81%</t>
+          <t>-13%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/b4bac1d7e8308d38cdbece383b4da275.jpg</t>
+          <t>https://th-live-01.slatic.net/p/6a594f31cd33ac06bdce8194e6c7982e.png</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/omilay-kids-omega-dha-gummy-gummies-60-i5372730357-s22974719106.html</t>
+          <t>https://pages.lazada.co.th/products/x2-369-4-180-36-foremost-omega-369-smart-4-plus-plain-180ml-uht-i3473673237-s12878470257.html</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Omilay</t>
+          <t>FOREMOST</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>100879296237</t>
+          <t>1000001028</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1460,12 +1460,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/omilay-kids-omega-dha-gummy-gummies-60-i5372730357-s22974719106.html?exlaz=e_VuxXkiGOxkVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfNjuWZctHtOXMexoqXFY5g6U8oeqr%252FymHvWa41U6SZ2U8GP7nM6zncZR1I5jHBV6%252FC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNOysa3%252BG31MIFwYXB5H3Kc7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsLTex4e0fep4EAJi%252Fa%252FCwGHrbfrHxTmCmz%252B7pHNXYsJSEISKvVXVkhjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC306O1b7dRuqzPw3lUpeKQNXV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/x2-369-4-180-36-foremost-omega-369-smart-4-plus-plain-180ml-uht-i3473673237-s12878470257.html?exlaz=e_wa3zWutXrQpsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7ZytZP1cyBV5M3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZoOynkz2eMZSt9aT224ENrDSMl31BMDZuwxAbB01%252BAoIOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK4%252FgLdngeDyxOTX%252F4QLogXg%253D%253D</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURZ</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAx</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1521,47 +1521,47 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>1.93388178E8</v>
+        <v>2.0730869455E10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>160577993</t>
+          <t>4924848539</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[โฉมใหม่ ขายยกลัง] BabyLove Playpants เบบี้เลิฟกางเกงผ้าอ้อมเพลย์แพ้นท์ ไซส์ L 4 แพ็ค 184 ชิ้น (แพ็คละ 46 ชิ้น)</t>
+          <t>MERRIES BABY DIAPER TYPE PANTS SIZE S-XXL (TOTAL 3 PACK)</t>
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1996.0</v>
+        <v>1515.0</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1239.0</v>
+        <v>1083.0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-38%</t>
+          <t>-29%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/3fdec66dd2d8ae040946c670b9138089.jpg</t>
+          <t>https://th-live-01.slatic.net/p/7b7373fb604c977127ac0ac016f847c5.jpg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/babylove-playpants-l-4-184-46-i160577993-s193388178.html</t>
+          <t>https://pages.lazada.co.th/products/s-xxl-3-i4924848539-s20730869455.html</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>BabyLove</t>
+          <t>Merries</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1000001002</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/babylove-playpants-l-4-184-46-i160577993-s193388178.html?exlaz=e_HnkOFsw7o5FsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7QKHs%252BWRhKnavLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZv%252Bn73QIpA2sDvbRTsWhZsLXvxAT%252FH7D6XWAwW4j7dHPDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNvSxaVXr2nEOOdCNjLQOj3Q%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/s-xxl-3-i4924848539-s20730869455.html?exlaz=e_eSfpLRkrFipsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7XtsZqBU%252BJsIl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH6Gedpz%252BmqDVnCSUSR3JdbgCIIRt8IzKfXLetVhV7nF%252Bab0kUCnTYmdaANM%252BMLvs2nyXb%252BVCI0U6apvwW63pOXTm42JXw2YvyPrzxJ5gIzboBKQs1e4bIHg%253D</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUR0</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAC</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1652,42 +1652,42 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>6.447574834E9</v>
+        <v>1.8976935789E10</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2004462017</t>
+          <t>4624735271</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[ส่งฟรี มีทุกไซส์] ขายยกลัง! MamyPoko Lovely Day&amp;Night ผ้าอ้อมเด็กแบบกางเกง รุ่นบางสบาย ไซส์ S - XXL (แพ็ค 3)</t>
+          <t>มอเตอร์ไกวเปล ยี่ห้อ sbaby SH20 มอเตอร์ไกวเปลอัตโนมัติ  ทนทาน ใช้ดี ไกวได้น้ำหนักถึง 100 กก.</t>
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1275.0</v>
+        <v>1134.0</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>779.0</v>
+        <v>850.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-39%</t>
+          <t>-25%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S52ac9935c0ea4b6ab535492925cb82abH.jpg</t>
+          <t>https://th-live-02.slatic.net/p/ee4387c250161e1e1b7be2c6a3dbe910.jpg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mamypoko-lovely-daynight-s-xxl-3-i2004462017-s6447574834.html</t>
+          <t>https://pages.lazada.co.th/products/sbaby-sh20-100-i4624735271-s18976935789.html</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>MamyPoko</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1000001012</t>
+          <t>1000152657</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mamypoko-lovely-daynight-s-xxl-3-i2004462017-s6447574834.html?exlaz=e_6kZ7Tzc1iSlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7SB%252BUjoAsr2NvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZKQP0NoJEtDO7dS6cB%252FSfgDSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKPiiY88IwX16ZRGVnUxWUdA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/sbaby-sh20-100-i4624735271-s18976935789.html?exlaz=e_Z68jgxk0sAtsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Y7CT7QzNr14q2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZUHXYa4zuaSDTirnyBwPJmDSMl31BMDZuur1wjfmuhkoOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKa%252Bfjq5BMeDMrHHzJ7lll8Q%253D%253D</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURb</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAy</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1783,23 +1783,23 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2.09040073E8</v>
+        <v>1.079978412E9</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>168696071</t>
+          <t>584034671</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>นมกล่อง ยกลัง x 2 ลัง นมยูเอชที นมไฮคิวสูตร3 สตาร์ท พรีไบโอโพรเทก รสจืด 180 มล (72 กล่อง) นม UHT HiQ Start PrebioProteq UHT</t>
+          <t>นมกล่อง ยกลังx2ลัง นมยูเอชที ดูเม็กซ์ ดูโกร รสจืด 180 มล (72 กล่อง) UHT Dumex Dugro นมดูโกร</t>
         </is>
       </c>
       <c r="E14" s="1" t="n">
-        <v>1514.0</v>
+        <v>940.0</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1343.0</v>
+        <v>835.0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1808,17 +1808,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/747fdafc8785d6f0754b343219a2521a.jpg</t>
+          <t>https://th-live-01.slatic.net/p/e4ea4dc4eae90ce03e814d47e3c785b5.jpg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x-2-3-180-72-uht-hiq-start-prebioproteq-uht-i168696071-s209040073.html</t>
+          <t>https://pages.lazada.co.th/products/x2-180-72-uht-dumex-dugro-i584034671-s1079978412.html</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>HiQ</t>
+          <t>Dumex</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1000001025</t>
+          <t>1000001029</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x-2-3-180-72-uht-hiq-start-prebioproteq-uht-i168696071-s209040073.html?exlaz=e_m8I48DgXmf5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7W%252F%252B%252FRVuwNpP95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZc6WqHmsDvm%252BblByqyqXQQrXvxAT%252FH7D6Uy%252BEe6K2CVrDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNvQr4plg7hFE7fzuKMrVTTQ%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/x2-180-72-uht-dumex-dugro-i584034671-s1079978412.html?exlaz=e_sNb6l6fJAGVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7TucyqlwBWBlkB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZcdes36UMORSblByqyqXQQrXvxAT%252FH7D6F20p4BqrYSXDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNPRgmHAZd8rXIVeZbXjLalw%253D%253D</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURY</t>
+          <t>https://c.lazada.co.th/t/c.YcAoAB</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1914,47 +1914,47 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4.963970597E9</v>
+        <v>2.1178356943E10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1731448226</t>
+          <t>5011582731</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>เอส26 นมกล่องยูเฮชที โอเมก้าพลัส (สูตร3) แพ็ค 4 x 9 จำนวน 2 ลัง (72 กล่อง)(S-26 Omega Plus UHT New Formulation! Added DHA (Formula 3) Pack4x9 = 2 case ( 72 boxes)</t>
+          <t>Haakaa Rechargeable Baby Nasal Aspirator เครื่องดูดน้ำมูกอัตโนมัติ</t>
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>992.0</v>
+        <v>2390.0</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>839.0</v>
+        <v>1990.0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-15%</t>
+          <t>-17%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/1facb94275f7213a60726fc92a4a5265.jpg</t>
+          <t>https://th-live-01.slatic.net/p/c73309b599ad504605f1e891331d8baa.jpg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/26-3-4-x-9-2-72-s-26-omega-plus-uht-new-formulation-added-dha-formula-3-pack4x9-2-case-72-boxes-i1731448226-s4963970597.html</t>
+          <t>https://pages.lazada.co.th/products/haakaa-rechargeable-baby-nasal-aspirator-i5011582731-s21178356943.html</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>S-26</t>
+          <t>Haakaa</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1000001031</t>
+          <t>29183</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/26-3-4-x-9-2-72-s-26-omega-plus-uht-new-formulation-added-dha-formula-3-pack4x9-2-case-72-boxes-i1731448226-s4963970597.html?exlaz=e_C8aU65zB8bFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cfNKYwLWeI0ZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZTebEUCCmBdBtBfJbIJqiSzSMl31BMDZuovLcky0FEDMOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKjyCPif1ZrswA70lKOPUKgQ%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/haakaa-rechargeable-baby-nasal-aspirator-i5011582731-s21178356943.html?exlaz=e_60COLVy3p1FsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfdTeRfmUhuLwnPRst%252BgfiUDZzd3uOh8OiHkOIqZ%252BuV7bKmctwriM4QvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8xpn3nqJjtlcRdYsFYXr%252FvC%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZir8GzCcDmV%252F86Q7mzae%252Bi%252BusSVIhOqZZhQOGtcrghnrcj9PWkvMu6LzFhPcwkUma10uf%252FOvx0MbffzDMsLCuX3%252B3YhtfbagEZKcqaE6cbXs%253D</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUR1</t>
+          <t>https://c.lazada.co.th/t/c.YcALaa</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2045,47 +2045,47 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.9661943811E10</v>
+        <v>2.0170086732E10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>999580591</t>
+          <t>4835002160</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>เลือกไซส์ก่อนกดสั่งซื้อ! [โฉมใหม่ ขายยกลัง] BabyLove Smile Pants เบบี้เลิฟ สไมล์แพ้นส์ กางเกงผ้าอ้อมสำเร็จรูป ขนาดเมก้า ไซส์ S-XXXL 3 แพ็ค</t>
+          <t>อ่างอาบน้ําที่ไม่ต้องติดตั้ง ทำจากวัสดุหนา6ชั้นปลอดภัย ท่อระบายน้ำคู่สะดวกและรวดเร็ว อ่างอาบน้ำพับเก็บ อ่างแช่น้ำสำหรับผู้ใหญ่เด็</t>
         </is>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1377.0</v>
+        <v>1688.0</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>739.0</v>
+        <v>1011.79</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-46%</t>
+          <t>-40%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/451dc1f6b1639cc35546f1932624a829.jpg</t>
+          <t>https://th-live-01.slatic.net/p/d3150a4875092f4b05358de05e85ac10.jpg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/babylove-smile-pants-s-xxxl-3-i999580591-s19661943811.html</t>
+          <t>https://pages.lazada.co.th/products/6-i4835002160-s20170086732.html</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>BabyLove</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1000001002</t>
+          <t>100383680645</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2115,12 +2115,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/babylove-smile-pants-s-xxxl-3-i999580591-s19661943811.html?exlaz=e_tGSUMezqOspsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7YU0bQkJOBdel9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZZAUrjN8Y3qGblByqyqXQQrXvxAT%252FH7D6XWAwW4j7dHPDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNwAmUvvxu3lgxHMD5mFRpxw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/6-i4835002160-s20170086732.html?exlaz=e_y0f1zKLFl9psbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfmbn0rDynwPg052YwCD9Ec6U8oeqr%252FymHvWa41U6SZ2fgs0UsxyE%252B1xG8N45VlVyXC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9sBpw4xOlrWn7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs2kOSGuR1WJbO5wB75y7AH3rbfrHxTmCmhMYxvX%252FTlzlcZgnzaGz7wTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3DV4TM4lWNztw%252BI8QCbe9YHV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURc</t>
+          <t>https://c.lazada.co.th/t/c.YcALa0</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2176,42 +2176,42 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>9.3102276E8</v>
+        <v>9.61493415E9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>522364141</t>
+          <t>2670881671</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>นมกล่อง เอนฟาโกร ยูเอชที สูตร4 ชนิดจืด (36 กล่อง) x2 ลัง Enfagrow UHT Stage4 Plain (36 boxes) x2 cases</t>
+          <t>[ส่งฟรี] MamyPoko Pants Premium Aim Perfect Dry (Toy Box) ผ้าอ้อมเด็กแบบกางเกง มามี่โพโค แพ้นท์ พรีเมี่ยม เอม เพอร์เฟ็ค ดราย สำหรับเด็กผู้หญิง ไซส์ L</t>
         </is>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1428.0</v>
+        <v>1929.0</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1233.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-14%</t>
+          <t>-27%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://sg-live-01.slatic.net/p/35daf5c350103f72929fcc46a4f87418.jpg</t>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S0ef8a25ca9f94d378f93cf566315e6b3V.jpg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/4-36-x2-enfagrow-uht-stage4-plain-36-boxes-x2-cases-i522364141-s931022760.html</t>
+          <t>https://pages.lazada.co.th/products/mamypoko-pants-premium-aim-perfect-dry-toy-box-l-i2670881671-s9614934150.html</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Enfagrow</t>
+          <t>MamyPoko</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1000001020</t>
+          <t>1000001012</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2246,12 +2246,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/4-36-x2-enfagrow-uht-stage4-plain-36-boxes-x2-cases-i522364141-s931022760.html?exlaz=e_4iQeajysWDlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7RWDkNEX1XDlZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZWkys5%252FoBwCSblByqyqXQQrXvxAT%252FH7D6b%252BozplRGABTDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNdjbP%252FD0etQeEBEobxSO9Jg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/mamypoko-pants-premium-aim-perfect-dry-toy-box-l-i2670881671-s9614934150.html?exlaz=e_nkPr0D3u%252FoNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fAz9WGHdZpQM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZfHickoTx3xrTirnyBwPJmDSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKzz9sClafUF3Tfm28WP3hZQ%253D%253D</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURX</t>
+          <t>https://c.lazada.co.th/t/c.YcALa1</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2307,47 +2307,47 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>5.445604673E9</v>
+        <v>2.2974281227E10</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1817098347</t>
+          <t>5397833251</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมี พรีไบโอพลัส ดีเอชเอ สูตร 3 ผสมน้ำผึ้งแท้ ไม่เติมน้ำตาลทราย 180 มล. (2 ลัง : 72 กล่อง)</t>
+          <t>Softher OMEGA + DHA Kids Gummy Vitamin C Gummiesโอเมก้า + ดีเอชเอ กัมมี่สำหรับเด็ก วิตามินซีแบบกัมมี่ 60 Gummies</t>
         </is>
       </c>
       <c r="E18" s="1" t="n">
-        <v>968.0</v>
+        <v>1899.0</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>809.0</v>
+        <v>372.06</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-16%</t>
+          <t>-80%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/0359dddc9a19bbbb8667602cb9441e38.jpg</t>
+          <t>https://th-live-01.slatic.net/p/047ea1960042c8f93d8492abb9717de5.jpg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i1817098347-s5445604673.html</t>
+          <t>https://pages.lazada.co.th/products/softher-omega-dha-kids-gummy-vitamin-c-gummies-60-gummies-i5397833251-s22974281227.html</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Bear Brand</t>
+          <t>SOFTHER HEALTHY CHOICES</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>10.8%</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1000001033</t>
+          <t>100907872123</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i1817098347-s5445604673.html?exlaz=e_XbPaM5OTitBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fVSxkUUa%252FAxvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZRzCglqQ3zf9KeYdJW41HITSMl31BMDZuTaYknftDWZ4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKM8uz4R3biWiNlISWQOOrLg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/softher-omega-dha-kids-gummy-vitamin-c-gummies-60-gummies-i5397833251-s22974281227.html?exlaz=e_7M9lUlybf21sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfXZXL%252FnaiUZ3uvSdpcOzEV6U8oeqr%252FymHvWa41U6SZ2ZfGCQhHb1hwJ815S6r%252BBjjC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNOysa3%252BG31MO8GS4glQOgB7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsUOyMfdFUnWavjgWNJROl3nrbfrHxTmCmNc7RUjvqa45Smid39d4J6TLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC306O1b7dRuqymW68HRLQ43HV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUR2</t>
+          <t>https://c.lazada.co.th/t/c.YcALaW</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2438,47 +2438,47 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>9.31004709E8</v>
+        <v>4.33447864E8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>522301000</t>
+          <t>273484608</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>นมกล่อง เอนฟาโกร ยูเอชที ซุพีเรียร์ สูตร3 ชนิดจืด (24 กล่อง) x2 ลัง Enfagrow UHT Superior Stage3 Plain (24 boxes) x2 cases</t>
+          <t>KODOMO น้ำยาซักผ้าเด็ก โคโดโม ออร์แกนิค โอลีฟ ออยล์ สำหรับเด็กแรกเกิด Organic Olive Oil 2,800 มล. 4 แกลลอน</t>
         </is>
       </c>
       <c r="E19" s="1" t="n">
-        <v>1216.0</v>
+        <v>1260.0</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1049.0</v>
+        <v>899.0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-14%</t>
+          <t>-29%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/11bd678765cf1e13490ff3540196e616.jpg</t>
+          <t>https://th-live-01.slatic.net/p/1bc593142486ae16f534ed0eb54c9b3b.jpg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-24-x2-enfagrow-uht-superior-stage3-plain-24-boxes-x2-cases-i522301000-s931004709.html</t>
+          <t>https://pages.lazada.co.th/products/kodomo-organic-olive-oil-2800-4-i273484608-s433447864.html</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Enfagrow</t>
+          <t>Kodomo</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1000001020</t>
+          <t>1743</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2508,12 +2508,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-24-x2-enfagrow-uht-superior-stage3-plain-24-boxes-x2-cases-i522301000-s931004709.html?exlaz=e_I8zkhcLsZkBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7WeOhMtdQ28HM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZCp63uTaqoY3doouIs6WpS7XvxAT%252FH7D6b%252BozplRGABTDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNLjyHaAi83j8ATbf83fV7yg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/kodomo-organic-olive-oil-2800-4-i273484608-s433447864.html?exlaz=e_KkTIXtsUymhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdKknGb9tTXfAO6PAoNBfi86U8oeqr%252FymHvWa41U6SZ2bTjRrBPTPJb22hwJSGBNNnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNkEA8sdpya9HOckHnW5GIv7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsSUM8QjxwGxw4ra6TdzMvo%252FJfLdZx5h8khQOGtcrghnrcj9PWkvMu6LzFhPcwkUma10uf%252FOvx0MbffzDMsLCuX3fiO7rFckafnDyOIerKVcY%253D</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURd</t>
+          <t>https://c.lazada.co.th/t/c.YcALae</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2569,16 +2569,16 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>4.567096781E9</v>
+        <v>2.09040076E8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1647500736</t>
+          <t>168696074</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>นมกล่อง ยกลัง x2ลัง นมยูเอชที นมไฮคิวสูตร3 1พลัส ซูเปอร์โกลด์ รสจืด180 มล (54 กล่อง) นม UHT HiQ Super Gold UHT</t>
+          <t>[ยกลัง x 2 ลัง] นมยูเอชที นมไฮคิวสูตร4 เอกซ์พลอเรอร์ พรีไบโอโพรเทก รสจืด 180มล x72 นม UHT HiQ Explorer PrebioProteq UHT</t>
         </is>
       </c>
       <c r="E20" s="1" t="n">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/328850d16f855e4859e594479302e25e.jpg</t>
+          <t>https://th-live-01.slatic.net/p/49bb5a6085736c0e873e24035737b334.jpg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-3-1-180-54-uht-hiq-super-gold-uht-i1647500736-s4567096781.html</t>
+          <t>https://pages.lazada.co.th/products/x-2-4-180-x-72-uht-hiq-explorer-prebioproteq-uht-i168696074-s209040076.html</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-3-1-180-54-uht-hiq-super-gold-uht-i1647500736-s4567096781.html?exlaz=e_YlG3rmEBOANsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cKlLikwsKP9s3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZrAuQKxx6WhuNv7EtgYsuBTSMl31BMDZuGIU0QW92Lb4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKSMllupRuryWBEcAXFatW4Q%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/x-2-4-180-x-72-uht-hiq-explorer-prebioproteq-uht-i168696074-s209040076.html?exlaz=e_BM0yYKxXxCFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7bcvmlUx2lMjZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZc6WqHmsDvm%252BInLMHbn%252FtwbXvxAT%252FH7D6Uy%252BEe6K2CVrDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNvQr4plg7hFEcieKXsNfb2Q%253D%253D</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURW</t>
+          <t>https://c.lazada.co.th/t/c.YcALaV</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2700,47 +2700,47 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.541300414E9</v>
+        <v>2.2986735222E10</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1388642280</t>
+          <t>5409269591</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>นมกล่อง เอนฟาโกร ยูเอชที ซุพีเรียร์ สูตร3 ชนิดจืด (27 กล่อง) x2 ลัง Enfagrow UHT Superior Stage3 Plain (27 boxes) x2 cases</t>
+          <t>หมอนกันกรดไหลย้อน ในเซ็ตมี 4 ชิ้น ปรับความชันได้ตามใจ มีหมอนรองคอ นอนได้หลายท่า องกันกรดไหลย้อน นอนกรน ส่งเสริมการไหลเวียนของเลือด วัสดุไฮเปอร์เมมโมรี่โฟม รองรับตั้งแต่หัวจรดเท้า</t>
         </is>
       </c>
       <c r="E21" s="1" t="n">
-        <v>1356.0</v>
+        <v>3500.0</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1175.0</v>
+        <v>2499.0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-13%</t>
+          <t>-29%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/a07b1fd2ad68811ef7abe8b91c61b4c3.jpg</t>
+          <t>https://th-live-01.slatic.net/p/2db0f1548c73545e2aa72a598b8f36b3.jpg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-27-x2-enfagrow-uht-superior-stage3-plain-27-boxes-x2-cases-i1388642280-s3541300414.html</t>
+          <t>https://pages.lazada.co.th/products/4-i5409269591-s22986735222.html</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Enfagrow</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1000001020</t>
+          <t>100262424837</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2770,12 +2770,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-27-x2-enfagrow-uht-superior-stage3-plain-27-boxes-x2-cases-i1388642280-s3541300414.html?exlaz=e_Jap9IAqJJbZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7dNj7FjDpCNUZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ47eP0Vu8URB9Q%252FeeY3I47TSMl31BMDZuOLYwS%252F4Wk24OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKr8XwCTXGSGqt%252Bqqj0YGm1A%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/4-i5409269591-s22986735222.html?exlaz=e_E0wsOf05WcxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeJ6WfWTaWefSG6o5V1u%252BPP6U8oeqr%252FymHvWa41U6SZ2bTjRrBPTPJbN3YJDGZALwnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPyux5yacQMwXPTQL38BArJ7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs2IJ%252BW7tgNHNJ1%252BRv8pEJo3rbfrHxTmCmr588qC76FM2EISKvVXVkhjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC306O1b7dRuqyAL54z6kzmfHV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUR3</t>
+          <t>https://c.lazada.co.th/t/c.YcALaf</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2831,47 +2831,47 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.9111666275E10</v>
+        <v>8.17822352E8</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4648754220</t>
+          <t>441666036</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[TOTAL 3 PACK] BABYLOVE BABY DIAPERS EASYTAPE</t>
+          <t>นมกล่อง เอนฟาโกร ยูเอชที สูตร3 ชนิดจืด (36 กล่อง) x2 ลัง Enfagrow UHT Stage3 Plain (36 boxes) x2 cases</t>
         </is>
       </c>
       <c r="E22" s="1" t="n">
-        <v>1467.0</v>
+        <v>1428.0</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1022.0</v>
+        <v>1171.0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-30%</t>
+          <t>-18%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://th-live.slatic.net/p/1530285a5bc0f1f2d0098d3ee23ffe3b.jpg</t>
+          <t>https://th-live-01.slatic.net/p/8f5cefbc9c29c1fc8c781fb77069319a.jpg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-i4648754220-s19111666275.html</t>
+          <t>https://pages.lazada.co.th/products/3-36-x2-enfagrow-uht-stage3-plain-36-boxes-x2-cases-i441666036-s817822352.html</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>BabyLove</t>
+          <t>Enfagrow</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1000001020</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-i4648754220-s19111666275.html?exlaz=e_xDm%252BV9LVvcRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7bMJLPPaNQ64l9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH6Gedpz%252BmqDV3dy7qZfuOpXdoouIs6WpS3LetVhV7nF%252Bab0kUCnTYmdaANM%252BMLvs2nyXb%252BVCI0U6apvwW63pOXTm42JXw2YvyBbU1669TETQmT8xdOMnmm0%253D</t>
+          <t>https://pages.lazada.co.th/products/3-36-x2-enfagrow-uht-stage3-plain-36-boxes-x2-cases-i441666036-s817822352.html?exlaz=e_A6q5mDeeFNZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Vb64ZInoN4Rl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZqfYaAbdwUpG3YCjwbyW2tbXvxAT%252FH7D6b%252BozplRGABTDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNdp1D%252B0JzK5dR8rbGTWgU1w%253D%253D</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURe</t>
+          <t>https://c.lazada.co.th/t/c.YcALaU</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2962,42 +2962,42 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.115998636E9</v>
+        <v>2.0480998142E10</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>594384741</t>
+          <t>4878414798</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมี พรีไบโอพลัส ดีเอชเอ สูตร 3 รสจืด กลิ่นวานิลลา 180 มล. (2 ลัง : 72 กล่อง)</t>
+          <t>Hi-Q Supergold ซินไบโอโพรเทค รสจืด ขนาด 2,750 กรัม</t>
         </is>
       </c>
       <c r="E23" s="1" t="n">
-        <v>968.0</v>
+        <v>1555.0</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>809.0</v>
+        <v>1156.0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-16%</t>
+          <t>-26%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/54c915eb8dd29647b90640f0b33c2931.jpg</t>
+          <t>https://sg-test-11.slatic.net/p/b66038c6d3285224c49dafbdae4cce41.jpg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i594384741-s1115998636.html</t>
+          <t>https://pages.lazada.co.th/products/hi-q-supergold-2750-i4878414798-s20480998142.html</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Bear Brand</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1000001033</t>
+          <t>100373312174</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3032,12 +3032,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i594384741-s1115998636.html?exlaz=e_H5W65EjNfNhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7RejBWxK7x6Fq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZc3Q9D700zXmblByqyqXQQrXvxAT%252FH7D66ct0cpBQgvfDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNJByKwEkSb1TRvoNLOJqgaw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/hi-q-supergold-2750-i4878414798-s20480998142.html?exlaz=e_PvhyFDeQKbdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7dpibVUsXlWGM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZSLubkgKP%252FytLTCUmfH5TXDun%252BSGcaQoMIG7etA721C77VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpeNM4j7iZ7ayJws%252BUHwhY3Q%253D%253D</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURV</t>
+          <t>https://c.lazada.co.th/t/c.YcALaT</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3093,42 +3093,42 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.241978164E10</v>
+        <v>9.614950857E9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3348861701</t>
+          <t>2670927545</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Molfix โมลฟิกซ์ เอ็กซ์ตร้า ดราย แพ้นส์ XXL48 SJ (ยกลัง)</t>
+          <t>[ส่งฟรี] MamyPoko Pants Premium Aim Perfect Dry (Toy Box) ผ้าอ้อมเด็กแบบกางเกง มามี่โพโค แพ้นท์ พรีเมี่ยม เอม เพอร์เฟ็ค ดราย สำหรับเด็กผู้หญิง ไซส์ XL</t>
         </is>
       </c>
       <c r="E24" s="1" t="n">
-        <v>1287.0</v>
+        <v>1929.0</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>799.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-38%</t>
+          <t>-27%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/e91476723bb6f58976731fb94c3fe15b.jpg</t>
+          <t>https://filebroker-cdn.lazada.co.th/kf/Saf584027f2b44fe895b9196941ebe920F.jpg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/molfix-xxl48-sj-i3348861701-s12419781640.html</t>
+          <t>https://pages.lazada.co.th/products/mamypoko-pants-premium-aim-perfect-dry-toy-box-xl-i2670927545-s9614950857.html</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Molfix</t>
+          <t>MamyPoko</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>100200927053</t>
+          <t>1000001012</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3163,12 +3163,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/molfix-xxl48-sj-i3348861701-s12419781640.html?exlaz=e_3qrmvmG5gGZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7c2NtkhNqRXxl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZpBZ%252BDbjpDW5OdDttJXdwdp14eY4SxhuRxWSNVx4bN1r7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpPH85kbeaAev%252BbJtiwUhLcQ%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/mamypoko-pants-premium-aim-perfect-dry-toy-box-xl-i2670927545-s9614950857.html?exlaz=e_zh5rZ0u%252BycJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7df5oQqT3HxqM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ5I2%252FQ229TTBEajiywKBCdTSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKL0UKzcnH35xTnHEKB94jVw%253D%253D</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUR4</t>
+          <t>https://c.lazada.co.th/t/c.YcALaS</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3224,42 +3224,42 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>6.466558893E9</v>
+        <v>2.193100877E10</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2009120121</t>
+          <t>5173614814</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[ส่งฟรี มีทุกไซส์] ขายยกลัง !! Mamypoko Pants Organic  กางเกงผ้าอ้อม มามี่โพโค แพ้นท์ ออร์แกนิค ไซส์ S-XXL แพ็ค 3</t>
+          <t>Nestle BEBE นมผง หมี 2 2500 กรัม หมดอายุ 16/07/2025</t>
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>2007.0</v>
+        <v>889.0</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1605.0</v>
+        <v>889.0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-20%</t>
+          <t>-0%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/Sbd4e99648d604ff99637e36d4afa4865e.jpg</t>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S3ef68fa61c6d4626b706202e94d2b102C.jpg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mamypoko-pants-organic-s-xxl-3-i2009120121-s6466558893.html</t>
+          <t>https://pages.lazada.co.th/products/nestle-bebe-2-2500-16072025-i5173614814-s21931008770.html</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>MamyPoko</t>
+          <t>Nestlé</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1000001012</t>
+          <t>100196151460</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mamypoko-pants-organic-s-xxl-3-i2009120121-s6466558893.html?exlaz=e_BeFqU7YrxQFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fwWSA3eDPG2jcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZMLgticrKSZgJiCiLLRmsZTSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKVKuI7LZ%252FcuDibnXwOybrkQ%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/nestle-bebe-2-2500-16072025-i5173614814-s21931008770.html?exlaz=e_%252FoMmQskHimBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7UTCXjKHAqT%252Fl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZNpujoUK0%252FT0i3DjdqFoGzb%252Bbo3qBc%252Bw9QhilVGhiBIz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpIIA53P68XHvioyBPjolTyA%253D%253D</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURf</t>
+          <t>https://c.lazada.co.th/t/c.YcALaR</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3355,47 +3355,47 @@
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>7.864518185E9</v>
+        <v>215685.0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2326616645</t>
+          <t>219135</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[ขายยกลังx2] โฟร์โมสต์ โอเมก้า สมาร์ท โกลด์ 4 พลัส รสจืด 180มล (24กล่อง/ลัง) Foremost Omega Smart Gold 4 Plus Plain 180ml (นมกล่องUHT)</t>
+          <t>[แท้] Clevamama Baby Pillow : หมอนกันหัวแบน หมอนทารก 0-12 เดือน</t>
         </is>
       </c>
       <c r="E26" s="1" t="n">
-        <v>912.0</v>
+        <v>1290.0</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>805.0</v>
+        <v>1161.0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-12%</t>
+          <t>-10%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/69a2a665a45909635e57f37e80583c53.png</t>
+          <t>https://th-live.slatic.net/p/3574d20fd917a80c529706555a99b4b9.jpg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-4-180-24-foremost-omega-smart-gold-4-plus-plain-180ml-uht-i2326616645-s7864518185.html</t>
+          <t>https://pages.lazada.co.th/products/clevamama-baby-pillow-0-12-i219135-s215685.html</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>FOREMOST</t>
+          <t>clevamama</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>7.8%</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1000001028</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-4-180-24-foremost-omega-smart-gold-4-plus-plain-180ml-uht-i2326616645-s7864518185.html?exlaz=e_CLzefkgAvXBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XAMbjkUM1Vhq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZvq4Fiq0hkOlEajiywKBCdTSMl31BMDZuwxAbB01%252BAoIOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKJPDtVYo16x%252F0oUg%252FyGQ0xg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/clevamama-baby-pillow-0-12-i219135-s215685.html?exlaz=e_zFqKgxBuLTlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeP2c%252BGgBw%252FTHdgGepir1a16U8oeqr%252FymHvWa41U6SZ2eS%252FX35aMT5PVXPNPBZ6NgLC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9aBtTK8QNyLN7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsU1AwmkPNGLHj%252FQZ%252B5JKMNWK469F%252BU6IVDmPs1bQI71g0meJ9EXbfooDqkBYspYwylAWaHnnnTel0CFggGYdmSoZbid3Lqfsx</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURU</t>
+          <t>https://c.lazada.co.th/t/c.YcALaQ</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -3486,37 +3486,37 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.049066416E10</v>
+        <v>1.7018978714E10</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1120468948</t>
+          <t>718778648</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[ถูกยกลัง] Merries ผ้าอ้อมเมอร์รี่ส์ชนิดกางเกง อัลตร้าจัมโบ้แพ็ค ขนาด M, L, XL, XXL 2 แพ็ค</t>
+          <t>Merries Japan Pants ผ้าอ้อมเมอร์รี่ส์ชนิดกางเกง Size XL 50 x 2แพ็ค แพมเพิส Merries ยกลัง</t>
         </is>
       </c>
       <c r="E27" s="1" t="n">
-        <v>1198.0</v>
+        <v>1538.0</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>875.0</v>
+        <v>1538.0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-27%</t>
+          <t>-0%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://sg-test-11.slatic.net/p/86a5de2404840fa92df0e1edef8529c9.png</t>
+          <t>https://filebroker-cdn.lazada.co.th/kf/Sc990e679282c43b9861d3ff462ed450ee.jpg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x-2-i1120468948-s20490664160.html</t>
+          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-xl-50-x-2-merries-i718778648-s17018978714.html</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1000379863</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3556,12 +3556,12 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x-2-i1120468948-s20490664160.html?exlaz=e_IMOn92DAfGVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7TXY8fI1J8mhjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZyb4INwgt3boltocuCuwvGTSMl31BMDZu8plFHtsWWt4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKCIQV%252F390k8Gh9870b4J8uA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-xl-50-x-2-merries-i718778648-s17018978714.html?exlaz=e_poHQej3MkF9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7ZYy5uj1usiTvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZu12GGPNjeKEspoq%252FhM9SbS%252BrMWhx2bM2ab0kUCnTYmdaANM%252BMLvs2nyXb%252BVCI0U6apvwW63pOXTm42JXw2YvyGuyq0Uyv5RLbWKLR%252FBsOaM%253D</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUR5</t>
+          <t>https://c.lazada.co.th/t/c.YcALaP</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -3617,42 +3617,42 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.93388173E8</v>
+        <v>9.3102276E8</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>160577988</t>
+          <t>522364141</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[โฉมใหม่ ขายยกลัง] BabyLove Playpants เบบี้เลิฟกางเกงผ้าอ้อมเพลย์แพ้นท์ ไซส์ XL 4 แพ็ค 168 ชิ้น (แพ็คละ 42 ชิ้น)</t>
+          <t>นมกล่อง เอนฟาโกร ยูเอชที สูตร4 ชนิดจืด (36 กล่อง) x2 ลัง Enfagrow UHT Stage4 Plain (36 boxes) x2 cases</t>
         </is>
       </c>
       <c r="E28" s="1" t="n">
-        <v>1996.0</v>
+        <v>1428.0</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1239.0</v>
+        <v>1233.0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-38%</t>
+          <t>-14%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/5c0d836d4864b64cee364257e4cd9178.jpg</t>
+          <t>https://sg-live-01.slatic.net/p/35daf5c350103f72929fcc46a4f87418.jpg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/babylove-playpants-xl-4-168-42-i160577988-s193388173.html</t>
+          <t>https://pages.lazada.co.th/products/4-36-x2-enfagrow-uht-stage4-plain-36-boxes-x2-cases-i522364141-s931022760.html</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>BabyLove</t>
+          <t>Enfagrow</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1000001002</t>
+          <t>1000001020</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3687,12 +3687,12 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/babylove-playpants-xl-4-168-42-i160577988-s193388173.html?exlaz=e_V9ejysArsKxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Q5gX%252B6dTH1O95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZjORKpme0wbAspoq%252FhM9SbbXvxAT%252FH7D6XWAwW4j7dHPDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNvSxaVXr2nEM7fzuKMrVTTQ%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/4-36-x2-enfagrow-uht-stage4-plain-36-boxes-x2-cases-i522364141-s931022760.html?exlaz=e_Bq6Bftve7TRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XbtxqE4X%252FdKl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZWkys5%252FoBwCSblByqyqXQQrXvxAT%252FH7D6b%252BozplRGABTDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNdjbP%252FD0etQeEBEobxSO9Jg%253D%253D</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURg</t>
+          <t>https://c.lazada.co.th/t/c.YcALal</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3748,47 +3748,47 @@
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.9108812023E10</v>
+        <v>5.445604673E9</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4648157736</t>
+          <t>1817098347</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[SOLD CRATE!][TOTAL 4 PACK] MAMYPOKO PANTS PREMIUM PERFECT DRY</t>
+          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมี พรีไบโอพลัส ดีเอชเอ สูตร 3 ผสมน้ำผึ้งแท้ ไม่เติมน้ำตาลทราย 180 มล. (2 ลัง : 72 กล่อง)</t>
         </is>
       </c>
       <c r="E29" s="1" t="n">
-        <v>2356.0</v>
+        <v>968.0</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>1555.0</v>
+        <v>809.0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-34%</t>
+          <t>-16%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/10e558d79c2850bb0abeed7bf16ffa5c.jpg</t>
+          <t>https://th-live-01.slatic.net/p/0359dddc9a19bbbb8667602cb9441e38.jpg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/4-i4648157736-s19108812023.html</t>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i1817098347-s5445604673.html</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>MamyPoko</t>
+          <t>Bear Brand</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1000001033</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3818,12 +3818,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/4-i4648157736-s19108812023.html?exlaz=e_striR%252B1SEtxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7UCW9eSsUG3wvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZJKMZbvL%252BygKNv7EtgYsuBWcn7WG0FoLn%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SaV9TQOOiFaaYRMFopfFGTpQ%253D</t>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i1817098347-s5445604673.html?exlaz=e_LmdB5n7V0bdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cgMrvz1UiRA%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZRzCglqQ3zf9KeYdJW41HITSMl31BMDZuTaYknftDWZ4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKM8uz4R3biWiNlISWQOOrLg%253D%253D</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAURT</t>
+          <t>https://c.lazada.co.th/t/c.YcALaO</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3879,42 +3879,42 @@
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.137816465E9</v>
+        <v>6.695416326E9</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>985560283</t>
+          <t>2053358633</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[ยกลัง x 2 ลัง] นมยูเอชที นมไฮคิวสูตร3 สตาร์ท พรีไบโอโพรเทก รสจืด 110 มล (48 กล่อง) นม UHT HiQ Start PrebioProteq UHT</t>
+          <t>[ยกลัง] Huggies Gold Soft&amp;Slim Pants [S-XXL] แพมเพิสเด็ก ผ้าอ้อมเด็กพรีเมียม ฮักกี้ส์ โกลด์ ซอฟท์แอนด์สลิม แบบกางเกง ไซส์ S-XXL 4 แพ็ค</t>
         </is>
       </c>
       <c r="E30" s="1" t="n">
-        <v>1296.0</v>
+        <v>2396.0</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1155.0</v>
+        <v>1387.0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-11%</t>
+          <t>-42%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/089ade6ad7957b728c735382ded8bf00.jpg</t>
+          <t>https://th-live-01.slatic.net/p/bb564737c1a1db77f2bfa15eaad04f96.jpg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x-2-3-110-48-uht-hiq-start-prebioproteq-uht-i985560283-s2137816465.html</t>
+          <t>https://pages.lazada.co.th/products/huggies-gold-softslim-pants-s-xxl-s-xxl-4-i2053358633-s6695416326.html</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>HiQ</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1000001025</t>
+          <t>100188627926</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x-2-3-110-48-uht-hiq-start-prebioproteq-uht-i985560283-s2137816465.html?exlaz=e_esfS3itKvi1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cSB1e8zufxEvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZoVmO%252Fg5u9lEDvbRTsWhZsLXvxAT%252FH7D6Uy%252BEe6K2CVrDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNtx06yXD7wIMpu4zUw6Hp%252FA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/huggies-gold-softslim-pants-s-xxl-s-xxl-4-i2053358633-s6695416326.html?exlaz=e_FMFslSYxUuJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7aJsli1Mpnx%252FkB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZS7ZiCyFCt%252F6LeUobm3oNO7%252Bbo3qBc%252Bw9wPBbSVAGxBP7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpYXA3bS4mXlXgSJuUDTMeEg%253D%253D</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAUR6</t>
+          <t>https://c.lazada.co.th/t/c.YcALam</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -4010,125 +4010,6937 @@
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.2878330639E10</v>
+        <v>1.921558377E10</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3473679173</t>
+          <t>4668352369</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[ขายยกลังx2] โฟร์โมสต์ โอเมก้า 369 สมาร์ท 1 พลัส รสจืด 180มล (36กล่อง/ลัง) Foremost Omega 369 Smart 1 Plus Plain 180ml (นมกล่องUHT)</t>
+          <t>ขายยกลัง! เบบี้เลิฟ เดย์ไนท์แพ้นส์ กางเกงผ้าอ้อมสำเร็จรูป ขนาดเมก้า ไซส์ XXXL 3 แพ็ค 78+6 ชิ้น (แพ็คละ 26+2 ชิ้น)</t>
         </is>
       </c>
       <c r="E31" s="1" t="n">
-        <v>1080.0</v>
+        <v>1347.0</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>936.0</v>
+        <v>1035.0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
+          <t>-23%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/9b16222ad016046d90be1bb353811899.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/xxxl-3-786-262-i4668352369-s19215583770.html</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>BabyLove</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1000001002</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/xxxl-3-786-262-i4668352369-s19215583770.html?exlaz=e_hQF7bF9KIKNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7QDMv8piePa7kB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZNWsJuvqQle5lkX5qvrakOzSMl31BMDZulAZ19yY3Ys4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK22RsSgfM2rlAIl1jwxzkzA%253D%253D</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALao</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>2.193135881E10</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5173811362</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>S-26 Gold Pro-C นมผง เอส-26 โกลด์ โปร ซี สูตร 2 2750 กรัม หมดอายุ 29/01/2026</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>2519.0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>2519.0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-0%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/Sfec28d1566c34cc38ce281506ba6becfB.jpg</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/s-26-gold-pro-c-26-2-2750-29012026-i5173811362-s21931358810.html</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>S-26</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>100196151460</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/s-26-gold-pro-c-26-2-2750-29012026-i5173811362-s21931358810.html?exlaz=e_byhqSvdblpRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XQeNcYFUOKtl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZJjzx5SLTU5LC%252FimwfosiKL%252Bbo3qBc%252Bw9QhilVGhiBIz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpIIA53P68XHtAybfLqF92kA%253D%253D</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALap</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>9.628356087E9</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2673939848</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>เบบี้มายด์ 2in1 น้ำยาซักผ้าเด็กและปรับผ้านุ่ม ไวท์ ซากุระ 2,400 มล. x4 / Babi Mild Fabric Wash 2in1 White Sakura 2,400ml. X4</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>860.0</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>774.0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-10%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S90cf455f0b994ac8bc45920dfb7749090.jpg</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/2in1-2400-x4-babi-mild-fabric-wash-2in1-white-sakura-2400ml-x4-i2673939848-s9628356087.html</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Babi Mild</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>8.8%</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>100107263</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/2in1-2400-x4-babi-mild-fabric-wash-2in1-white-sakura-2400ml-x4-i2673939848-s9628356087.html?exlaz=e_fPV3lYTxRntsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdzl%252BvD5IasyU5BI0h76j%252B6DZzd3uOh8OiHkOIqZ%252BuV7T6DmBv%252B0Z3DjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ8rnr8DIOyDM%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZHx58kZmfiXIltocuCuwvGb%252Bbo3qBc%252Bw9%252F4KNmYpXjm7DNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNXzH04Sq4mOJwlstM6L0gLw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALaJ</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>2.1049033984E10</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4989754840</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>นมแพะ ดีจี3 แอดวานซ์ โกลด์ ขนาด 800 กรัม  x 3 กระป๋อง สำหรับเด็ก 1 ปีขึ้นไป และทุกคนในครอบครัว / DG3 ADVANCE GOLD GOAT MILK BEVERAGE (12M+) 800G. (HMN) x 3 Tins</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>3939.0</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>3425.0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>-13%</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/ad07881ae2d7f9f7397d67effb7998ac.png</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x2-369-1-180-36-foremost-omega-369-smart-1-plus-plain-180ml-uht-i3473679173-s12878330639.html</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/e4c98c785919a2e80923fe23717e21d4.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/3-800-x-3-1-dg3-advance-gold-goat-milk-beverage-12m-800g-hmn-x-3-tins-i4989754840-s21049033984.html</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>DG</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1000141915</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/3-800-x-3-1-dg3-advance-gold-goat-milk-beverage-12m-800g-hmn-x-3-tins-i4989754840-s21049033984.html?exlaz=e_7q9YDeqcvx1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdU%252BfSU7dT3gBmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cFJ%252BmzzvKrk95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8xPn5rNNgiqLrhjvIyLfXRL%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ1uBxya5BMGVGqw%252BvgUJ0TDSMl31BMDZuFGjeFXziRykOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKnvcXFZMQEAKmEoK2WbRhjA%253D%253D</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALar</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>2.0945367706E10</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4973632997</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>【1 กล่อง】เพิ่มความสูงให้ลูกน้อยอย่างปลอดภัย Cal-D-KII 6+ (วิตามินรูปแบบเจลลี่ รสโยเกิร์ต)</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>1450.0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>1190.0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-18%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/795b781cae8e1b8f8ead19d39da42021.jpg</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/1-cal-d-kii-6-i4973632997-s20945367706.html</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Promom(โปรมัม)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>100564496054</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/1-cal-d-kii-6-i4973632997-s20945367706.html?exlaz=e_8jl42eDvQXxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdN3DPFMS9r434oaHpmDHu46U8oeqr%252FymHvWa41U6SZ2a%252BrFbEu%252B7A9X0adg1yVL9fC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOs9SeI8JcngAlgtmhJ2MP17lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsryl%252FUdiGaEZGXNfncg8ibXrbfrHxTmCmcwnKNg0EeA6b76OMdkVj3zLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3XsufeeSj8UuGwr8pOBeq3HV0ZvOeGENU</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALas</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>1.1047062711E10</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3008190740</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ENFANT (อองฟองต์) Organic Start In Life Set เซ็ตสุดคุ้ม สำหรับเด็กแรกเกิด เอาใจคุณแม่แรกคลอดกับไอเท็ม 6 ชิ้น</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1390.0</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-32%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://th-live.slatic.net/p/c484709e271453a61fb19489a6d47293.jpg</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/enfant-organic-start-in-life-set-6-i3008190740-s11047062711.html</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ENFANT</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>100000904</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/enfant-organic-start-in-life-set-6-i3008190740-s11047062711.html?exlaz=e_tKMNc8MvhPZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfDPtF1rKQVKnwe3HrpSd9A6U8oeqr%252FymHvWa41U6SZ2a%252BrFbEu%252B7A9J815S6r%252BBjjC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOAFiRSRZZYILFpfpwygBu77lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagiscllIJGI5mGhbzi1ZhkH%252BfzosZrpcCmgJs6ZRbcVv%252FnYG6zENRPYJl5LGDUBvcH8OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKTqBAJ2w%252FLHjkG7Xqa4%252FSxQ%253D%253D</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALaH</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>1.2435988495E10</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3351797585</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>💥 ส่งไว 💥 Certainty Tape ผ้าอ้อมเซอร์เทนตี้ แบบเทป ผ้าอ้อมผู้ใหญ่แบบเทป  ผ้าอ้อมผู้ป่วย ผ้าอ้อมผู้ป่วยติดเตียง ไซส์ L 24 ชิ้น X 4 แพ็ค (ยกลัง)</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>1558.0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-22%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://sg-live-01.slatic.net/p/a54bade49c3be435a5212591a1b66be3.jpg</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/certainty-tape-l-24-x-4-i3351797585-s12435988495.html</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Certainty</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>100200930887</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/certainty-tape-l-24-x-4-i3351797585-s12435988495.html?exlaz=e_jdM318l%252Bi0JsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7ao%252F%252FuwHL59pq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZx2bCe2rbQO78ZfJeQXJeVZ14eY4SxhuR6lr1alDxmdr7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpi9J06ZTNBu0dbC8xdc0oTw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALaG</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>2.2383738206E10</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5265334012</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>นมผง x2 กล่อง ดูเม็กซ์สูตร3 ดูโกร ซอย นมถั่วเหลืองผง กลิ่นวานิลลา 1600 กรัม นมผง Dumex Dugro Plain นมดูโกรสูตร3</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>1628.0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-12%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/bbc032d4815b984654827b0e2aee2541.jpg</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x2-3-1600-dumex-dugro-plain-3-i5265334012-s22383738206.html</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Dumex</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1000001029</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x2-3-1600-dumex-dugro-plain-3-i5265334012-s22383738206.html?exlaz=e_nM0Fwt2B%252FNFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fuxwpEPOT%252FaM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZQKcACi3JiovTHWh4YX5jdTSMl31BMDZup8Mh7rCX0U4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKbQ5212gJoqf%252F%252BT%252BWTTDkaw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALau</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>2.1783056795E10</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5153617089</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Molfix โมลฟิกซ์ เอ็กซ์ตร้า ดราย แพ้นส์ 3XL 28 ชิ้น SJ (ยกลัง)</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>789.0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-39%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/7221650fda75e46293ba0d9545e0dd5a.jpg</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/molfix-3xl-28-sj-i5153617089-s21783056795.html</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Molfix</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>100200927053</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/molfix-3xl-28-sj-i5153617089-s21783056795.html?exlaz=e_Rrp3If5tzX1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdkjFCX%252F%252FLpZ%252BYGauRBkp%252BM6U8oeqr%252FymHvWa41U6SZ2UJe2gq3ZckpBZEMTcFcybvC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9c4VC74TE3wL7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsVH2OXHSBw%252BsXgSMvug%252FTjXrbfrHxTmCmYAmF2TyPBZ%252BRptzIAJtG%252FjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3wRQ8WNA3Xh8m5nuhwhxdSXV0ZvOeGENU</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALaF</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>9.628268934E9</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2674069054</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>เบบี้มายด์ น้ำยาซักผ้าเด็ก เบบี้ ทัช 2,400 มล. x4 / Babi Mild Fabric Wash Baby Touch 2,400 ml. x4</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>796.0</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-10%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S28a812c6f8014a919313f2b5c791b728J.jpg</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/2400-x4-babi-mild-fabric-wash-baby-touch-2400-ml-x4-i2674069054-s9628268934.html</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Babi Mild</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>8.8%</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>100107263</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/2400-x4-babi-mild-fabric-wash-baby-touch-2400-ml-x4-i2674069054-s9628268934.html?exlaz=e_%252FeL1QP2legZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdzl%252BvD5IasyU5BI0h76j%252B6DZzd3uOh8OiHkOIqZ%252BuV7b33vQrGC78Iq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ8rnr8DIOyDM%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH0GKWIqjqlbo0JYjAYd35n2InLMHbn%252FtwSLlYjhYeFku2AxcB5B3iMbtGfupcRfwU2dlXDqhrzzZxwTJ97Cs2cY%252FTHjoWWXZzz9fOX55ftF5P%252FRDJp%252FM%252FU2IS%252FeMOlB5ew%253D%253D</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALaE</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>6.466558891E9</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2009120121</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[ส่งฟรี มีทุกไซส์] ขายยกลัง !! Mamypoko Pants Organic  กางเกงผ้าอ้อม มามี่โพโค แพ้นท์ ออร์แกนิค ไซส์ S-XXL แพ็ค 3</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-25%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/Sbd4e99648d604ff99637e36d4afa4865e.jpg</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/mamypoko-pants-organic-s-xxl-3-i2009120121-s6466558891.html</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>MamyPoko</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1000001012</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/mamypoko-pants-organic-s-xxl-3-i2009120121-s6466558891.html?exlaz=e_1zA0qJZ4jFRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7TJTRJ%252BIWX0M%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZMLgticrKSZgJiCiLLRmsZTSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKVKuI7LZ%252FcuBzijYuv08OLw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALax</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>2.029288172E9</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>958280372</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[Case]D-nee Baby Liquid Detergent Organic Honey Star 2800 ML. Pink[4Gallons/Case]</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1236.0</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>999.0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-19%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S58018ae4cda34093a74e9e707253b2f7Y.jpg</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/d-nee-honey-star-2800-x4-i958280372-s2029288172.html</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>D-nee</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>100180053374</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/d-nee-honey-star-2800-x4-i958280372-s2029288172.html?exlaz=e_xUbKy8aYZaVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcxCrze6G6DThOoskJvGhMeDZzd3uOh8OiHkOIqZ%252BuV7QjwxXsVGe3VvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zTRMqRDsMRQmHs31nKCaFK%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZGl9vmHh%252BcfjnBBDYyVZ9x12Ier%252F%252BtlCpQ%252FPn1Cq6P0tpvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FIYPSVh1KL1J%252BIZhXTHFYRpg%253D%253D</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALaz</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>1.5295671074E10</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3958695973</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ไฮคิว พรีไบโอโพรเทก 2750 กรัม สูตร 3 Hi-Q1 Plus Prebio ProteQ สูตร 3 Hiq</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>859.0</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>859.0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-0%</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://th-live.slatic.net/p/42c4d818945df0d304521b913e98ac52.jpg</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/2750-3-hi-q1-plus-prebio-proteq-3-hiq-i3958695973-s15295671074.html</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>No Brand</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>100195440468</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/2750-3-hi-q1-plus-prebio-proteq-3-hiq-i3958695973-s15295671074.html?exlaz=e_QH0Xo%252BUVZM5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fVmzNO6weHukB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZBbYBZt11b6ZkHw40ugGWIb%252Bbo3qBc%252Bw99yQll%252FSYW137VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpQ%252BWWhCDgiOu7xA0ReIo3bw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZZ</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>2.0480932518E10</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4878501072</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>S26 Progress สูตร 3 ขนาด 2,500-3,500 กรัม</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>589.0</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-6%</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://sg-test-11.slatic.net/p/77c60daf56ee55befd966f732131edae.jpg</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/s26-progress-3-2500-3500-i4878501072-s20480932518.html</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>S-26</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>100373312174</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/s26-progress-3-2500-3500-i4878501072-s20480932518.html?exlaz=e_gvL2YdBsFs1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fVmELuxkN0RvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZS1KPNUUQYOuw8770vgDWEjun%252BSGcaQoMIG7etA721C77VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpeNM4j7iZ7azDujWU5jkFYw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZY</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>2.049066416E10</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1120468948</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[ถูกยกลัง] Merries ผ้าอ้อมเมอร์รี่ส์ชนิดกางเกง อัลตร้าจัมโบ้แพ็ค ขนาด M, L, XL, XXL 2 แพ็ค</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>1198.0</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>875.0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-27%</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://sg-test-11.slatic.net/p/86a5de2404840fa92df0e1edef8529c9.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x-2-i1120468948-s20490664160.html</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Merries</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1000379863</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x-2-i1120468948-s20490664160.html?exlaz=e_e6SiQilQy4lsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Xk38abriRFHvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZyb4INwgt3boltocuCuwvGTSMl31BMDZu8plFHtsWWt4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKCIQV%252F390k8Gh9870b4J8uA%253D%253D</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZc</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>1.644670616E9</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>808486069</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SOFT nose cleaner SOFT003 Rechargable+</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>1798.0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-10%</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/77378080f544dacc7261f0ee28c0032c.jpg</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/soft-soft003-rechargable-i808486069-s1644670616.html</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Soft</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>100067630</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/soft-soft003-rechargable-i808486069-s1644670616.html?exlaz=e_VWvd0ggwUQVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdiCxNV0PBW5z2QuiCxWilE6U8oeqr%252FymHvWa41U6SZ2bschpuMtiRxmRXb%252FRopEQjC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrP2242J1m%252BZzLcjCd8LhOIR7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsJdUIa1OGAH7k3sdaF%252FrV9nYG6zENRPYJ0rtJzqFSs1wOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKV2B5RuRsVjuYhSCOPUP2JA%253D%253D</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZX</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>1.910893585E10</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4648249312</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[TOTAL 3 PACK] MAMYPOKO TAPE SUPER PREMIUM ORGANIC</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-33%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://th-live.slatic.net/p/52615f1f9ccd6f4eaf2d8777b55bc4ac.jpg</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/3-i4648249312-s19108935850.html</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>MamyPoko</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/3-i4648249312-s19108935850.html?exlaz=e_5NdfSK72%252BIxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7Vkw85z2Cw5zkB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZFJvffPb8p%252F7THWh4YX5jdWcn7WG0FoLn%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SaV9TQOOiFaaY6xGhPNwawO0%253D</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZ2</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>1.801368307E9</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>894130417</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>รางวัลอันดับ1[4ปีซ้อน Amarin] Saker เครื่องฆ่าเชื้อ+อบแห้ง+ลดกลิ่นอับ 3in1ไซซ์XL เวอร์ชั่นใหม่ล่าสุด</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>14000.0</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>4676.0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-67%</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/793347b037b8cf8391a621461bba994b.jpg</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/14-amarin-saker-3in1xl-i894130417-s1801368307.html</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Saker</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>26523</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/14-amarin-saker-3in1xl-i894130417-s1801368307.html?exlaz=e_2%252F4cPi5LLUBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdQK8%252FuB7hQQxOoskJvGhMeDZzd3uOh8OiHkOIqZ%252BuV7VBxVuUpZM88q2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehP9AUJ%252Fta1t4%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZUaFWYmIsrNPzqLK7rQKA1Je8OY8viq3c%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SaeQEqk9zIMQTz4O50WXwmmg%253D</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZ3</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>9.447437446E9</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2632676682</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>แพ๊กเกจใหม่ ยูเซอริน โอเมก้า บาล์ม 200 มล.</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>720.75</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-16%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S277cfa9f4b6d4a4fb1eb4ec90d79bc02x.jpg</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/200-i2632676682-s9447437446.html</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>No Brand</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>100193670403</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/200-i2632676682-s9447437446.html?exlaz=e_cugohCn6WgxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7VGmhpnRUQdaZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ%252FsYB9aeUxsiGO1lQdqXaXr%252Bbo3qBc%252Bw9sDxb%252BNPZJlj7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpM1G4IseLW%252BIwux8aE9yWNw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZe</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>1.5777826367E10</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4051850978</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>นมกล่อง ยกลัง x4ลัง นมยูเอชที นมไฮคิวสูตร4 3พลัส ซูเปอร์โกลด์ รสจืด180 มล (108 กล่อง) นม UHT HiQ Super Gold UHT</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>3028.0</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>2637.0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-13%</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/83f4f030d1c6f0170a561eb72d9cc77b.jpg</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x4-4-3-180-108-uht-hiq-super-gold-uht-i4051850978-s15777826367.html</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>HiQ</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1000001025</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x4-4-3-180-108-uht-hiq-super-gold-uht-i4051850978-s15777826367.html?exlaz=e_rcFMCcejri5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Wi76wEhmVpCs3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ%252FNESctVulPiqJfkw8z5YYDSMl31BMDZuGIU0QW92Lb4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKtMqxRaAskRMg4rKTUmfIsg%253D%253D</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZ4</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>2.1309366401E10</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5039719276</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Beige รถเข็นเด็ก โช๊คอัพ ล้อ พร้อมเบรก พกพาสะดวก สามารถผลักด้านหน้าและด้านหลังได้ (นั่งเอน/นอน/นอน) รถเข็นเด็ก พับได้</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>2999.0</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>949.05</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-68%</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/ddea70c0003b3798038ce0d3877ccab7.jpg</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/beige-i5039719276-s21309366401.html</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>100321776425</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/beige-i5039719276-s21309366401.html?exlaz=e_IQqO3zAMJIhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdWBuUwyZn4J2HjvOgE8Y7v6U8oeqr%252FymHvWa41U6SZ2YhNhoLmfP%252BjJOtKAcipVanC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMJ65wg8ouk9b8JavHKj4qA7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsvymq%252BFAAIQHZHoXG82cM03rbfrHxTmCmxZ9QUX%252BvZ2ZWKZVtpCRmoDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3J1jdiwEizNHxyExbNNAmX3V0ZvOeGENU</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZf</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>8.791046387E9</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>319818306</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BabyLove รุ่น DayNight Pants Plus ยกลัง3ห่อ ขนาด S-XXL  #ผ้าอ้อมเด็ก</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>825.0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-24%</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/480f8aa4a3fc9b7a1a2b7797dcc7755d.jpg</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/babylove-daynight-pants-plus-3-s-xxl-i319818306-s8791046387.html</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>BabyLove</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>100215860</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/babylove-daynight-pants-plus-3-s-xxl-i319818306-s8791046387.html?exlaz=e_q55OQstUXatsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XENHNwNZufJl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH7w81NdORbEjqNCLvshpx%252B7j%252FQZ%252B5JKMNZGy1Wl574%252BD9i08GEAoMvsKEMiJpX0zwgf%252F1ifmAVx%252B8THmnlCE51gIfcP3zlpcZWcr%252F0HGURXZPunOyk8E7W91dGbznhhDVA%253D%253D</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZ5</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>2.238373522E10</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>5265129875</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>นมผง x2 กล่อง ดูเม็กซ์สูตร3 ดูโกร อีแซดแคร์ ไอรอนแอคทีฟพลัส 1650 กรัม Dumex Dugro EZCare นมดูโกรสูตร3</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>1558.0</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>1303.0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-16%</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/bb6b8347fe4003166a5e76c5d3327c5f.jpg</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x2-3-1650-dumex-dugro-ezcare-3-i5265129875-s22383735220.html</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Dumex</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1000001029</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x2-3-1650-dumex-dugro-ezcare-3-i5265129875-s22383735220.html?exlaz=e_FVaKkHMp99RsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7e%252F9lBKveQYX%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZBm%252BoM%252BsSpF17A9G5ed2xGjSMl31BMDZup8Mh7rCX0U4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKbQ5212gJoqe8wmZcnR7P4A%253D%253D</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZg</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>4.829932469E9</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1704912321</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NAN Goldpro H.A.1 นมแนน โกลด์โปร เอชเอ สูตร1 1400กรัม หมดอายุ 21/11/2025</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>1155.0</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>1155.0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-0%</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/6d1b0fcc9fd557d5455a6a36dc7b7962.jpg</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/nan-goldpro-ha1-1-1400-21112025-i1704912321-s4829932469.html</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>100188126010</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/nan-goldpro-ha1-1-1400-21112025-i1704912321-s4829932469.html?exlaz=e_SQsAkMSFTPZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNd7NP91cGT6d31P4reACFju6U8oeqr%252FymHvWa41U6SZ2Sf23TvhBZa2d6oAIB4k0qrC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOs9SeI8JcngB0WX8xEPwuy7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsWODzrTsxfL%252BAU8P%252BAIIiInrbfrHxTmCmesxs4eJJb4lNl5M6o43ohDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3jlUwCn8scWR1yql3ShIr1g%253D%253D</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZh</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>2.1092855703E10</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4959469006</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Dr.isla wearable electric breast pump automatic milking machine with massage function, USB charging, hands free, BPA free, 9 suction strength adjustable, no pain, breast massage my376 eb29</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>1499.0</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>525.57</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-65%</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/1613eb11ba125ef798a79f98a694b12c.jpg</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/drisla-usb-bpa-12-eb29-wearable-breast-pump-i4959469006-s21092855703.html</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Dr.Isla</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>100305168001</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/drisla-usb-bpa-12-eb29-wearable-breast-pump-i4959469006-s21092855703.html?exlaz=e_Odm%252BjRX%252F8U1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcg2FXF5FAmVczOHtvOE6L06U8oeqr%252FymHvWa41U6SZ2Sf23TvhBZa2J815S6r%252BBjjC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNVJF5aJMLujdhhDBrhwlXR7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsqr2utUSKpQMX5uzu9M6geHrbfrHxTmCmsQYD%252FGvI0a9d5U9oP1ahrTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3IuWIrcOP719kpGyTTLtimnV0ZvOeGENU</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZS</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>2.2324222357E10</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>718810182</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[Carton_2Pack] MERRIES DIAPER PANTS UJB L 56</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>1538.0</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>1538.0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-0%</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S30b0b8fe31304e9dbd67d1f7ef9b10002.jpg</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-l56-x-2-merries-112-i718810182-s22324222357.html</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Merries</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2512</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-l56-x-2-merries-112-i718810182-s22324222357.html?exlaz=e_OVZJJCEi6qNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7U5kg%252Brd4KUO%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZWMA8hH90xffnBBDYyVZ9xy%252BrMWhx2bM2ab0kUCnTYmdaANM%252BMLvs2nyXb%252BVCI0U6apvwW63pOXTm42JXw2YvyA1ExswjwDmcSWQyw92wO2E%253D</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZi</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>2.1931160222E10</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5173722471</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Nestle BEBE นมผง นมตราหมี สูตร 1 2000 กรัม หมดอายุ 02/10/2025</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>919.0</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>919.0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-0%</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/Sf3a7e66e5f6942f68751ccdc56cfc83aI.jpg</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/nestle-bebe-1-2000-02102025-i5173722471-s21931160222.html</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Nestlé</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>100196151460</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/nestle-bebe-1-2000-02102025-i5173722471-s21931160222.html?exlaz=e_T0AZp0a2jNRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XDbm1sTDciLvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZDLA4F4UHkMzTirnyBwPJmL%252Bbo3qBc%252Bw9QhilVGhiBIz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpIIA53P68XHuxMPj5QFxjlQ%253D%253D</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZR</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>1.6929856916E10</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4270665139</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>hi-q 1 plus super gold สูตร3 3850ไฮคิว 1 พลัส ซูเปอร์โกลด์ (ทอง)</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>1529.0</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>1519.0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S3f3efdf408c14c48ac58cb5d5b92d384U.jpg</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/hi-q-1-plus-super-gold-3-3850-1-i4270665139-s16929856916.html</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>HiQ</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>100218105574</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/hi-q-1-plus-super-gold-3-3850-1-i4270665139-s16929856916.html?exlaz=e_qqifjVt3FJZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7SiPjGiP9YTO95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZTgF2G7tFd6bjYY1k4XK%252BhZ14eY4SxhuRF7v5eQIQ3oz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpAfwmfd156UUs5zHObFg34Q%253D%253D</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZ8</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>1.6929923738E10</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4270675095</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ดูโกรซอย สูตร3 Dugro soy นมถั่วเหลือง ขนาด 1600 กรัม ใหม่อายุยาว</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>755.0</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>755.0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-0%</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/3c477b0441c33686f0e22fd3a4899346.jpg</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/3-dugro-soy-1600-i4270675095-s16929923738.html</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Dumex</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>100218105574</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/3-dugro-soy-1600-i4270675095-s16929923738.html?exlaz=e_sgBqpDEjmxxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7WtPDdg2Q4Vy%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZP%252FXuaN06Gg7GGEoY%252B6PEE514eY4SxhuRF7v5eQIQ3oz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpAfwmfd156UUueILDAzfZQw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZQ</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>2.573864823E9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>695270312</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>เมอร์รี่ส์ เจแปน แพ้นส์ กางเกงผ้าอ้อม   x 3 แพ็ค</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>1515.0</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>1052.0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-31%</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://sg-test-11.slatic.net/p/f0a0757dc570f29ff09f789d2bb524f7.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x-3-i695270312-s2573864823.html</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Merries</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1000379863</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x-3-i695270312-s2573864823.html?exlaz=e_1v%252BhWZevGWZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Wfrj812YhKhjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZO7UZX8x2QkjnBBDYyVZ9xx0QxMQLfNoTEnz31u5FQXPDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNar9vk5n4IVEdpJKgdhO%252Bjw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZ9</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>1.4274323218E10</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1416454165</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Enfalac A+ สูตร 2 นมผงดัดแปรงสำหรับทารกและเด็กเล็ก สำหรับช่วงวัยที่ 2 ขนาด 3800 กรัม (1 กล่อง) MG</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>3035.0</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>3035.0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-0%</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/da20bae815fbab48add850c5854e9ae6.jpg</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/enfalac-a-2-2-3800-1-mg-i1416454165-s14274323218.html</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Enfalac</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>100091446</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/enfalac-a-2-2-3800-1-mg-i1416454165-s14274323218.html?exlaz=e_axOwyzVHjOdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cozs%252FHziwW7kB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ2unUC3jpgcxXVl8NyUpeoTSMl31BMDZu7CBkecIhuiDDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVN0xof4sZQ0f5SZUlGiO6NLQ%253D%253D</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZP</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>2.2261735102E10</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>5243233323</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Enfalac A+2 MILD PRO เอนฟาแล็ค เอพลัส สูตร2 มายด์โปร ขนาด3800กรัม(475กรัมx8ซอง)</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>3095.0</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>3095.0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-0%</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S0e12cbd22730416b8b2966fe43519eeaw.jpg</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/enfalac-a2-mild-pro-2-3800475x8-i5243233323-s22261735102.html</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Enfalac</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>100196238277</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/enfalac-a2-mild-pro-2-3800475x8-i5243233323-s22261735102.html?exlaz=e_BqK%252BPLDc7KpsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7exWZaP%252Fc8W795scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZvrld39c1s%252FIOP2kWKpLrWb%252Bbo3qBc%252Bw9w62jLA0q15j7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpwCRsQwk9VJLjloEh458bQg%253D%253D</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZN</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>1.93339213E8</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>160552332</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[โฉมใหม่ ขายยกลัง] BabyLove Easy Tape เบบี้เลิฟผ้าอ้อมแบบเทป รุ่นอีซี่เทป ไซส์ L 3 แพ็ค 216 ชิ้น (แพ็คละ 72 ชิ้น)</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>1467.0</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>1155.0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-21%</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/56813822f7694b949fe655b33c76ea0b.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/babylove-easy-tape-l-3-216-72-i160552332-s193339213.html</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>BabyLove</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1000001002</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/babylove-easy-tape-l-3-216-72-i160552332-s193339213.html?exlaz=e_wqw11d1xBoBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Rv18JpwGSgEl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ%252BU02oiH454PnBBDYyVZ9x7XvxAT%252FH7D6XWAwW4j7dHPDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVN3XpZ36bCqoE7fzuKMrVTTQ%253D%253D</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZn</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>2.1139049202E10</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5004316644</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>✅ส่งด่วนทุกวันตัดรอบบ่ายโมง✅Lamoon วิตามินลดหวัด Immushi โปร 3 ขวดแถม 1 ขวด ลดการติดเชื้อหวัดหายเร็ว สารสกัดจากธรรมชาติ</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>1590.0</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>766.0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-52%</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/68e6f917f997bc6f8c15cc9edf27faf4.jpg</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/lamoon-immushi-3-1-i5004316644-s21139049202.html</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Lamoon baby</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>100196133613</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/lamoon-immushi-3-1-i5004316644-s21139049202.html?exlaz=e_zTkaWHsJhPhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfZ8nwhaPL0N5NawOmjATTe6U8oeqr%252FymHvWa41U6SZ2VVquNEAsBQRrxiUvOMlI2zC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNydRiblFVGzDp4NWtl0Cy87lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsbZnzAApkhhm16mH9FMMU8XrbfrHxTmCm75ByUwpFUjDLjMly1GsN6zLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3dFd4GqTejjzEvQIHomEQ7XV0ZvOeGENU</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZo</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>2.0928860387E10</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4971066591</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>【1 กล่อง】พัฒนาสมอง เพิ่มสมาธิและความจำ นอนหลับสนิท: DHA Probio 9 (วิตามินรูปแบบผง รสมิกซ์เบอร์รี่)</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>990.0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-17%</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/b096aa3679243c83a81db9568408515c.jpg</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/1-dha-probio-9-i4971066591-s20928860387.html</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Promom(โปรมัม)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>100564496054</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/1-dha-probio-9-i4971066591-s20928860387.html?exlaz=e_YNxcX3np4WNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcOT6RjWBJf4MitWNw0wlly6U8oeqr%252FymHvWa41U6SZ2VVquNEAsBQRB6WwlWYhhS7C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOs9SeI8JcngNQmlUbbzc2M7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsvdc7hNEhXE4LZKRDXx91wnrbfrHxTmCmcwnKNg0EeA6b76OMdkVj3zLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3XsufeeSj8Ut70%252BF8tzBRvXV0ZvOeGENU</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZp</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>2.091715278E10</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4968820387</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[ยกลัง 6 แพ็ค]DODOLOVE Double Soft Organic Topsheet กางเกงผ้าอ้อม ผ้าอ้อมสำเร็จรูป ผ้าอ้อมออแกนิค นุ่ม บางซึมซับดีเยี่ยม</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>2599.0</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>869.0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-67%</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/6ca2452bc558d5861f9382b3d32ace5c.jpg</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/6-dodolove-double-soft-organic-topsheet-i4968820387-s20917152780.html</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Dodolove</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1000395507</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/6-dodolove-double-soft-organic-topsheet-i4968820387-s20917152780.html?exlaz=e_BaaFq1jsWntsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdWQ7WztrASWLgDo2m5A0Om6U8oeqr%252FymHvWa41U6SZ2VVquNEAsBQRlz0aNC35%252FLnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9kuOZm2GQxFt7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsrOSLYcx8ekrZsHLLyNmmj3rbfrHxTmCmbMfJHEfLmtD7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJp7pOhguS4EpE5z8uJyTz9Lw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZK</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>4.567096781E9</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1647500736</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>นมกล่อง ยกลัง x2ลัง นมยูเอชที นมไฮคิวสูตร3 1พลัส ซูเปอร์โกลด์ รสจืด180 มล (54 กล่อง) นม UHT HiQ Super Gold UHT</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>1514.0</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>1343.0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-11%</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/3ab67cf72811006013fc8a6f6c4672c7.jpg</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x2-3-1-180-54-uht-hiq-super-gold-uht-i1647500736-s4567096781.html</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>HiQ</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1000001025</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x2-3-1-180-54-uht-hiq-super-gold-uht-i1647500736-s4567096781.html?exlaz=e_txe7lJcZu9hsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7QYl%252FQlI6bIHs3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZrAuQKxx6WhuNv7EtgYsuBTSMl31BMDZuGIU0QW92Lb4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKSMllupRuryWBEcAXFatW4Q%253D%253D</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZJ</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>3.541300414E9</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1388642280</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>นมกล่อง เอนฟาโกร ยูเอชที ซุพีเรียร์ สูตร3 ชนิดจืด (27 กล่อง) x2 ลัง Enfagrow UHT Superior Stage3 Plain (27 boxes) x2 cases</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>1175.0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-13%</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/a07b1fd2ad68811ef7abe8b91c61b4c3.jpg</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/3-27-x2-enfagrow-uht-superior-stage3-plain-27-boxes-x2-cases-i1388642280-s3541300414.html</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Enfagrow</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1000001020</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/3-27-x2-enfagrow-uht-superior-stage3-plain-27-boxes-x2-cases-i1388642280-s3541300414.html?exlaz=e_bw07Aqy0cXpsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7TIlR%252BAyJnhU95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ47eP0Vu8URB9Q%252FeeY3I47TSMl31BMDZuOLYwS%252F4Wk24OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKr8XwCTXGSGqt%252Bqqj0YGm1A%253D%253D</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZr</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>1.115998636E9</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>594384741</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมี พรีไบโอพลัส ดีเอชเอ สูตร 3 รสจืด กลิ่นวานิลลา 180 มล. (2 ลัง : 72 กล่อง)</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>968.0</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>809.0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-16%</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/54c915eb8dd29647b90640f0b33c2931.jpg</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i594384741-s1115998636.html</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Bear Brand</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1000001033</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i594384741-s1115998636.html?exlaz=e_GY%252BnSJNB29hsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7YivZqKk%252FZBls3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZc3Q9D700zXmblByqyqXQQrXvxAT%252FH7D66ct0cpBQgvfDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNJByKwEkSb1TRvoNLOJqgaw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZs</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>8.892375196E9</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2509554592</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>พีเจ้น Pigeon ของแท้ ขวดนมสีชาคอกว้าง แพค3ขวด ขนาด 5/8oz ลาย Natural มีขีดบอก oz ml ฉลากไทย</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>990.0</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>970.0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-2%</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/b34858e52b5d83d41f0aaf4b3535ae66.jpg</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/pigeon-3-58oz-natural-oz-ml-i2509554592-s8892375196.html</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Pigeon</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>100183281329</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/pigeon-3-58oz-natural-oz-ml-i2509554592-s8892375196.html?exlaz=e_eZ5dBUZl5axsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7YZqxHQGlGGJjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH0GKWIqjqlboXVHkJJGpacDnBBDYyVZ9x12Ier%252F%252BtlCpx1CCC2LA0WZpvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FIqx0u1d1c1fo3qWn1ifE%252BBQ%253D%253D</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZH</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>2.11177618E10</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>5001069321</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>( 1 กล่อง ) Enfa Smart+ เอนฟา สมาร์ท สูตร 2 สำหรับ 6 เดือน - 3 ปี ขนาด 4000 กรัม MG</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>1660.0</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>1660.0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-0%</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/fbc3d86e297a5d8c7c1555f1f5bffd22.jpg</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/1-enfa-smart-2-6-3-4000-mg-i5001069321-s21117761800.html</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Enfalac</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>100091446</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/1-enfa-smart-2-6-3-4000-mg-i5001069321-s21117761800.html?exlaz=e_LPJoG%252BkshNBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fk8MbgANO62q2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZA%252FUMhvi7T3UJiCiLLRmsZTSMl31BMDZu7CBkecIhuiDDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNZNxG6UUF8XW9LX0HQckV0A%253D%253D</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZt</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>1.2419706804E10</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3348917402</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Molfix โมลฟิกซ์ เอ็กซ์ตร้า ดราย แพ้นส์ M74 SJ (ยกลัง)</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>802.0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-38%</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/3b9b23e9f8d982afdf86bd3c7881a3e2.jpg</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/molfix-m74-sj-i3348917402-s12419706804.html</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Molfix</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>100200927053</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/molfix-m74-sj-i3348917402-s12419706804.html?exlaz=e_myjaJuKvUhlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdkjFCX%252F%252FLpZ%252BYGauRBkp%252BM6U8oeqr%252FymHvWa41U6SZ2aQzBpmaljoPjKiIlSu15QfC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9c4VC74TE3wL7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsj7OmVyXi9svzf1wet3c%252BVnrbfrHxTmCmYAmF2TyPBZ%252BRptzIAJtG%252FjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3BAQ4GPvGaPqLfR1msYmcLnV0ZvOeGENU</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZF</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>9.2966432E8</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>521908647</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>S-26 Progess Gold UHT (Formula 4) แพ็ค 4 x 9 (2 ลัง)</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>1378.0</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>1060.0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-23%</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/eda4676166c8a43aa62133c2de15fa6f.jpg</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/s-26-progess-gold-uht-formula-4-4-x-9-2-i521908647-s929664320.html</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>S-26</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>1000001031</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/s-26-progess-gold-uht-formula-4-4-x-9-2-i521908647-s929664320.html?exlaz=e_9FvssOg2jF5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7X0vnAckSaPfM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ9M4wa2TCrw%252FzqLK7rQKA1LXvxAT%252FH7D6uTvW45Tm5GzDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNwi%252FM9vNhu1KEBEobxSO9Jg%253D%253D</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZD</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>2.773354496E9</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1173206529</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>มอเตอร์ไกวเปล Vinanoi VN 365N รับนน.100 kg เครื่องไกวเปล เครื่องไกวเปลอัตโนมัติ มอเตอร์ไกวเปลอัตโนมัติ</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>2359.0</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>823.0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-65%</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/cc8ae15a4143b266524ccea3a66a2690.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/vinanoi-vn-365n-100-kg-i1173206529-s2773354496.html</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>No Brand</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1000478154</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/vinanoi-vn-365n-100-kg-i1173206529-s2773354496.html?exlaz=e_PhTf0%252BKqBzZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7c3WmUlp16y7s3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZEs3gsdG9V1rV0YC6McVs%252FzSMl31BMDZuBMVoeacsFG4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK%252F5QkeH%252BK6DoU%252FAkJL6yWNg%253D%253D</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZx</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>2.1380011246E10</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1332304774</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>S-26 Progress Gold 2,750-3,500g</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>959.0</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>786.0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-18%</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://th-live.slatic.net/p/160ccfc7ee98d5eb61e591a9f2b3e2c3.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/s-26-progress-gold-2750-3500g-i1332304774-s21380011246.html</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>S-26</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>100184832188</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/s-26-progress-gold-2750-3500g-i1332304774-s21380011246.html?exlaz=e_TuLr2svD0DZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fJiybBQcpvnq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZonMGe6DlY0RNKsaO1r7XNb%252Bbo3qBc%252Bw9%252FmaFfHE%252Fqjj7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpKhwKJolba%252BEFc6mnRH0yjw%253D%253D</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZy</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>1.93387497E8</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>160577601</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[ขายยกลังx2] โฟร์โมสต์ โอเมก้า 369 รสช็อคโกแลต 180มล (36กล่อง/ลัง) Foremost Omega 369 Chocolate 180ml (นมกล่องUHT)</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>783.0</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>726.0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-7%</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/cb1fff380cf788f86623e691ab05ce67.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x2-369-180-36-foremost-omega-369-chocolate-180ml-uht-i160577601-s193387497.html</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>FOREMOST</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>2.8%</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>1000001028</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x2-369-1-180-36-foremost-omega-369-smart-1-plus-plain-180ml-uht-i3473679173-s12878330639.html?exlaz=e_G569BOTn47JsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7W%252B9oe%252BZiSzhq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZUTj8R3RPoGxkHw40ugGWITSMl31BMDZuwxAbB01%252BAoIOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKb3z0VfHPk9EWc4%252Fp0FEFog%253D%253D</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAURh</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x2-369-180-36-foremost-omega-369-chocolate-180ml-uht-i160577601-s193387497.html?exlaz=e_M1fzbRxVi7dsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7exG%252BUTbxSvbjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZh2YHWLSWUfWblByqyqXQQrXvxAT%252FH7D60wXU96AZSunDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNWfQq%252Frq3yb%252FcM8NU1y1zkg%253D%253D</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZz</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>7.186524584E9</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2157326412</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Sekure Adult Wipes ซีเคียว ผ้าเช็ดผิวสำหรับผู้ใหญ่ ขนาดบรรจุ 100 แผ่น/ห่อ [[ ขายยกลัง 12 ห่อ ]]</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>1470.0</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>1450.0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/S5ada63c80cb1426fa68863b6595bbcaf1.jpg</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/sekure-adult-wipes-100-12-i2157326412-s7186524584.html</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>SEKURE</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1000307961</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/sekure-adult-wipes-100-12-i2157326412-s7186524584.html?exlaz=e_Tx%252Bhkw5Q3nNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7WZxGtK1x9XXq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZn0E8%252F8JgtNXTHWh4YX5jdTSMl31BMDZudElMKdvBaBUOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKW52v3fvW5Cz3XbTytIgVwA%253D%253D</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcALZA</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>1.93387496E8</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>160577600</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[สินค้าขายดี][ขายยกลังx2] โฟร์โมสต์ โอเมก้า 369 รสจืด 180มล (36กล่อง/ลัง) Foremost Omega 369 Plain 180ml (นมกล่องUHT)</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>783.0</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>725.0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-7%</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/cf42111029fd58f6ed552016447fe78d.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x2-369-180-36-foremost-omega-369-plain-180ml-uht-i160577600-s193387496.html</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>FOREMOST</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1000001028</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/x2-369-180-36-foremost-omega-369-plain-180ml-uht-i160577600-s193387496.html?exlaz=e_2g5p%252FSQKWYxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7b4CkLxE0vsGvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZh2YHWLSWUfXdoouIs6WpS7XvxAT%252FH7D60wXU96AZSunDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNWfQq%252Frq3yb8cieKXsNfb2Q%253D%253D</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcAL0a</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>2.1516595808E10</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>5101200068</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>(ใหม่) Pigeon พีเจ้น ขวดนมคอกว้างสีชา PPSU ปลาตะเพียน ขนาด 5/8 ออนซ์ แพคคู่</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>855.0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-11%</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/f65ad5a572d0a44e9b6f7e84e8591540.jpg</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/pigeon-ppsu-58-i5101200068-s21516595808.html</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Pigeon</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1000454608</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/pigeon-ppsu-58-i5101200068-s21516595808.html?exlaz=e_4YeGhGhAJU1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdFHYwPqdMW2P0u8UlRiVDw6U8oeqr%252FymHvWa41U6SZ2ZojpfiZQu9lefwIHaSMnADC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMheldQbIfrBwoLk0cCwgos7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagiscllIJGI5mGhbzi1ZhkH%252BtrzfJBKNhx4bhP%252FZoQZe5HYG6zENRPYJaEAZb7ydj%252FxpvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FIXsWNaPOCWSKe6wdegDr9%252Fg%253D%253D</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcAL00</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>1.710285502E10</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4300090353</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Pigeon ชุดขวดนมคอกว้างสีชา PPSU สุดคุ้ม</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>1715.0</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>1475.0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-14%</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/72f7eb94b08bb06e239a5313b928af0e.jpg</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/pigeon-ppsu-i4300090353-s17102855020.html</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Pigeon</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1000454608</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/pigeon-ppsu-i4300090353-s17102855020.html?exlaz=e_eKDh1Uly6qJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdFHYwPqdMW2P0u8UlRiVDw6U8oeqr%252FymHvWa41U6SZ2ZojpfiZQu9lHbAeUfhbVVfC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMheldQbIfrBwoLk0cCwgos7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsPoms%252BPSkE0NadrZerilCRXrbfrHxTmCmvnbqCDvwKzb7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpzw86a8HwmxNTAXXp5E1DGg%253D%253D</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcAL0Y</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>1.12865594E8</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>110834657</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[ส่งฟรี] Cetaphil Pro AD Derma Skin Restoring Moisturizer 295 ml. , เซตาฟิล โปร เอดี เดอร์มา สกิน เรสทอริ่ง มอยเจอร์ไรเซอร์ 295 มล. (ครีมบำรุงผิว)</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>1265.0</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>889.0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://filebroker-cdn.lazada.co.th/kf/Se4f4e18d0db8477db3f022d75caaee5ba.jpg</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/cetaphil-pro-ad-derma-skin-restoring-moisturizer-295-ml-29-i110834657-s112865594.html</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Cetaphil</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>38960</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/cetaphil-pro-ad-derma-skin-restoring-moisturizer-295-ml-29-i110834657-s112865594.html?exlaz=e_Rn0ipc6URMRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcaN%252FuvK1zr4BmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XmHyTDekyA5kB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehLERPnD%252Fh5gW%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZH%252BkrCCkLJg3zqLK7rQKA1E7Ncq1YKsYW%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SaY3byR2qH%252BPJ6j0vuT6lvmo%253D</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcAL0d</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>1.9108812024E10</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4648157736</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[SOLD CRATE!][TOTAL 4 PACK] MAMYPOKO PANTS PREMIUM PERFECT DRY</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>2356.0</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>1555.0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-34%</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/10e558d79c2850bb0abeed7bf16ffa5c.jpg</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/4-i4648157736-s19108812024.html</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>MamyPoko</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/4-i4648157736-s19108812024.html?exlaz=e_E4wOIEd7GatsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7VgNx67DLczHl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZJKMZbvL%252BygKNv7EtgYsuBWcn7WG0FoLn%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SaV9TQOOiFaaYYzB%252FffUeCBg%253D</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcAL0e</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>Bonus Products Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>1.6929960495E10</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4270606583</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>S26 โปรเกรส สูตร 3 S-26 Progress เอส26 3500 (ม่วง)</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>1029.0</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>999.0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://th-live-01.slatic.net/p/85ada9808ff4f5fd5cc1be5702c7af85.jpg</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/s26-3-s-26-progress-26-3500-i4270606583-s16929960495.html</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>S-26</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>100218105574</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>https://pages.lazada.co.th/products/s26-3-s-26-progress-26-3500-i4270606583-s16929960495.html?exlaz=e_No8CI1CE7Q1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7WbHvWkQVdmEvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZChtplA45Li6Tk7qvhQb8q514eY4SxhuRF7v5eQIQ3oz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpAfwmfd156UWLOweWdrc3wg%253D%253D</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>https://c.lazada.co.th/t/c.YcAL0V</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
         <is>
           <t>Bonus Products Link</t>
         </is>

--- a/lazada_/download/data_promo_list.xlsx
+++ b/lazada_/download/data_promo_list.xlsx
@@ -207,51 +207,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1.9150073004E10</v>
+        <v>7.412698631E9</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4656921747</t>
+          <t>2209146295</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(เลือกไซต์ด้านใน) Merries Japan Pants ผ้าอ้อมเมอร์รี่ส์ชนิดกางเกง Size M- XXL x 2แพ็ค แพมเพิส Merries ยกลัง</t>
+          <t>vitanature+ Black Sesami Oil [3 กระปุก]  (ไวตาเนเจอร์พลัส มันงาดำผสมน้ำมันงาขี้ม้อน)</t>
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1538.0</v>
+        <v>2970.0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1538.0</v>
+        <v>769.0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0%</t>
+          <t>-74%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/8b0b68f18daa8ea0d96d61b1a8449381.jpg</t>
+          <t>https://th-live-01.slatic.net/p/461bcc47d1975b682406898ceb0d5681.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-m-xxl-x-2-merries-i4656921747-s19150073004.html</t>
+          <t>https://pages.lazada.co.th/products/vitanature-black-sesami-oil-3-i2209146295-s7412698631.html</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Merries</t>
+          <t>vitanature+</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -261,7 +261,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>100190874183</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -281,12 +281,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-m-xxl-x-2-merries-i4656921747-s19150073004.html?exlaz=e_6AQUteEQnudsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7ZetC%252BI%252Fxfwa95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH6Gedpz%252BmqDVNlm2kPbPUNXzqLK7rQKA1C%252BrMWhx2bM2ab0kUCnTYmdaANM%252BMLvs2nyXb%252BVCI0U6apvwW63pOXTm42JXw2YvyKXV677ot60%252F%252FZi%252BmtHVZ1U%253D</t>
+          <t>https://pages.lazada.co.th/products/vitanature-black-sesami-oil-3-i2209146295-s7412698631.html?exlaz=e_H%252B9Qcqz4QUFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfTunOrVhcQcSvU6WgILY5Q6U8oeqr%252FymHvWa41U6SZ2QBX%252BtxsLiJScJClRbMalqzC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUcTfNhThV0ybW5O%252FMsWT07lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsvaM%252FLO%252F1UBoxwnIQXrQ7HXrbfrHxTmCm77OP9CLlvVC4IciNBlWU4DLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3x6SwrJb9d9uAUUM%252BMuwKjA%253D%253D</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAn</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mK</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -338,51 +338,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1.2419791273E10</v>
+        <v>2.2732698674E10</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3348841850</t>
+          <t>4954693039</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Molfix โมลฟิกซ์ เอ็กซ์ตร้า ดราย แพ้นส์ L62 SJ (ยกลัง)</t>
+          <t>2 ฟรี 2 (snow lotus 2 ขวด +สบู่ 120 g 2 ชิ้น)</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1287.0</v>
+        <v>1790.0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>799.0</v>
+        <v>1790.0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-38%</t>
+          <t>-0%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/871f84ce0baf98ad231b72984d75b006.jpg</t>
+          <t>https://th-live-01.slatic.net/p/4cebb7b03615f7e810ed0372e4a485f3.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/molfix-l62-sj-i3348841850-s12419791273.html</t>
+          <t>https://pages.lazada.co.th/products/2-2-snow-lotus-2-120-g-2-i4954693039-s22732698674.html</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Molfix</t>
+          <t>MADAME LOUISE</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>26.2%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -392,7 +392,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>100200927053</t>
+          <t>100200906671</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -412,12 +412,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/molfix-l62-sj-i3348841850-s12419791273.html?exlaz=e_Vmm6Cm3vdVRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdkjFCX%252F%252FLpZ%252BYGauRBkp%252BM6U8oeqr%252FymHvWa41U6SZ2W6ZxyPDDFU1qnKpacTbAO3C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9c4VC74TE3wL7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsJEn3hCN1lAGV7pnta24Pk3rbfrHxTmCmYAmF2TyPBZ%252BRptzIAJtG%252FjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3BAQ4GPvGaPoOOwcp8sJrX3V0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/2-2-snow-lotus-2-120-g-2-i4954693039-s22732698674.html?exlaz=e_1oaIcsRGeDlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcF7l2aqvUIs3dgGepir1a16U8oeqr%252FymHvWa41U6SZ2QBX%252BtxsLiJSqHkd48zXsifC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9pkXeoWn7cqz7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsHMVPZFSMq5CRKcpHY5rKMHrbfrHxTmCmlKrjR4BTydck%252BTJNcmqxpzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3eVEefsUVHCHACjnAleFiKXV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAM</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mq</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -469,51 +469,51 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>1.8705935603E10</v>
+        <v>1.7517055454E10</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2564940595</t>
+          <t>4393973172</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(รุ่นใหม่)Pigeon พีเจ้น ขวดนมPPSUสนูปี้160มล.จุกซอฟทัชSS และ 240 มล.จุกซอฟทัช M แพ็คคู่</t>
+          <t>The X เดอะเอ็กซ์สูตรบำรุง Set 1 กล่อง [10 เเคปซูล/กล่อง]  ของแท้ แถม 💥ส่งฟรี💥</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1045.0</v>
+        <v>890.0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>898.0</v>
+        <v>389.0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-14%</t>
+          <t>-56%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/8da9bc292d1c5e934d279e524d61be03.jpg</t>
+          <t>https://th-live-01.slatic.net/p/a5ef10d9d24b96fda215eb29f4e3d03f.png</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/pigeon-ppsu160ss-240-m-i2564940595-s18705935603.html</t>
+          <t>https://pages.lazada.co.th/products/the-x-set-1-10-i4393973172-s17517055454.html</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Pigeon</t>
+          <t>THEX</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>44.2%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1000454608</t>
+          <t>100287012693</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/pigeon-ppsu160ss-240-m-i2564940595-s18705935603.html?exlaz=e_LoqEYKI%252F8iVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdFHYwPqdMW2P0u8UlRiVDw6U8oeqr%252FymHvWa41U6SZ2W6ZxyPDDFU1u73xPwADCYnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMheldQbIfrBwoLk0cCwgos7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagiscllIJGI5mGhbzi1ZhkH%252BQs6XIKK7d8SApM1zqs2%252FN3YG6zENRPYJaEAZb7ydj%252FxpvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FIq8lIvUiqOQwLt2wHm3dy4A%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/the-x-set-1-10-i4393973172-s17517055454.html?exlaz=e_x30XBjeJvw5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfs2%252Bierz9wyNqWmPeOgCBp6U8oeqr%252FymHvWa41U6SZ2QBX%252BtxsLiJSBoAbtBOGYi7C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPH7zURDu8zhknC6SNdOX%252By7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsHtIkEA%252BXw40%252FzaLm8EKrLnrbfrHxTmCmgQnyO%252B0fBLz8QKPg7X40QDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3OrUkA%252FxGxdIuuxWylcaYn3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAo</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mJ</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -600,51 +600,51 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>1.5131495665E10</v>
+        <v>2.2718232397E10</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3929082287</t>
+          <t>5345724041</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมีพรีไบโอพลัส ดีเอชเอ สูตร4 รสจืด กลิ่นวานิลลา 180 มล.(2 ลัง : 72 กล่อง) นมกล่องยูเอชทีสำหรับเด็กและทุกคนในครอบครัว</t>
+          <t>🎁แถมถุงแบรนเคาน์เตอร์🎁 Dior Jadore Eau De Parfum 100ML 💯ของแท้ 100 น้ำหอมผู้หญิง</t>
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>968.0</v>
+        <v>1288.0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>809.0</v>
+        <v>409.53</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-16%</t>
+          <t>-68%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/a95051cd062237147d61d3f798e62e3d.jpg</t>
+          <t>https://th-live-01.slatic.net/p/83c11ed3cddb9332455c73ec08a2154d.jpg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-4-180-2-72-i3929082287-s15131495665.html</t>
+          <t>https://pages.lazada.co.th/products/dior-jadore-eau-de-parfum-100ml-100-i5345724041-s22718232397.html</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Bear Brand</t>
+          <t>Dior</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1000001033</t>
+          <t>100201185672</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -674,12 +674,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-4-180-2-72-i3929082287-s15131495665.html?exlaz=e_ulD9clcZTw9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7TUSfZbljUXfM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZRVAqyT83i5MtoNYCq8GH%252BjSMl31BMDZuTaYknftDWZ4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK%252BB%252FClAi503HVIDgB%252FOV4cg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/dior-jadore-eau-de-parfum-100ml-100-i5345724041-s22718232397.html?exlaz=e_pAhOuI9aVOhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdS0IwmbLq%252FupQM0RqCOsb86U8oeqr%252FymHvWa41U6SZ2Urng0f%252FRWWE%252FVOm1EpAUjnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNydRiblFVGzAouJJSslpmP7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsI8NXVTeCZnTzY0BhwhyQ3HrbfrHxTmCmazTE1LRwvED8XitX5ABasDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3eVEefsUVHCHRutiZo1n7%252B3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAL</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mr</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -731,51 +731,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>9.29702415E8</v>
+        <v>1.9818919126E10</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>521926507</t>
+          <t>4796929893</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>เอส-26 โกลด์ นม uht เด็ก ยูเอชที สูตร 3 แพ็ค 72 กล่อง เพิ่มดีเอชเอ (S-26 Gold UHT Formula 3 2 case - 72 boxes) แพ็คเกจอาจมีการเปลี่ยนแปลง</t>
+          <t>Merry Plant Protein โปรตีนพืช 5 ชนิด : รส Strawberry Milk Flavor 1 กระปุก 2.3lb. / 1,050g. [ 20 Servings ]</t>
         </is>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1378.0</v>
+        <v>1500.0</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1050.0</v>
+        <v>799.0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-24%</t>
+          <t>-47%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/d47950f1e9d64c63f3b6d9b710a27d60.jpg</t>
+          <t>https://th-live.slatic.net/p/5c040732dca2ab4ff01f9299d5ed3c34.jpg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/26-uht-3-72-s-26-gold-uht-formula-3-2-case-72-boxes-i521926507-s929702415.html</t>
+          <t>https://pages.lazada.co.th/products/merry-plant-protein-5-strawberry-milk-flavor-1-23lb-1050g-20-servings-i4796929893-s19818919126.html</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>S-26</t>
+          <t>MERRY NUTRITION</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1000001031</t>
+          <t>100200891632</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/26-uht-3-72-s-26-gold-uht-formula-3-2-case-72-boxes-i521926507-s929702415.html?exlaz=e_CT9KnCUVJ61sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7WbkXaxmfOTl95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZrR664Hs4JVPzqLK7rQKA1LXvxAT%252FH7D6uTvW45Tm5GzDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNyhIaLXj7EeNluB1sM6BixQ%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/merry-plant-protein-5-strawberry-milk-flavor-1-23lb-1050g-20-servings-i4796929893-s19818919126.html?exlaz=e_WdgheV%252FDkUFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcShX1IABwEa87Ix7%252B%252Fx%252Fmj6U8oeqr%252FymHvWa41U6SZ2Urng0f%252FRWWElz0aNC35%252FLnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOoKDQHreaWauri3GGHl2%252FA7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjst7OOXIJhvdxXP1WUL57%252F0HrbfrHxTmCm7nbsKT1jPQRY%252BnqC2psEjTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC35VnAJ7%252FakcQHzsc5eUzDGXV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAs</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mI</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -862,51 +862,51 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>1.7249068642E10</v>
+        <v>2.0476116339E10</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4329930392</t>
+          <t>4878047987</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S-26 นมกล่องยูเอชที โกลด์ โปร แพ็ค 3 x 9 2 ลัง (54 กล่อง) S-26 UHT Gold Pro 3x9 pack 2 cases (54 boxes)</t>
+          <t>(4 Pcs.) Aquatia Double Water Filter for Shower (Water Softener , Water purifier fillter , Shower head filter)</t>
         </is>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1256.0</v>
+        <v>1196.0</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1028.0</v>
+        <v>654.0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-18%</t>
+          <t>-45%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/0d2478876c64d1c20d0255033c6fcec7.jpg</t>
+          <t>https://th-live-01.slatic.net/p/feb63d368543b4df0a60b03113007d48.png</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/s-26-3-x-9-2-54-s-26-uht-gold-pro-3x9-pack-2-cases-54-boxes-i4329930392-s17249068642.html</t>
+          <t>https://pages.lazada.co.th/products/4-aquatia-2-i4878047987-s20476116339.html</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>S-26</t>
+          <t>Aquatia</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>23.3%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1000001031</t>
+          <t>100470784241</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/s-26-3-x-9-2-54-s-26-uht-gold-pro-3x9-pack-2-cases-54-boxes-i4329930392-s17249068642.html?exlaz=e_KhuM%252FwHcibRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7UfYWZ2Y4edyq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZyRbFbtXSR7I%252Bt%252F5TqfVrZzSMl31BMDZuovLcky0FEDMOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK6Gcc9t%252BomwrQIWuFiVQ7Iw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/4-aquatia-2-i4878047987-s20476116339.html?exlaz=e_qyiXjAj8RpBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNf35HPPUMEbFDrEXl6Xxbj26U8oeqr%252FymHvWa41U6SZ2Urng0f%252FRWWEmc%252BuSCo%252FBmfC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9YFAwiK5eRIW7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsMpDgwF3kZJbmW9g9%252B2eIa3rbfrHxTmCmqP8SOy5ufXRZF9smv39NUDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3stkKFI%252Fie7X2vP8dNBOMPnV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAu</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7ms</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -993,51 +993,51 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>1.4397632571E10</v>
+        <v>1.6382864794E10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3786970440</t>
+          <t>4168755062</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>เลือกไซส์ก่อนกดสั่งซื้อ! [ToyBox] เบบี้เลิฟ เพลย์แพ้นส์ พรีเมี่ยม ลังประหยัด ไซส์ M-XXL (3 แพ็ค)</t>
+          <t>Pro 3 แถม 1 ขวด DoctorLine Brightening Golden C Serum  ด็อกเตอร์ไลน์ ไบร์ทเทนนิ่ง โกลเด้น ซี เซรั่ม ลดเลือนรอยฝ้า กระ จุดด่างดำ รอยสิว ผิวหน้าสว่าง ดูโกลด์</t>
         </is>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1497.0</v>
+        <v>1990.0</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>899.0</v>
+        <v>1990.0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-40%</t>
+          <t>-0%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/f87435519294c3c0ebc56e2c7466e5df.jpg</t>
+          <t>https://th-live-01.slatic.net/p/87bf6d56c163cef7f14d1681a4247cb0.png</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/toybox-m-xxl-3-i3786970440-s14397632571.html</t>
+          <t>https://pages.lazada.co.th/products/pro-3-1-doctorline-brightening-golden-c-serum-i4168755062-s16382864794.html</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>BabyLove</t>
+          <t>DoctorLine</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>34.2%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1000001002</t>
+          <t>100233690519</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/toybox-m-xxl-3-i3786970440-s14397632571.html?exlaz=e_G3qhxOndXptsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7W6jFNSda%252BxDZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZyNtmhsBjnXxGqw%252BvgUJ0TDSMl31BMDZulAZ19yY3Ys4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKCHLjyBsYYhmuk4r9IFpzZg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/pro-3-1-doctorline-brightening-golden-c-serum-i4168755062-s16382864794.html?exlaz=e_u7qKC9QRkPpsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc2n%252BJtIBX0bixWm%252F1WMfXx6U8oeqr%252FymHvWa41U6SZ2Urng0f%252FRWWExG8N45VlVyXC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPH7zURDu8zhpSXLVK%252Bvqig7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsrv9MRoqTwqxpq1uU%252BRH4ynrbfrHxTmCmd4I1AGjQvHPSfEJGyFaGXDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3exAsROFU6xmPF2DYByu5B3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAF</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mH</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1124,51 +1124,51 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>2.0894389845E10</v>
+        <v>2.1560623446E10</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4965170072</t>
+          <t>5110606903</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Beige รถเข็นเด็ก รถเข็นเด็กโต เข็นหน้า-หลังได้ รถเข็นเด็กพับได้ เข็มขัดนิรภัยห้าจุด ล้อสากล ที่นั่งขนาดใหญ่ รับน้ำหนักได้มากถึง 50 โล</t>
+          <t>🚛จัดส่งฟรี🔥(1แถม1)Vitamores Dietary Supplement Product Creatine  ครีเอทีน ไวต้ามอร์ส เสริมสร้างรูปร่าง เพิ่มมวลกล้ามเนื้อ  พลังงานสูงเหมาะแก่การออกกำลังกาย</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1999.0</v>
+        <v>1900.0</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>968.75</v>
+        <v>1388.0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-52%</t>
+          <t>-27%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/b732dab076ab3e1a9a4122e6b7ddcbce.jpg</t>
+          <t>https://th-live.slatic.net/p/5aba0f4e89d5b0b324a6266a891f64ad.jpg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/beige-50-i4965170072-s20894389845.html</t>
+          <t>https://pages.lazada.co.th/products/11vitamores-dietary-supplement-product-creatine-i5110606903-s21560623446.html</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Vitamores</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1000455452</t>
+          <t>100707616127</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/beige-50-i4965170072-s20894389845.html?exlaz=e_Zdg6JQrTUXZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNf0B27FoEoitDcjpuqaKNfODZzd3uOh8OiHkOIqZ%252BuV7Xyrq8VV2ONwZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8w%252FpZrZYzkNpiK8%252BDrBKnwA%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZRyRb2RdFJ06w8770vgDWEjSMl31BMDZuldDUO2rtG2YOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKcLayQza1QpFmdWNlh%252BxuYg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/11vitamores-dietary-supplement-product-creatine-i5110606903-s21560623446.html?exlaz=e_fFWVlGbUarVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNe2cn7klXz1uHwe3HrpSd9A6U8oeqr%252FymHvWa41U6SZ2d6c9STC29dhD8hMacxtp2bC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOIsTmAth7FV6BpfxQh3Pty7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsDDs76be6NMEuihFlvRgF8nrbfrHxTmCmLScVPhn1XYLYo8WV%252BLxFbzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3OPQK4ky8UuiDOG3SPTWRjHV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAE</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mt</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1255,51 +1255,51 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>1.0089689518E10</v>
+        <v>2.2594087065E10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2774325161</t>
+          <t>5309644024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DODOLOVE เครื่องนึ่งขวดนมพร้อมอบแห้ง สามารถฆ่าเชื้อด้วยไอน้ำ อบแห้งโดยลมร้อน นึ่งขวดนม</t>
+          <t>หนังสือ กฎเหล็ก 99 ประการ (แห่งการแหกกฎชีวิต)</t>
         </is>
       </c>
       <c r="E10" s="1" t="n">
-        <v>5900.0</v>
+        <v>690.0</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1290.0</v>
+        <v>349.0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-78%</t>
+          <t>-49%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/321f8d113af411f6ef372770d47c7546.jpg</t>
+          <t>https://filebroker-cdn.lazada.co.th/kf/Sec392b7e1aa4493db0c469c1f5250745A.jpg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/dodolove-i2774325161-s10089689518.html</t>
+          <t>https://pages.lazada.co.th/products/99-i5309644024-s22594087065.html</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Dodolove</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>43.3%</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1000395507</t>
+          <t>100193457306</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/dodolove-i2774325161-s10089689518.html?exlaz=e_Finihd%252B6BqdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdWQ7WztrASWLgDo2m5A0Om6U8oeqr%252FymHvWa41U6SZ2TFnpmNC5TgZo6%252BtJnVkCKPC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9kuOZm2GQxFt7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagiscllIJGI5mGhbzi1ZhkH%252B6t85vIJDSHhkCglsVXddunYG6zENRPYJUJAqian%252BNk9pvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FILTizfpWgrVd8qaN8bDBNhQ%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/99-i5309644024-s22594087065.html?exlaz=e_dU6kjHsyIT1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdmiTJ6x%252BtJJMitWNw0wlly6U8oeqr%252FymHvWa41U6SZ2d6c9STC29dh4FsbkzO3l%252BfC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOeVCwr6bMowAG311PZF7LR7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjshcusJlZV%252F5IjuVtJ8nZ85nrbfrHxTmCmC%252Ffg5v4N2KkittKug4LKtzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3t%252BFpMOQqkOkTsdrCunNix3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAD</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mG</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1386,51 +1386,51 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>1.2878470257E10</v>
+        <v>2.0569949983E10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3473673237</t>
+          <t>4888355171</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[ขายยกลังx2] โฟร์โมสต์ โอเมก้า 369 สมาร์ท 4 พลัส รสจืด 180มล (36กล่อง/ลัง) Foremost Omega 369 Smart 4 Plus Plain 180ml (นมกล่องUHT)</t>
+          <t>[2 แถม 1 ] ใหม่ JIL WINK ผลิตเสริมอาหาร บำรุงผิวจาก Dr.JiLL สูตรกระจ่างใส ลดเลือนริ้วรอย เพื่อผิวอ่อนเยาว์</t>
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1080.0</v>
+        <v>2580.0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>936.0</v>
+        <v>990.0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-13%</t>
+          <t>-62%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/6a594f31cd33ac06bdce8194e6c7982e.png</t>
+          <t>https://th-live-01.slatic.net/p/4fd37b2ac0b37e2a1c56b7e762a12a0f.jpg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-369-4-180-36-foremost-omega-369-smart-4-plus-plain-180ml-uht-i3473673237-s12878470257.html</t>
+          <t>https://pages.lazada.co.th/products/2-1-jil-wink-drjill-i4888355171-s20569949983.html</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>FOREMOST</t>
+          <t>Dr.Jill</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>29.2%</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1000001028</t>
+          <t>100194042283</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1460,12 +1460,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-369-4-180-36-foremost-omega-369-smart-4-plus-plain-180ml-uht-i3473673237-s12878470257.html?exlaz=e_wa3zWutXrQpsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7ZytZP1cyBV5M3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZoOynkz2eMZSt9aT224ENrDSMl31BMDZuwxAbB01%252BAoIOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK4%252FgLdngeDyxOTX%252F4QLogXg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/2-1-jil-wink-drjill-i4888355171-s20569949983.html?exlaz=e_ldCckGnXX5BsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcJG7ulC9n493MexoqXFY5g6U8oeqr%252FymHvWa41U6SZ2d6c9STC29dhwCxebm5A33vC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrP4dadk%252BroeTTd%252BvBXUP1%252Fk7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsTrWcOVMWLSJtq1%252Bveq5bp3rbfrHxTmCmDa0DlLijHRK4IciNBlWU4DLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3DFp4klUVnh7fdfuqsCuOnXV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAx</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mu</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1517,51 +1517,51 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>2.0730869455E10</v>
+        <v>2.1993916923E10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4924848539</t>
+          <t>5182449240</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MERRIES BABY DIAPER TYPE PANTS SIZE S-XXL (TOTAL 3 PACK)</t>
+          <t>FEM ORGANIC ROSE WATER UNDERARM ครีมทารักแร้</t>
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1515.0</v>
+        <v>390.0</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1083.0</v>
+        <v>309.0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-29%</t>
+          <t>-21%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/7b7373fb604c977127ac0ac016f847c5.jpg</t>
+          <t>https://sg-test-11.slatic.net/p/34416eea1f3af2268f4660cc87d83418.jpg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/s-xxl-3-i4924848539-s20730869455.html</t>
+          <t>https://pages.lazada.co.th/products/fem-organic-rose-water-underarm-i5182449240-s21993916923.html</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Merries</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>28.2%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>100784912611</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/s-xxl-3-i4924848539-s20730869455.html?exlaz=e_eSfpLRkrFipsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7XtsZqBU%252BJsIl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH6Gedpz%252BmqDVnCSUSR3JdbgCIIRt8IzKfXLetVhV7nF%252Bab0kUCnTYmdaANM%252BMLvs2nyXb%252BVCI0U6apvwW63pOXTm42JXw2YvyPrzxJ5gIzboBKQs1e4bIHg%253D</t>
+          <t>https://pages.lazada.co.th/products/fem-organic-rose-water-underarm-i5182449240-s21993916923.html?exlaz=e_goaDklJ1v7FsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdbLmG3iiRVSJCuUqgflrxJ6U8oeqr%252FymHvWa41U6SZ2XxiTLaKezId22hwJSGBNNnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMheldQbIfrB3u%252FGCNKBN0t7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjshuXutTlqLVFygyw49soy4nrbfrHxTmCm2fBqDv8F7mMe%252BQ0oUG%252FPrjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC31uIaUVlnfy184QJvuge2ZXV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAC</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mF</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1648,41 +1648,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>1.8976935789E10</v>
+        <v>1.9367663706E10</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4624735271</t>
+          <t>4699346719</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>มอเตอร์ไกวเปล ยี่ห้อ sbaby SH20 มอเตอร์ไกวเปลอัตโนมัติ  ทนทาน ใช้ดี ไกวได้น้ำหนักถึง 100 กก.</t>
+          <t>NACHU - JAPANESR TOMATO SUNCREAM 3</t>
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1134.0</v>
+        <v>1650.0</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>850.5</v>
+        <v>950.0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-25%</t>
+          <t>-42%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://th-live-02.slatic.net/p/ee4387c250161e1e1b7be2c6a3dbe910.jpg</t>
+          <t>https://th-live-01.slatic.net/p/085751c44d37063c193b31b581b847e8.jpg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/sbaby-sh20-100-i4624735271-s18976935789.html</t>
+          <t>https://pages.lazada.co.th/products/3-spf50-pa-i4699346719-s19367663706.html</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>29.2%</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1000152657</t>
+          <t>100411696797</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/sbaby-sh20-100-i4624735271-s18976935789.html?exlaz=e_Z68jgxk0sAtsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Y7CT7QzNr14q2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZUHXYa4zuaSDTirnyBwPJmDSMl31BMDZuur1wjfmuhkoOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKa%252Bfjq5BMeDMrHHzJ7lll8Q%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/3-spf50-pa-i4699346719-s19367663706.html?exlaz=e_4Vr09Rz4OhhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc3Qr7khgZIWVjKkD66bAvP6U8oeqr%252FymHvWa41U6SZ2XxiTLaKezId4MpMbPqudd7C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9ko%252BeN1mZU9Y7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs2FOpqDqHI7CKkSX149NktHrbfrHxTmCmUAktaJIwJyfRNZOFw6wmIjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3HiRehfSnnD%252FNrPrxcOi4MnV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAy</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mv</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1779,51 +1779,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1.079978412E9</v>
+        <v>2.1481298334E10</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>584034671</t>
+          <t>5092671351</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>นมกล่อง ยกลังx2ลัง นมยูเอชที ดูเม็กซ์ ดูโกร รสจืด 180 มล (72 กล่อง) UHT Dumex Dugro นมดูโกร</t>
+          <t>Jabs กันแดด แจ๊บส์ ไบรท์บูสเตอร์ ยูวี โพรเทคชั่น บอดี้โลชั่น SPF50 PA+++  450มล. x2</t>
         </is>
       </c>
       <c r="E14" s="1" t="n">
-        <v>940.0</v>
+        <v>598.0</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>835.0</v>
+        <v>339.0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-11%</t>
+          <t>-43%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/e4ea4dc4eae90ce03e814d47e3c785b5.jpg</t>
+          <t>https://th-live-01.slatic.net/p/2edd83d0637327e7450bd0758ec2dc91.jpg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-180-72-uht-dumex-dugro-i584034671-s1079978412.html</t>
+          <t>https://pages.lazada.co.th/products/jabs-spf50-pa-450-x2-i5092671351-s21481298334.html</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Dumex</t>
+          <t>Jabs</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1000001029</t>
+          <t>100193118965</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-180-72-uht-dumex-dugro-i584034671-s1079978412.html?exlaz=e_sNb6l6fJAGVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7TucyqlwBWBlkB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZcdes36UMORSblByqyqXQQrXvxAT%252FH7D6F20p4BqrYSXDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNPRgmHAZd8rXIVeZbXjLalw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/jabs-spf50-pa-450-x2-i5092671351-s21481298334.html?exlaz=e_EUv7p8FdwjpsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdFCkJeeZd7eHdgGepir1a16U8oeqr%252FymHvWa41U6SZ2XxiTLaKezIdBZEMTcFcybvC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOIsTmAth7FV%252B7SP5A5dTJ27lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsilp1ltH97CPXr0OXqq8HjHrbfrHxTmCmpbGvakTzdDVGqpgS8zKf3zLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3NzDwxLL3WAu806ZHqphpT3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcAoAB</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mE</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1910,51 +1910,51 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.1178356943E10</v>
+        <v>1.7334374006E10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5011582731</t>
+          <t>4345805365</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Haakaa Rechargeable Baby Nasal Aspirator เครื่องดูดน้ำมูกอัตโนมัติ</t>
+          <t>Dagoderma Scar Emulgel 2 tubes</t>
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>2390.0</v>
+        <v>568.0</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1990.0</v>
+        <v>515.0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-17%</t>
+          <t>-9%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/c73309b599ad504605f1e891331d8baa.jpg</t>
+          <t>https://th-live-01.slatic.net/p/e5c0c7b7bec2404a1f06da199ee35afc.jpg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/haakaa-rechargeable-baby-nasal-aspirator-i5011582731-s21178356943.html</t>
+          <t>https://pages.lazada.co.th/products/dagoderma-scar-emulgel-15-g-x-2-i4345805365-s17334374006.html</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Haakaa</t>
+          <t>DAGOKIDS</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>36.2%</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>29183</t>
+          <t>1000143300</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/haakaa-rechargeable-baby-nasal-aspirator-i5011582731-s21178356943.html?exlaz=e_60COLVy3p1FsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfdTeRfmUhuLwnPRst%252BgfiUDZzd3uOh8OiHkOIqZ%252BuV7bKmctwriM4QvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8xpn3nqJjtlcRdYsFYXr%252FvC%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZir8GzCcDmV%252F86Q7mzae%252Bi%252BusSVIhOqZZhQOGtcrghnrcj9PWkvMu6LzFhPcwkUma10uf%252FOvx0MbffzDMsLCuX3%252B3YhtfbagEZKcqaE6cbXs%253D</t>
+          <t>https://pages.lazada.co.th/products/dagoderma-scar-emulgel-15-g-x-2-i4345805365-s17334374006.html?exlaz=e_iXXnekZoJsJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdXD4uBIsHKybJfJOxfKN9Q6U8oeqr%252FymHvWa41U6SZ2XxiTLaKezIdvaR28efKnTXC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOIsTmAth7FV0C740MECbpy7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsSOTMELkFnQ3vmx4EvnhBsnrbfrHxTmCm3nxb7keR%252BdL7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpmA4NFW63MAE4emnygQVrnw%253D%253D</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaa</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mw</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2041,51 +2041,51 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.0170086732E10</v>
+        <v>1.8833417621E10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4835002160</t>
+          <t>4598625208</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>อ่างอาบน้ําที่ไม่ต้องติดตั้ง ทำจากวัสดุหนา6ชั้นปลอดภัย ท่อระบายน้ำคู่สะดวกและรวดเร็ว อ่างอาบน้ำพับเก็บ อ่างแช่น้ำสำหรับผู้ใหญ่เด็</t>
+          <t>ครีมทาผื่น ผิวแพ้ง่าย ครีมบำรุงผิว Baby Everyday Facial Cream l Regagar</t>
         </is>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1688.0</v>
+        <v>790.0</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1011.79</v>
+        <v>790.0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-40%</t>
+          <t>-0%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/d3150a4875092f4b05358de05e85ac10.jpg</t>
+          <t>https://th-live-01.slatic.net/p/4b9bf729a33fa07d08a4e991e072a125.jpg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/6-i4835002160-s20170086732.html</t>
+          <t>https://pages.lazada.co.th/products/baby-everyday-facial-cream-l-regagar-i4598625208-s18833417621.html</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>No Brand</t>
+          <t>Regagar</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>32.8%</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>100383680645</t>
+          <t>1000412865</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2115,12 +2115,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/6-i4835002160-s20170086732.html?exlaz=e_y0f1zKLFl9psbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfmbn0rDynwPg052YwCD9Ec6U8oeqr%252FymHvWa41U6SZ2fgs0UsxyE%252B1xG8N45VlVyXC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9sBpw4xOlrWn7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs2kOSGuR1WJbO5wB75y7AH3rbfrHxTmCmhMYxvX%252FTlzlcZgnzaGz7wTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3DV4TM4lWNztw%252BI8QCbe9YHV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/baby-everyday-facial-cream-l-regagar-i4598625208-s18833417621.html?exlaz=e_2mdMVOCZF7lsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6aHynqZtg0ZNawOmjATTe6U8oeqr%252FymHvWa41U6SZ2Sq9kvWBhyQ2Vp%252F1pPdjzW3C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMqUCdsuKYGiwESdiJYscez7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs0yKey401ZFR9K5HZfo9g2HrbfrHxTmCm%252B3tkRO8CjjD7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpnrxxDvOZajZ6aVmEePfNHw%253D%253D</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALa0</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mD</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2172,51 +2172,51 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>9.61493415E9</v>
+        <v>5.16492812E8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2670881671</t>
+          <t>300244898</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[ส่งฟรี] MamyPoko Pants Premium Aim Perfect Dry (Toy Box) ผ้าอ้อมเด็กแบบกางเกง มามี่โพโค แพ้นท์ พรีเมี่ยม เอม เพอร์เฟ็ค ดราย สำหรับเด็กผู้หญิง ไซส์ L</t>
+          <t>Mountain Rock  เวย์โปรตีนสูง 37.5g สูตร ALL-IN-ONE เพิ่มกล้าม ไม่เพิ่มน้ำหนัก รสชาไทย อร่อย ไม่หวาน ไร้น้ำตาล ไร้ไขมันทรานซ์</t>
         </is>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1929.0</v>
+        <v>1500.0</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1400.0</v>
+        <v>940.0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-27%</t>
+          <t>-37%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S0ef8a25ca9f94d378f93cf566315e6b3V.jpg</t>
+          <t>https://th-live-01.slatic.net/p/ba1b35e2afb64e120406d74aa3c8fa58.jpg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mamypoko-pants-premium-aim-perfect-dry-toy-box-l-i2670881671-s9614934150.html</t>
+          <t>https://pages.lazada.co.th/products/mountain-rock-375g-all-in-one-i300244898-s516492812.html</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>MamyPoko</t>
+          <t>mountain rock</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>25.2%</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1000001012</t>
+          <t>1000099878</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2246,12 +2246,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mamypoko-pants-premium-aim-perfect-dry-toy-box-l-i2670881671-s9614934150.html?exlaz=e_nkPr0D3u%252FoNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fAz9WGHdZpQM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZfHickoTx3xrTirnyBwPJmDSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKzz9sClafUF3Tfm28WP3hZQ%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/mountain-rock-375g-all-in-one-i300244898-s516492812.html?exlaz=e_qYS4eHbkUZNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNewuaO0y06s56D4yejFF4b7DZzd3uOh8OiHkOIqZ%252BuV7dpampIvFZu5q2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8xPn5rNNgiqLliNK9RzlcQC%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ%252BBtiu5wRFiMspoq%252FhM9SbbXvxAT%252FH7D6SQJhV1opmffDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNqDJ1VJIsb1xR8rbGTWgU1w%253D%253D</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALa1</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mx</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2303,51 +2303,51 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.2974281227E10</v>
+        <v>1.9818924898E10</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5397833251</t>
+          <t>4796947884</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Softher OMEGA + DHA Kids Gummy Vitamin C Gummiesโอเมก้า + ดีเอชเอ กัมมี่สำหรับเด็ก วิตามินซีแบบกัมมี่ 60 Gummies</t>
+          <t>Merry Plant Protein โปรตีนพืช 5 ชนิด : รส Mixed Berry Flavor 1 กระปุก 2.3lb. / 1,050g. [ 20 Servings ]</t>
         </is>
       </c>
       <c r="E18" s="1" t="n">
-        <v>1899.0</v>
+        <v>1500.0</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>372.06</v>
+        <v>999.0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-80%</t>
+          <t>-33%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/047ea1960042c8f93d8492abb9717de5.jpg</t>
+          <t>https://th-live.slatic.net/p/58016883fafe590116a60ba019c88ec9.jpg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/softher-omega-dha-kids-gummy-vitamin-c-gummies-60-gummies-i5397833251-s22974281227.html</t>
+          <t>https://pages.lazada.co.th/products/merry-plant-protein-5-mixed-berry-flavor-1-23lb-1050g-20-servings-i4796947884-s19818924898.html</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>SOFTHER HEALTHY CHOICES</t>
+          <t>MERRY NUTRITION</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>100907872123</t>
+          <t>100200891632</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/softher-omega-dha-kids-gummy-vitamin-c-gummies-60-gummies-i5397833251-s22974281227.html?exlaz=e_7M9lUlybf21sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfXZXL%252FnaiUZ3uvSdpcOzEV6U8oeqr%252FymHvWa41U6SZ2ZfGCQhHb1hwJ815S6r%252BBjjC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNOysa3%252BG31MO8GS4glQOgB7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsUOyMfdFUnWavjgWNJROl3nrbfrHxTmCmNc7RUjvqa45Smid39d4J6TLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC306O1b7dRuqymW68HRLQ43HV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/merry-plant-protein-5-mixed-berry-flavor-1-23lb-1050g-20-servings-i4796947884-s19818924898.html?exlaz=e_a4jGOZ90n0dsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc%252BVroPZsqe%252FlANXdHOxoTg6U8oeqr%252FymHvWa41U6SZ2Sq9kvWBhyQ2kyD6ceUojBnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOoKDQHreaWahHNxXb787es7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjscqqcUiFM1wYUN4eKyoOxJXrbfrHxTmCm7nbsKT1jPQRY%252BnqC2psEjTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC35VnAJ7%252FakcSfVpifUowtFXV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaW</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mC</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2434,51 +2434,51 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>4.33447864E8</v>
+        <v>7.107870016E9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>273484608</t>
+          <t>2117070236</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>KODOMO น้ำยาซักผ้าเด็ก โคโดโม ออร์แกนิค โอลีฟ ออยล์ สำหรับเด็กแรกเกิด Organic Olive Oil 2,800 มล. 4 แกลลอน</t>
+          <t>Naturista White Tea Special Set   ซื้อเป็นเซตถูกกว่า!</t>
         </is>
       </c>
       <c r="E19" s="1" t="n">
-        <v>1260.0</v>
+        <v>1700.0</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>899.0</v>
+        <v>419.0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-29%</t>
+          <t>-75%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/1bc593142486ae16f534ed0eb54c9b3b.jpg</t>
+          <t>https://th-live-01.slatic.net/p/0c92cfe65b3fe8c7118a73a799a4866b.jpg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/kodomo-organic-olive-oil-2800-4-i273484608-s433447864.html</t>
+          <t>https://pages.lazada.co.th/products/naturista-white-tea-special-set-i2117070236-s7107870016.html</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Kodomo</t>
+          <t>Naturista</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>26.2%</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1743</t>
+          <t>100181481667</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2508,12 +2508,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/kodomo-organic-olive-oil-2800-4-i273484608-s433447864.html?exlaz=e_KkTIXtsUymhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdKknGb9tTXfAO6PAoNBfi86U8oeqr%252FymHvWa41U6SZ2bTjRrBPTPJb22hwJSGBNNnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNkEA8sdpya9HOckHnW5GIv7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsSUM8QjxwGxw4ra6TdzMvo%252FJfLdZx5h8khQOGtcrghnrcj9PWkvMu6LzFhPcwkUma10uf%252FOvx0MbffzDMsLCuX3fiO7rFckafnDyOIerKVcY%253D</t>
+          <t>https://pages.lazada.co.th/products/naturista-white-tea-special-set-i2117070236-s7107870016.html?exlaz=e_fsOUWenuJKFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcf4hvldqmuxQnPRst%252BgfiUDZzd3uOh8OiHkOIqZ%252BuV7bbn0DBBTXgdM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8yVGB5NrYWuWqtKJpPBXLhq%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZEp5gzgR9JviNv7EtgYsuBb%252Bbo3qBc%252Bw9tahd7c2fTdH7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJp5mf5tQQAPVrcFkk360RbgQ%253D%253D</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALae</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7my</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2565,51 +2565,51 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.09040076E8</v>
+        <v>1.8824131282E10</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>168696074</t>
+          <t>4596736799</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[ยกลัง x 2 ลัง] นมยูเอชที นมไฮคิวสูตร4 เอกซ์พลอเรอร์ พรีไบโอโพรเทก รสจืด 180มล x72 นม UHT HiQ Explorer PrebioProteq UHT</t>
+          <t>🔥ส่งฟรี ส่งไว🔥 AS Astaxanthin Plus Vitamin E ผลิตภัณฑ์เสริมอาหารแอสต้าแซนทินผสมวิตามินอี (1แถม1 = 120 แคปซูล) ฟื้นฟูผิวอ่อนเยาว์จากภายใน</t>
         </is>
       </c>
       <c r="E20" s="1" t="n">
-        <v>1514.0</v>
+        <v>780.0</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1343.0</v>
+        <v>309.0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-11%</t>
+          <t>-60%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/49bb5a6085736c0e873e24035737b334.jpg</t>
+          <t>https://th-live.slatic.net/p/791297405807ef541db03de11c61aa37.jpg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x-2-4-180-x-72-uht-hiq-explorer-prebioproteq-uht-i168696074-s209040076.html</t>
+          <t>https://pages.lazada.co.th/products/as-astaxanthin-plus-vitamin-e-11-120-i4596736799-s18824131282.html</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>HiQ</t>
+          <t>New Life Plus</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1000001025</t>
+          <t>100350880459</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x-2-4-180-x-72-uht-hiq-explorer-prebioproteq-uht-i168696074-s209040076.html?exlaz=e_BM0yYKxXxCFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7bcvmlUx2lMjZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZc6WqHmsDvm%252BInLMHbn%252FtwbXvxAT%252FH7D6Uy%252BEe6K2CVrDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNvQr4plg7hFEcieKXsNfb2Q%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/as-astaxanthin-plus-vitamin-e-11-120-i4596736799-s18824131282.html?exlaz=e_yUtmT6zI0p5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfa5kONxpId6RHdGQMlotIJ6U8oeqr%252FymHvWa41U6SZ2aGqwmLYkmcVXaz%252B%252B%252FQWbsrC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNkEA8sdpya9NZXN3m6M3cI7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs03SeHxMfBlCT5w3PYzKmHXrbfrHxTmCmHiQSiCWnabjlA%252FXEHPP2wTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC32bVrZ8atlnW%252BTB%252Bz00rHA3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaV</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mz</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2696,51 +2696,51 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2.2986735222E10</v>
+        <v>1.879123266E10</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5409269591</t>
+          <t>4591513022</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>หมอนกันกรดไหลย้อน ในเซ็ตมี 4 ชิ้น ปรับความชันได้ตามใจ มีหมอนรองคอ นอนได้หลายท่า องกันกรดไหลย้อน นอนกรน ส่งเสริมการไหลเวียนของเลือด วัสดุไฮเปอร์เมมโมรี่โฟม รองรับตั้งแต่หัวจรดเท้า</t>
+          <t>🔥ส่งฟรี ส่งไว🔥 VB-Complex วีบีคอมเพล็กซ์ วิตามินบีรวม ระบบประสาท การทำงานของสมอง ( 1แถม1 = 120 แคปซูล )</t>
         </is>
       </c>
       <c r="E21" s="1" t="n">
-        <v>3500.0</v>
+        <v>640.0</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>2499.0</v>
+        <v>309.0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-29%</t>
+          <t>-52%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/2db0f1548c73545e2aa72a598b8f36b3.jpg</t>
+          <t>https://th-live.slatic.net/p/2dccbbca69abb994c6e36f2da6904b14.jpg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/4-i5409269591-s22986735222.html</t>
+          <t>https://pages.lazada.co.th/products/vb-complex-11-120-i4591513022-s18791232660.html</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>No Brand</t>
+          <t>VBT</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>100262424837</t>
+          <t>100350592865</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2770,12 +2770,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/4-i5409269591-s22986735222.html?exlaz=e_E0wsOf05WcxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeJ6WfWTaWefSG6o5V1u%252BPP6U8oeqr%252FymHvWa41U6SZ2bTjRrBPTPJbN3YJDGZALwnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPyux5yacQMwXPTQL38BArJ7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs2IJ%252BW7tgNHNJ1%252BRv8pEJo3rbfrHxTmCmr588qC76FM2EISKvVXVkhjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC306O1b7dRuqyAL54z6kzmfHV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/vb-complex-11-120-i4591513022-s18791232660.html?exlaz=e_G26wwBc%252FsdBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdIEXfTCJOQ6TW5ieH%252BuvhC6U8oeqr%252FymHvWa41U6SZ2aGqwmLYkmcVo6%252BtJnVkCKPC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNkEA8sdpya9FSNuEQ%252BrqZM7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs%252FXrF%252BRhOt%252BLG%252B%252FG2715IxnrbfrHxTmCm4J1y7GQHb2JGqpgS8zKf3zLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3pAaOqsF9hY%252ByZb5IVaCsu3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaf</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7mA</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2827,51 +2827,51 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>8.17822352E8</v>
+        <v>1.9515709958E10</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>441666036</t>
+          <t>4721035309</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>นมกล่อง เอนฟาโกร ยูเอชที สูตร3 ชนิดจืด (36 กล่อง) x2 ลัง Enfagrow UHT Stage3 Plain (36 boxes) x2 cases</t>
+          <t>MEDIHEAL TEATREE TROUBLE PAD สูตรคุมมันส่วนเกิน ลดต้นตอการเกิดสิว</t>
         </is>
       </c>
       <c r="E22" s="1" t="n">
-        <v>1428.0</v>
+        <v>1199.0</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1171.0</v>
+        <v>555.0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-18%</t>
+          <t>-54%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/8f5cefbc9c29c1fc8c781fb77069319a.jpg</t>
+          <t>https://th-live-01.slatic.net/p/7cdee8e158d468801f12610c4b9b8ea9.png</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-36-x2-enfagrow-uht-stage3-plain-36-boxes-x2-cases-i441666036-s817822352.html</t>
+          <t>https://pages.lazada.co.th/products/mediheal-teatree-trouble-pad-i4721035309-s19515709958.html</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Enfagrow</t>
+          <t>Mediheal</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1000001020</t>
+          <t>100190895552</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-36-x2-enfagrow-uht-stage3-plain-36-boxes-x2-cases-i441666036-s817822352.html?exlaz=e_A6q5mDeeFNZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Vb64ZInoN4Rl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZqfYaAbdwUpG3YCjwbyW2tbXvxAT%252FH7D6b%252BozplRGABTDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNdp1D%252B0JzK5dR8rbGTWgU1w%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/mediheal-teatree-trouble-pad-i4721035309-s19515709958.html?exlaz=e_l2i85FFNmPJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcMdZijt6Cfss7Ix7%252B%252Fx%252Fmj6U8oeqr%252FymHvWa41U6SZ2aGqwmLYkmcVZEiKqPb5bWrC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPj%252F2nwKFQwfUQSNm%252BBwMgX7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsK%252BXetyd3vQP2l7W2RzgP0XrbfrHxTmCmJXF2mpaD%252BGqJiEGkcu769DLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3SVLgHLbz1hXPvqbb8ATQr3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaU</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7Na</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2958,51 +2958,51 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.0480998142E10</v>
+        <v>1.6382800786E10</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4878414798</t>
+          <t>4168604896</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hi-Q Supergold ซินไบโอโพรเทค รสจืด ขนาด 2,750 กรัม</t>
+          <t>DoctorLine Brightening Golden C Serum  ด็อกเตอร์ไลน์ ไบร์ทเทนนิ่ง โกลเด้น ซี เซรั่ม ลดเลือนรอยฝ้า กระ จุดด่างดำ รอยสิว ผิวหน้าสว่าง ดูโกลด์</t>
         </is>
       </c>
       <c r="E23" s="1" t="n">
-        <v>1555.0</v>
+        <v>690.0</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1156.0</v>
+        <v>690.0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-26%</t>
+          <t>-0%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://sg-test-11.slatic.net/p/b66038c6d3285224c49dafbdae4cce41.jpg</t>
+          <t>https://th-live-01.slatic.net/p/1737bda2d70a35d95d7abaa0c3ac00b5.png</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/hi-q-supergold-2750-i4878414798-s20480998142.html</t>
+          <t>https://pages.lazada.co.th/products/doctorline-brightening-golden-c-serum-i4168604896-s16382800786.html</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>No Brand</t>
+          <t>DoctorLine</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>34.2%</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>100373312174</t>
+          <t>100233690519</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3032,12 +3032,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/hi-q-supergold-2750-i4878414798-s20480998142.html?exlaz=e_PvhyFDeQKbdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7dpibVUsXlWGM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZSLubkgKP%252FytLTCUmfH5TXDun%252BSGcaQoMIG7etA721C77VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpeNM4j7iZ7ayJws%252BUHwhY3Q%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/doctorline-brightening-golden-c-serum-i4168604896-s16382800786.html?exlaz=e_Gq%252BNIGqO8olsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc2n%252BJtIBX0bixWm%252F1WMfXx6U8oeqr%252FymHvWa41U6SZ2aGqwmLYkmcVPyC9bK9tYvvC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPH7zURDu8zhpSXLVK%252Bvqig7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsHCQSu2eEnPBC8RardVH7%252BnrbfrHxTmCmd4I1AGjQvHPSfEJGyFaGXDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3exAsROFU6xmdZVQuQk%252FfuHV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaT</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7NZ</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3089,51 +3089,51 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>9.614950857E9</v>
+        <v>1.6010097164E10</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2670927545</t>
+          <t>4097729888</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[ส่งฟรี] MamyPoko Pants Premium Aim Perfect Dry (Toy Box) ผ้าอ้อมเด็กแบบกางเกง มามี่โพโค แพ้นท์ พรีเมี่ยม เอม เพอร์เฟ็ค ดราย สำหรับเด็กผู้หญิง ไซส์ XL</t>
+          <t>พร้อมส่ง!! น้ำยาเคลือบแก้วกราฟีน Terra 10H+Graphene เพิ่มนวัตกรรมกราฟีน 1 ชุด</t>
         </is>
       </c>
       <c r="E24" s="1" t="n">
-        <v>1929.0</v>
+        <v>990.0</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>1400.0</v>
+        <v>539.0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-27%</t>
+          <t>-46%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/Saf584027f2b44fe895b9196941ebe920F.jpg</t>
+          <t>https://th-live-01.slatic.net/p/6fd5f96b2701479db9d45a07726504b9.png</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mamypoko-pants-premium-aim-perfect-dry-toy-box-xl-i2670927545-s9614950857.html</t>
+          <t>https://pages.lazada.co.th/products/terra-10hgraphene-1-i4097729888-s16010097164.html</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>MamyPoko</t>
+          <t>Terra</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>23.8%</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1000001012</t>
+          <t>100229667364</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3163,12 +3163,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mamypoko-pants-premium-aim-perfect-dry-toy-box-xl-i2670927545-s9614950857.html?exlaz=e_zh5rZ0u%252BycJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7df5oQqT3HxqM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ5I2%252FQ229TTBEajiywKBCdTSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKL0UKzcnH35xTnHEKB94jVw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/terra-10hgraphene-1-i4097729888-s16010097164.html?exlaz=e_Vnjc5o6ktzVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNce6p%252Bw4%252BUI%252F5fqTrHMsOTO6U8oeqr%252FymHvWa41U6SZ2cghRwQ%252BfGcPjKiIlSu15QfC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMJ65wg8ouk9cDuBxDjUxBW7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagiscllIJGI5mGhbzi1ZhkH%252BBcHduWPqOVbsdwizHc2nqnYG6zENRPYJvhaajvrgG2xKlA%252BrIqMM%252B9yP09aS8y7ovMWE9zCRSZrXS5%252F86%252FHQxt9%252FMMywsK5fiFWsQoz5B3dQ1hxZmlyQFA%253D%253D</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaS</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7N0</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3220,51 +3220,51 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>2.193100877E10</v>
+        <v>2.2042005313E10</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5173614814</t>
+          <t>5189271097</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nestle BEBE นมผง หมี 2 2500 กรัม หมดอายุ 16/07/2025</t>
+          <t>น้ำหอมแท้100% นำเข้า Polo Sport EDT 100ml. (กล่องพร้อมชีล )ราคานี้สำหรับ 10 ท่านแรกเท่านั้น!! แท้ 100%</t>
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>889.0</v>
+        <v>2990.0</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>889.0</v>
+        <v>599.0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0%</t>
+          <t>-80%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S3ef68fa61c6d4626b706202e94d2b102C.jpg</t>
+          <t>https://th-live-01.slatic.net/p/88e63257953c914af725266a2ba25058.jpg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/nestle-bebe-2-2500-16072025-i5173614814-s21931008770.html</t>
+          <t>https://pages.lazada.co.th/products/100-polo-sport-edt-100ml-10-100-i5189271097-s22042005313.html</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Nestlé</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>100196151460</t>
+          <t>100774720888</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/nestle-bebe-2-2500-16072025-i5173614814-s21931008770.html?exlaz=e_%252FoMmQskHimBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7UTCXjKHAqT%252Fl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZNpujoUK0%252FT0i3DjdqFoGzb%252Bbo3qBc%252Bw9QhilVGhiBIz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpIIA53P68XHvioyBPjolTyA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/100-polo-sport-edt-100ml-10-100-i5189271097-s22042005313.html?exlaz=e_0FpEi13vmctsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfgnXW8SgpuJZfqTrHMsOTO6U8oeqr%252FymHvWa41U6SZ2cghRwQ%252BfGcPNQ%252BQ8TENRUXC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPj%252F2nwKFQwfVFlnDh43P4J7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsAEq8G70U3I69CddMp62ykHrbfrHxTmCm9K5zbL0A4Afs04Oj3wr4yzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3HMMvNqFg6MG3FNGihGzl5nV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaR</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7Nb</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3351,51 +3351,51 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>215685.0</v>
+        <v>3.40690448E8</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>219135</t>
+          <t>223251087</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[แท้] Clevamama Baby Pillow : หมอนกันหัวแบน หมอนทารก 0-12 เดือน</t>
+          <t>PERFE แว่นกันแดดตัดแสง UV 400% + อุปกรณ์ 7 ชิ้น</t>
         </is>
       </c>
       <c r="E26" s="1" t="n">
-        <v>1290.0</v>
+        <v>990.0</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1161.0</v>
+        <v>311.35</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-10%</t>
+          <t>-69%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://th-live.slatic.net/p/3574d20fd917a80c529706555a99b4b9.jpg</t>
+          <t>https://th-live.slatic.net/p/f7d0c6d0419d48f988a2594f6e15665c.jpg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/clevamama-baby-pillow-0-12-i219135-s215685.html</t>
+          <t>https://pages.lazada.co.th/products/perfe-uv-400-7-i223251087-s340690448.html</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>clevamama</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>27.8%</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>100150684</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/clevamama-baby-pillow-0-12-i219135-s215685.html?exlaz=e_zFqKgxBuLTlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeP2c%252BGgBw%252FTHdgGepir1a16U8oeqr%252FymHvWa41U6SZ2eS%252FX35aMT5PVXPNPBZ6NgLC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9aBtTK8QNyLN7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsU1AwmkPNGLHj%252FQZ%252B5JKMNWK469F%252BU6IVDmPs1bQI71g0meJ9EXbfooDqkBYspYwylAWaHnnnTel0CFggGYdmSoZbid3Lqfsx</t>
+          <t>https://pages.lazada.co.th/products/perfe-uv-400-7-i223251087-s340690448.html?exlaz=e_OvT%252FVxVZBk9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcmqWd%252FOPHd2xOoskJvGhMeDZzd3uOh8OiHkOIqZ%252BuV7aFVd3qB4FNcjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8xF3OVQ9BxRa%252FNhO7PAT4VZ%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZrmiciqb3b9%252FzqLK7rQKA1FsdscASkfre%252Bko5vpaV2PTtGfupcRfwU2dlXDqhrzzZxwTJ97Cs2cY%252FTHjoWWXZz9%252BIPOVmouudC9W8ZYSWgnZ1dGbznhhDVA%253D%253D</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaQ</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7NY</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -3482,51 +3482,51 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>1.7018978714E10</v>
+        <v>2.271818414E10</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>718778648</t>
+          <t>5345560594</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Merries Japan Pants ผ้าอ้อมเมอร์รี่ส์ชนิดกางเกง Size XL 50 x 2แพ็ค แพมเพิส Merries ยกลัง</t>
+          <t>🎁แถมถุงแบรนเคาน์เตอร์🎁 Giorgio Armani Si Red Eau De Parfum EDP 100ML 💯ของแท้ 100 น้ำหอมผู้หญิง</t>
         </is>
       </c>
       <c r="E27" s="1" t="n">
-        <v>1538.0</v>
+        <v>3468.0</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1538.0</v>
+        <v>922.84</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-0%</t>
+          <t>-73%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/Sc990e679282c43b9861d3ff462ed450ee.jpg</t>
+          <t>https://th-live-01.slatic.net/p/01181d617b2048ac76e1bee502061646.jpg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-xl-50-x-2-merries-i718778648-s17018978714.html</t>
+          <t>https://pages.lazada.co.th/products/giorgio-armani-si-red-eau-de-parfum-edp-100ml-100-i5345560594-s22718184140.html</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Merries</t>
+          <t>Giorgio Armani</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>100201185672</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3556,12 +3556,12 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-xl-50-x-2-merries-i718778648-s17018978714.html?exlaz=e_poHQej3MkF9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7ZYy5uj1usiTvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZu12GGPNjeKEspoq%252FhM9SbS%252BrMWhx2bM2ab0kUCnTYmdaANM%252BMLvs2nyXb%252BVCI0U6apvwW63pOXTm42JXw2YvyGuyq0Uyv5RLbWKLR%252FBsOaM%253D</t>
+          <t>https://pages.lazada.co.th/products/giorgio-armani-si-red-eau-de-parfum-edp-100ml-100-i5345560594-s22718184140.html?exlaz=e_MIiHZ6T9UOhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeuxX1cNQwbsERmhjPdPbWN6U8oeqr%252FymHvWa41U6SZ2cghRwQ%252BfGcPXlWbDNtQdOrC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNydRiblFVGzFDE0kBFlmMm7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs%252FfcymXKr4R699nx4DklgsXrbfrHxTmCmazTE1LRwvED8XitX5ABasDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3eVEefsUVHCG3bRu32vO2HnV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaP</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7N1</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -3613,51 +3613,51 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>9.3102276E8</v>
+        <v>7.107766545E9</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>522364141</t>
+          <t>2116958969</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>นมกล่อง เอนฟาโกร ยูเอชที สูตร4 ชนิดจืด (36 กล่อง) x2 ลัง Enfagrow UHT Stage4 Plain (36 boxes) x2 cases</t>
+          <t>Naturista Tea Tree Special Set เซ็ททีทรีสเปเชียลสุดคุ้ม ซื้อเป็นเซตถูกกว่า!</t>
         </is>
       </c>
       <c r="E28" s="1" t="n">
-        <v>1428.0</v>
+        <v>1700.0</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1233.0</v>
+        <v>399.0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-14%</t>
+          <t>-77%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://sg-live-01.slatic.net/p/35daf5c350103f72929fcc46a4f87418.jpg</t>
+          <t>https://th-live-01.slatic.net/p/b24a0a9629c8693abe67e3a668c47065.jpg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/4-36-x2-enfagrow-uht-stage4-plain-36-boxes-x2-cases-i522364141-s931022760.html</t>
+          <t>https://pages.lazada.co.th/products/naturista-tea-tree-special-set-i2116958969-s7107766545.html</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Enfagrow</t>
+          <t>Naturista</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>26.2%</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1000001020</t>
+          <t>100181481667</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3687,12 +3687,12 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/4-36-x2-enfagrow-uht-stage4-plain-36-boxes-x2-cases-i522364141-s931022760.html?exlaz=e_Bq6Bftve7TRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XbtxqE4X%252FdKl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZWkys5%252FoBwCSblByqyqXQQrXvxAT%252FH7D6b%252BozplRGABTDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNdjbP%252FD0etQeEBEobxSO9Jg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/naturista-tea-tree-special-set-i2116958969-s7107766545.html?exlaz=e_%252FwLnWVyQhRFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcf4hvldqmuxQnPRst%252BgfiUDZzd3uOh8OiHkOIqZ%252BuV7Wpa5sX%252Fe265jcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8yVGB5NrYWuWqtKJpPBXLhq%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZmIJVuXchbBRlkX5qvrakO7%252Bbo3qBc%252Bw9tahd7c2fTdH7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJp1C3d4UXVlZvqC0o4AlWudA%253D%253D</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALal</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7Nc</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3744,51 +3744,51 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>5.445604673E9</v>
+        <v>1.951684977E10</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1817098347</t>
+          <t>4725321680</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมี พรีไบโอพลัส ดีเอชเอ สูตร 3 ผสมน้ำผึ้งแท้ ไม่เติมน้ำตาลทราย 180 มล. (2 ลัง : 72 กล่อง)</t>
+          <t>หนังสือฝึกแต่งประโยค ภาษาอังกฤษเบื้องต้น สำหรับคนไม่มีพื้นฐาน รู้ศัพท์น้อย และต้องการเริ่มฝึกแต่งประโยค</t>
         </is>
       </c>
       <c r="E29" s="1" t="n">
-        <v>968.0</v>
+        <v>690.0</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>809.0</v>
+        <v>409.0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-16%</t>
+          <t>-41%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/0359dddc9a19bbbb8667602cb9441e38.jpg</t>
+          <t>https://sg-test-11.slatic.net/p/338b87291e95d5637eeaa20f550f8410.jpg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i1817098347-s5445604673.html</t>
+          <t>https://pages.lazada.co.th/products/-i4725321680-s19516849770.html</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Bear Brand</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>23.3%</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1000001033</t>
+          <t>100426736399</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3818,12 +3818,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i1817098347-s5445604673.html?exlaz=e_LmdB5n7V0bdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cgMrvz1UiRA%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZRzCglqQ3zf9KeYdJW41HITSMl31BMDZuTaYknftDWZ4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKM8uz4R3biWiNlISWQOOrLg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/-i4725321680-s19516849770.html?exlaz=e_U7%252Fcb%252BgFG4hsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNe03SS1eBOBpsnS2zUxRbga6U8oeqr%252FymHvWa41U6SZ2ePCbkbmRLYBefY2C5xr0SPC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUcTfNhThV07cvSb%252Bg9IWd7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsnqmZFgQKkXxHPgw94TO%252FSHrbfrHxTmCmtefrIF4pXWEe1AgEabyY3jLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3SVLgHLbz1hXFALJ0WAljFHV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaO</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7NX</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3875,51 +3875,51 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>6.695416326E9</v>
+        <v>2.2687871057E10</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2053358633</t>
+          <t>5337984273</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[ยกลัง] Huggies Gold Soft&amp;Slim Pants [S-XXL] แพมเพิสเด็ก ผ้าอ้อมเด็กพรีเมียม ฮักกี้ส์ โกลด์ ซอฟท์แอนด์สลิม แบบกางเกง ไซส์ S-XXL 4 แพ็ค</t>
+          <t>หนังสือ Grammar Level Up คัมภีร์แกรมมาร์ฉบับสมบูรณ์ โดย ครูพี่แอน พร้อมคลิปสอน มีตัวอย่างข้อสอบและเฉลยกว่า 500 ข้อ</t>
         </is>
       </c>
       <c r="E30" s="1" t="n">
-        <v>2396.0</v>
+        <v>1190.0</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1387.0</v>
+        <v>423.0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-42%</t>
+          <t>-64%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/bb564737c1a1db77f2bfa15eaad04f96.jpg</t>
+          <t>https://th-live-01.slatic.net/p/97b952d19ebd50846b7601df17be5e83.jpg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/huggies-gold-softslim-pants-s-xxl-s-xxl-4-i2053358633-s6695416326.html</t>
+          <t>https://pages.lazada.co.th/products/grammar-level-up-500-i5337984273-s22687871057.html</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>23.3%</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>100188627926</t>
+          <t>100478208123</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/huggies-gold-softslim-pants-s-xxl-s-xxl-4-i2053358633-s6695416326.html?exlaz=e_FMFslSYxUuJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7aJsli1Mpnx%252FkB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZS7ZiCyFCt%252F6LeUobm3oNO7%252Bbo3qBc%252Bw9wPBbSVAGxBP7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpYXA3bS4mXlXgSJuUDTMeEg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/grammar-level-up-500-i5337984273-s22687871057.html?exlaz=e_bcFb5peKAUlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfNcLFjvx7sRt7mbCFD038j6U8oeqr%252FymHvWa41U6SZ2ePCbkbmRLYBuX%252F5cuolSgXC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNydRiblFVGzA%252B0z3sJgNXf7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsEk8F8vkxeu0pO2K6ydMJMXrbfrHxTmCmCsgpVXJyf1JSmid39d4J6TLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3cIZJFRxM0bRJYxxEYJn9KHV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALam</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7N2</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -4006,51 +4006,51 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.921558377E10</v>
+        <v>2.0446453118E10</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4668352369</t>
+          <t>4875427639</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ขายยกลัง! เบบี้เลิฟ เดย์ไนท์แพ้นส์ กางเกงผ้าอ้อมสำเร็จรูป ขนาดเมก้า ไซส์ XXXL 3 แพ็ค 78+6 ชิ้น (แพ็คละ 26+2 ชิ้น)</t>
+          <t>Pure Zen Ultra-soft adjustable cooling pillow comfortably supports and aligns your neck - proprietary gel-infused cooling memory foam promotes cool, cloud-like sleep</t>
         </is>
       </c>
       <c r="E31" s="1" t="n">
-        <v>1347.0</v>
+        <v>1990.0</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1035.0</v>
+        <v>499.0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-23%</t>
+          <t>-75%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/9b16222ad016046d90be1bb353811899.png</t>
+          <t>https://th-live-01.slatic.net/p/babf9f31beed4046c11e14e78521bfcf.jpg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/xxxl-3-786-262-i4668352369-s19215583770.html</t>
+          <t>https://pages.lazada.co.th/products/pure-zen-gel-infused-i4875427639-s20446453118.html</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>BabyLove</t>
+          <t>Pure Zen</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>23.3%</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1000001002</t>
+          <t>100501568864</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4080,12 +4080,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/xxxl-3-786-262-i4668352369-s19215583770.html?exlaz=e_hQF7bF9KIKNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7QDMv8piePa7kB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZNWsJuvqQle5lkX5qvrakOzSMl31BMDZulAZ19yY3Ys4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK22RsSgfM2rlAIl1jwxzkzA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/pure-zen-gel-infused-i4875427639-s20446453118.html?exlaz=e_0NJKLg5qbmRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdXJrHTh1kSn2ej5wrYl6Nl6U8oeqr%252FymHvWa41U6SZ2ePCbkbmRLYBegxi%252FvSfqxvC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9ghvvuV7TJyU7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsAiYDHzVhgCfuNauTcegCnHrbfrHxTmCmVdUjaThvYrTwUc9f68eilTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3stkKFI%252Fie7XL7rKtRtPAj3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALao</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7NW</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -4137,51 +4137,51 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.193135881E10</v>
+        <v>2.0898154561E10</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5173811362</t>
+          <t>4965232712</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>S-26 Gold Pro-C นมผง เอส-26 โกลด์ โปร ซี สูตร 2 2750 กรัม หมดอายุ 29/01/2026</t>
+          <t>THANIKA – Hemp Seed Face Oil ออยล์ฟื้นฟูผิวหน้าให้อ่อนเยาว์ ชุ่มชื้น</t>
         </is>
       </c>
       <c r="E32" s="1" t="n">
-        <v>2519.0</v>
+        <v>930.0</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>2519.0</v>
+        <v>510.0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0%</t>
+          <t>-45%</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/Sfec28d1566c34cc38ce281506ba6becfB.jpg</t>
+          <t>https://th-live-01.slatic.net/p/9a8e295c9954057e476974983f75e511.jpg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/s-26-gold-pro-c-26-2-2750-29012026-i5173811362-s21931358810.html</t>
+          <t>https://pages.lazada.co.th/products/thanika-hemp-seed-face-oil-i4965232712-s20898154561.html</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>S-26</t>
+          <t>THANIKA</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>28.2%</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>100196151460</t>
+          <t>100314720018</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -4211,12 +4211,12 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/s-26-gold-pro-c-26-2-2750-29012026-i5173811362-s21931358810.html?exlaz=e_byhqSvdblpRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XQeNcYFUOKtl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZJjzx5SLTU5LC%252FimwfosiKL%252Bbo3qBc%252Bw9QhilVGhiBIz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpIIA53P68XHtAybfLqF92kA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/thanika-hemp-seed-face-oil-i4965232712-s20898154561.html?exlaz=e_g3XVGl0%252FulxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeHzhOTQh%252F8s7JfJOxfKN9Q6U8oeqr%252FymHvWa41U6SZ2dFkavddbevTpgwoID6onTfC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9ggAjd346J1r7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsHAfOc6d7gJSJjD6QHenOXnrbfrHxTmCmJZ4dO0d4fl%252FVe2%252Fnp2H2hzLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3fCwUc%252BBUE2Wcr8dyiPT5MXV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALap</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7N3</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -4268,51 +4268,51 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>9.628356087E9</v>
+        <v>1.1505744116E10</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2673939848</t>
+          <t>2753964486</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>เบบี้มายด์ 2in1 น้ำยาซักผ้าเด็กและปรับผ้านุ่ม ไวท์ ซากุระ 2,400 มล. x4 / Babi Mild Fabric Wash 2in1 White Sakura 2,400ml. X4</t>
+          <t>Sleep dee สเปรย์หอมกล่อมนอน สเปรย์ฉีดหมอน  สเปรย์นอนหลับ หลับสนิท ผ่อนคลาย pillow spray 30ml</t>
         </is>
       </c>
       <c r="E33" s="1" t="n">
-        <v>860.0</v>
+        <v>790.0</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>774.0</v>
+        <v>349.0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-10%</t>
+          <t>-56%</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S90cf455f0b994ac8bc45920dfb7749090.jpg</t>
+          <t>https://th-live-01.slatic.net/p/be70721003f3e02b3b415938629fbd08.png</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/2in1-2400-x4-babi-mild-fabric-wash-2in1-white-sakura-2400ml-x4-i2673939848-s9628356087.html</t>
+          <t>https://pages.lazada.co.th/products/sleep-dee-pillow-spray-30ml-i2753964486-s11505744116.html</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Babi Mild</t>
+          <t>WANDO</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>100107263</t>
+          <t>100195476065</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -4342,12 +4342,12 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/2in1-2400-x4-babi-mild-fabric-wash-2in1-white-sakura-2400ml-x4-i2673939848-s9628356087.html?exlaz=e_fPV3lYTxRntsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdzl%252BvD5IasyU5BI0h76j%252B6DZzd3uOh8OiHkOIqZ%252BuV7T6DmBv%252B0Z3DjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ8rnr8DIOyDM%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZHx58kZmfiXIltocuCuwvGb%252Bbo3qBc%252Bw9%252F4KNmYpXjm7DNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNXzH04Sq4mOJwlstM6L0gLw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/sleep-dee-pillow-spray-30ml-i2753964486-s11505744116.html?exlaz=e_LwR9AiUdR0VsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdZEHJBoyRItURmhjPdPbWN6U8oeqr%252FymHvWa41U6SZ2dFkavddbevTb0wvhDbqph7C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPH7zURDu8zhvG6hS%252FA0mfR7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsWXlp1EQf4%252FDMMTmvEsXFKnrbfrHxTmCmS%252FkT3%252B%252FFKBpGqpgS8zKf3zLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC37LhT6lNG9w4ro7Os2BILL3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaJ</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7Ne</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -4399,51 +4399,51 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>2.1049033984E10</v>
+        <v>1.0134716016E10</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4989754840</t>
+          <t>2784855711</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>นมแพะ ดีจี3 แอดวานซ์ โกลด์ ขนาด 800 กรัม  x 3 กระป๋อง สำหรับเด็ก 1 ปีขึ้นไป และทุกคนในครอบครัว / DG3 ADVANCE GOLD GOAT MILK BEVERAGE (12M+) 800G. (HMN) x 3 Tins</t>
+          <t>แอดโพรสท์ ADD PROST-ของแท้- แอ๊ดเทวดา (เซท1กระปุก) อาหารเสริมดูแลอาการฉี่ที่ไม่ปกติ  อาการฉี่บ่อย ฉี่ขัด ฉี่เล็ด ต่อมลูกหมากโต</t>
         </is>
       </c>
       <c r="E34" s="1" t="n">
-        <v>3939.0</v>
+        <v>1200.0</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>3425.0</v>
+        <v>603.0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-13%</t>
+          <t>-50%</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/e4c98c785919a2e80923fe23717e21d4.png</t>
+          <t>https://th-live.slatic.net/p/80bfacfd4f7cc64269ffcf4a0325f8b4.jpg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-800-x-3-1-dg3-advance-gold-goat-milk-beverage-12m-800g-hmn-x-3-tins-i4989754840-s21049033984.html</t>
+          <t>https://pages.lazada.co.th/products/add-prost-1-i2784855711-s10134716016.html</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>ADD PROST</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>12.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1000141915</t>
+          <t>100193634513</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-800-x-3-1-dg3-advance-gold-goat-milk-beverage-12m-800g-hmn-x-3-tins-i4989754840-s21049033984.html?exlaz=e_7q9YDeqcvx1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdU%252BfSU7dT3gBmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cFJ%252BmzzvKrk95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8xPn5rNNgiqLrhjvIyLfXRL%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ1uBxya5BMGVGqw%252BvgUJ0TDSMl31BMDZuFGjeFXziRykOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKnvcXFZMQEAKmEoK2WbRhjA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/add-prost-1-i2784855711-s10134716016.html?exlaz=e_L3LVQMA%252B4BBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdABEiSJIGA5yIniQKN8QPWDZzd3uOh8OiHkOIqZ%252BuV7dQTl5WTDbXmM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8xnwCtFW94svQKmDkpj%252FpFu%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ8OTXhQ2MfhlcN0dY9L7RcL%252Bbo3qBc%252Bw9RkT%252F6%252Fsh2Gr7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpZuN1ok9yw%252FV7OsYZr4KdAA%253D%253D</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALar</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7NV</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -4530,51 +4530,51 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>2.0945367706E10</v>
+        <v>1.3161329086E10</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4973632997</t>
+          <t>2517289739</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>【1 กล่อง】เพิ่มความสูงให้ลูกน้อยอย่างปลอดภัย Cal-D-KII 6+ (วิตามินรูปแบบเจลลี่ รสโยเกิร์ต)</t>
+          <t>บาลานซ์ ยูคอร์ Balance UCore ส่งตรงจากบริษัทของแท้ 100% ผลิตภัณฑ์เสริมอาหาร BLU</t>
         </is>
       </c>
       <c r="E35" s="1" t="n">
-        <v>1450.0</v>
+        <v>3870.0</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>1190.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-18%</t>
+          <t>-53%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/795b781cae8e1b8f8ead19d39da42021.jpg</t>
+          <t>https://th-live-01.slatic.net/p/461952b6c6df7689a3015e0b212c5dbf.jpg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/1-cal-d-kii-6-i4973632997-s20945367706.html</t>
+          <t>https://pages.lazada.co.th/products/balance-ucore-100-blu-i2517289739-s13161329086.html</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Promom(โปรมัม)</t>
+          <t>BLB</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>100564496054</t>
+          <t>100191033329</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -4604,12 +4604,12 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/1-cal-d-kii-6-i4973632997-s20945367706.html?exlaz=e_8jl42eDvQXxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdN3DPFMS9r434oaHpmDHu46U8oeqr%252FymHvWa41U6SZ2a%252BrFbEu%252B7A9X0adg1yVL9fC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOs9SeI8JcngAlgtmhJ2MP17lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsryl%252FUdiGaEZGXNfncg8ibXrbfrHxTmCmcwnKNg0EeA6b76OMdkVj3zLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3XsufeeSj8UuGwr8pOBeq3HV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/balance-ucore-100-blu-i2517289739-s13161329086.html?exlaz=e_1Sny6TA0qh1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfXSYYPp2s0gwGoVeQ5yqQlDZzd3uOh8OiHkOIqZ%252BuV7ffLAeUKMp2zjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8x0sFPYa0phfqt0Zy0KEDsG%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH0GKWIqjqlboEhr6kjgMVA4CIIRt8IzKfcDlozS%252FUcLa4CoETvxjZGhpvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FI5W0wctOdIfmn%252FVOmRQfLDw%253D%253D</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALas</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7N4</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -4661,51 +4661,51 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.1047062711E10</v>
+        <v>1.9515923857E10</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3008190740</t>
+          <t>4718531555</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ENFANT (อองฟองต์) Organic Start In Life Set เซ็ตสุดคุ้ม สำหรับเด็กแรกเกิด เอาใจคุณแม่แรกคลอดกับไอเท็ม 6 ชิ้น</t>
+          <t>MEDIHEAL WATERMIDE TONER PAD สูตรเข้มข้นเติมความชุ่มชื้นให้ผิวอย่างล้ำลึก</t>
         </is>
       </c>
       <c r="E36" s="1" t="n">
-        <v>1390.0</v>
+        <v>1199.0</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>950.0</v>
+        <v>555.0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-32%</t>
+          <t>-54%</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://th-live.slatic.net/p/c484709e271453a61fb19489a6d47293.jpg</t>
+          <t>https://th-live-01.slatic.net/p/a7ee717893db63ec31415492a5c02dba.png</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/enfant-organic-start-in-life-set-6-i3008190740-s11047062711.html</t>
+          <t>https://pages.lazada.co.th/products/mediheal-watermide-moisture-pad-i4718531555-s19515923857.html</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>ENFANT</t>
+          <t>Mediheal</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>100000904</t>
+          <t>100190895552</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4735,12 +4735,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/enfant-organic-start-in-life-set-6-i3008190740-s11047062711.html?exlaz=e_tKMNc8MvhPZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfDPtF1rKQVKnwe3HrpSd9A6U8oeqr%252FymHvWa41U6SZ2a%252BrFbEu%252B7A9J815S6r%252BBjjC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOAFiRSRZZYILFpfpwygBu77lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagiscllIJGI5mGhbzi1ZhkH%252BfzosZrpcCmgJs6ZRbcVv%252FnYG6zENRPYJl5LGDUBvcH8OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKTqBAJ2w%252FLHjkG7Xqa4%252FSxQ%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/mediheal-watermide-moisture-pad-i4718531555-s19515923857.html?exlaz=e_JONbxSQBJFpsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNenR%252FgMz7x4ENdoQtz0CbMX6U8oeqr%252FymHvWa41U6SZ2aHXzlLsJSCXXaz%252B%252B%252FQWbsrC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPj%252F2nwKFQwfWwtAiVucEX27lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsFIvC7lAPM79NSoqNJEIqI3rbfrHxTmCmJXF2mpaD%252BGqJiEGkcu769DLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3SVLgHLbz1hWTHN58XWbi3nV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaH</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7Nf</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -4792,51 +4792,51 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1.2435988495E10</v>
+        <v>1.9515922617E10</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3351797585</t>
+          <t>4718585418</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>💥 ส่งไว 💥 Certainty Tape ผ้าอ้อมเซอร์เทนตี้ แบบเทป ผ้าอ้อมผู้ใหญ่แบบเทป  ผ้าอ้อมผู้ป่วย ผ้าอ้อมผู้ป่วยติดเตียง ไซส์ L 24 ชิ้น X 4 แพ็ค (ยกลัง)</t>
+          <t>MEDIHEAL MADECASSOSIDE BLEMISH PAD สูตรเคลียร์รอยสิว ลดผิวอักเสบ</t>
         </is>
       </c>
       <c r="E37" s="1" t="n">
-        <v>1990.0</v>
+        <v>1199.0</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1558.0</v>
+        <v>555.0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-22%</t>
+          <t>-54%</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://sg-live-01.slatic.net/p/a54bade49c3be435a5212591a1b66be3.jpg</t>
+          <t>https://th-live-01.slatic.net/p/e76fb5603340b9c14db7a079722078c0.png</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/certainty-tape-l-24-x-4-i3351797585-s12435988495.html</t>
+          <t>https://pages.lazada.co.th/products/mediheal-madecassoside-blemish-pad-i4718585418-s19515922617.html</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Certainty</t>
+          <t>Mediheal</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>100200930887</t>
+          <t>100190895552</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/certainty-tape-l-24-x-4-i3351797585-s12435988495.html?exlaz=e_jdM318l%252Bi0JsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7ao%252F%252FuwHL59pq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZx2bCe2rbQO78ZfJeQXJeVZ14eY4SxhuR6lr1alDxmdr7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpi9J06ZTNBu0dbC8xdc0oTw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/mediheal-madecassoside-blemish-pad-i4718585418-s19515922617.html?exlaz=e_tBxY7Fb%252BdQJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNd0tNkOQgYpXuKsUPKUFGrm6U8oeqr%252FymHvWa41U6SZ2aHXzlLsJSCXjaXe0qyqGNDC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrPj%252F2nwKFQwfXFCs1%252FRKF%252FG7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsg86gIsQX5OdhN4ZgKsIBSHrbfrHxTmCmJXF2mpaD%252BGqJiEGkcu769DLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3SVLgHLbz1hW50N6Z86f27nV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaG</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7NU</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -4923,51 +4923,51 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.2383738206E10</v>
+        <v>2.1455482796E10</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5265334012</t>
+          <t>5085191821</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>นมผง x2 กล่อง ดูเม็กซ์สูตร3 ดูโกร ซอย นมถั่วเหลืองผง กลิ่นวานิลลา 1600 กรัม นมผง Dumex Dugro Plain นมดูโกรสูตร3</t>
+          <t>BALINCER DHA brain supplement enhances brain development and mental focus, boosts memory, mood and cognition</t>
         </is>
       </c>
       <c r="E38" s="1" t="n">
-        <v>1850.0</v>
+        <v>339.46</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>1628.0</v>
+        <v>142.15</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-12%</t>
+          <t>-58%</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/bbc032d4815b984654827b0e2aee2541.jpg</t>
+          <t>https://th-live-01.slatic.net/p/3e9bf528049a14e1e831e308f77e1355.jpg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-3-1600-dumex-dugro-plain-3-i5265334012-s22383738206.html</t>
+          <t>https://pages.lazada.co.th/products/balincer-dha-i5085191821-s21455482796.html</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Dumex</t>
+          <t>Balincer</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1000001029</t>
+          <t>100621664926</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4997,12 +4997,12 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x2-3-1600-dumex-dugro-plain-3-i5265334012-s22383738206.html?exlaz=e_nM0Fwt2B%252FNFsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fuxwpEPOT%252FaM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZQKcACi3JiovTHWh4YX5jdTSMl31BMDZup8Mh7rCX0U4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKbQ5212gJoqf%252F%252BT%252BWTTDkaw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/balincer-dha-i5085191821-s21455482796.html?exlaz=e_I3Q%252FHCuqQMtsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcVVNvElDZ1Rv26DzSt0JQK6U8oeqr%252FymHvWa41U6SZ2aHXzlLsJSCX4FsbkzO3l%252BfC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOs9SeI8JcngLkOosFS25Rw7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagiscllIJGI5mGhbzi1ZhkH%252Bi0yWexACScI9y01h5SZvb3YG6zENRPYJuUj8QfsQ46A7om5Rpv4cV9yP09aS8y7ovMWE9zCRSZrXS5%252F86%252FHQxt9%252FMMywsK5f07ZNVzoaq2H%252BfuEj85ZpxA%253D%253D</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALau</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7N5</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -5054,51 +5054,51 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.1783056795E10</v>
+        <v>1.7241022606E10</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5153617089</t>
+          <t>4327401161</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Molfix โมลฟิกซ์ เอ็กซ์ตร้า ดราย แพ้นส์ 3XL 28 ชิ้น SJ (ยกลัง)</t>
+          <t>ใหม่! เซรั่มดูแลปัญหาสิว แอคเน่ โปร The Skin Collection Acne Pro Serum</t>
         </is>
       </c>
       <c r="E39" s="1" t="n">
-        <v>1287.0</v>
+        <v>650.0</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>789.0</v>
+        <v>359.0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-39%</t>
+          <t>-45%</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/7221650fda75e46293ba0d9545e0dd5a.jpg</t>
+          <t>https://th-live.slatic.net/p/7f9a31c58008fa37300c0b7572cb3931.jpg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/molfix-3xl-28-sj-i5153617089-s21783056795.html</t>
+          <t>https://pages.lazada.co.th/products/the-skin-collection-acne-pro-serum-i4327401161-s17241022606.html</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Molfix</t>
+          <t>The skin collection</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>100200927053</t>
+          <t>100190928612</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/molfix-3xl-28-sj-i5153617089-s21783056795.html?exlaz=e_Rrp3If5tzX1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdkjFCX%252F%252FLpZ%252BYGauRBkp%252BM6U8oeqr%252FymHvWa41U6SZ2UJe2gq3ZckpBZEMTcFcybvC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9c4VC74TE3wL7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsVH2OXHSBw%252BsXgSMvug%252FTjXrbfrHxTmCmYAmF2TyPBZ%252BRptzIAJtG%252FjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3wRQ8WNA3Xh8m5nuhwhxdSXV0ZvOeGENU</t>
+          <t>https://pages.lazada.co.th/products/the-skin-collection-acne-pro-serum-i4327401161-s17241022606.html?exlaz=e_kt%252FRyNGBJStsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeuo4brKU219xOoskJvGhMeDZzd3uOh8OiHkOIqZ%252BuV7SWNmUgA67%252FfjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8yCWktsu77nPXFf%252BmK7MpLg%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZjTVPBeuLc2gDQWGXiRsiO7%252Bbo3qBc%252Bw9v3UMV4lAaz37VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJp%252FvZ8BE16t6IF%252BHf%252Bptkv2A%253D%253D</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaF</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7Ng</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -5185,51 +5185,51 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>9.628268934E9</v>
+        <v>5.10700633E8</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2674069054</t>
+          <t>297954978</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>เบบี้มายด์ น้ำยาซักผ้าเด็ก เบบี้ ทัช 2,400 มล. x4 / Babi Mild Fabric Wash Baby Touch 2,400 ml. x4</t>
+          <t>Dog Days (12 kg) อาหารสุนัข super premium รสเนื้อแกะ บำรุงขน แก้ขนร่วง โซเดียมต่ำ</t>
         </is>
       </c>
       <c r="E40" s="1" t="n">
-        <v>796.0</v>
+        <v>1590.0</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>716.0</v>
+        <v>1450.0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-10%</t>
+          <t>-9%</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S28a812c6f8014a919313f2b5c791b728J.jpg</t>
+          <t>https://th-live.slatic.net/p/ad6196a1d2227241a87b151fc55911cc.png</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/2400-x4-babi-mild-fabric-wash-baby-touch-2400-ml-x4-i2674069054-s9628268934.html</t>
+          <t>https://pages.lazada.co.th/products/dog-days-12-kg-super-premium-i297954978-s510700633.html</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Babi Mild</t>
+          <t>Dog Days</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>22.8%</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>100107263</t>
+          <t>100005391</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -5259,12 +5259,12 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/2400-x4-babi-mild-fabric-wash-baby-touch-2400-ml-x4-i2674069054-s9628268934.html?exlaz=e_%252FeL1QP2legZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdzl%252BvD5IasyU5BI0h76j%252B6DZzd3uOh8OiHkOIqZ%252BuV7b33vQrGC78Iq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ8rnr8DIOyDM%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH0GKWIqjqlbo0JYjAYd35n2InLMHbn%252FtwSLlYjhYeFku2AxcB5B3iMbtGfupcRfwU2dlXDqhrzzZxwTJ97Cs2cY%252FTHjoWWXZzz9fOX55ftF5P%252FRDJp%252FM%252FU2IS%252FeMOlB5ew%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/dog-days-12-kg-super-premium-i297954978-s510700633.html?exlaz=e_xNEKXER4%252F2tsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfY09EfU9RS1SG6o5V1u%252BPP6U8oeqr%252FymHvWa41U6SZ2XMroWAlB2uYXaz%252B%252B%252FQWbsrC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNav5NW6AtGviANiCna%252Bxj%252F7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjstn%252BDyGC9wAEKez3P58MAu3YG6zENRPYJC1sbx1kS84cOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKdRiXPe59kFU4zfAopz5CBw%253D%253D</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaE</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7NT</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -5316,51 +5316,51 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>6.466558891E9</v>
+        <v>1.9818847121E10</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2009120121</t>
+          <t>4796920922</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[ส่งฟรี มีทุกไซส์] ขายยกลัง !! Mamypoko Pants Organic  กางเกงผ้าอ้อม มามี่โพโค แพ้นท์ ออร์แกนิค ไซส์ S-XXL แพ็ค 3</t>
+          <t>Merry Plant Protein โปรตีนพืช 5 ชนิด : รส Thai Tea Flavor 1 กระปุก 2.3lb. / 1,050g. [ 20 Servings ]</t>
         </is>
       </c>
       <c r="E41" s="1" t="n">
-        <v>2007.0</v>
+        <v>1500.0</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1500.0</v>
+        <v>999.0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-25%</t>
+          <t>-33%</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/Sbd4e99648d604ff99637e36d4afa4865e.jpg</t>
+          <t>https://th-live.slatic.net/p/6484ef223902d2fdf0b143d7b9dd2561.jpg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mamypoko-pants-organic-s-xxl-3-i2009120121-s6466558891.html</t>
+          <t>https://pages.lazada.co.th/products/merry-plant-protein-5-thai-tea-flavor-1-23lb-1050g-20-servings-i4796920922-s19818847121.html</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>MamyPoko</t>
+          <t>MERRY NUTRITION</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1000001012</t>
+          <t>100200891632</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -5390,12 +5390,12 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/mamypoko-pants-organic-s-xxl-3-i2009120121-s6466558891.html?exlaz=e_1zA0qJZ4jFRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7TJTRJ%252BIWX0M%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZMLgticrKSZgJiCiLLRmsZTSMl31BMDZu3PUCDaeT4RsOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKVKuI7LZ%252FcuBzijYuv08OLw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/merry-plant-protein-5-thai-tea-flavor-1-23lb-1050g-20-servings-i4796920922-s19818847121.html?exlaz=e_0kNyEfASDfdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfeqc87j0gR%252F3WrONiggshA6U8oeqr%252FymHvWa41U6SZ2XMroWAlB2uYjaXe0qyqGNDC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOoKDQHreaWanC04IhbRn667lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjst7OOXIJhvdxGuD7%252BxQ5aKHrbfrHxTmCm7nbsKT1jPQRY%252BnqC2psEjTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC35VnAJ7%252FakcSHbK3HRMBSPXV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALax</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7N6</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -5447,51 +5447,51 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.029288172E9</v>
+        <v>1.0518625649E10</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>958280372</t>
+          <t>2882437105</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[Case]D-nee Baby Liquid Detergent Organic Honey Star 2800 ML. Pink[4Gallons/Case]</t>
+          <t>ชุดเซรั่ม 4 สูตร แก้ปัญหาผิวได้อย่างตรงจุด ตอบโจทย์ทุกปัญหาผิว The Skin Collection Serum Special Set ซื้อเป็นเซตถูกกว่า!</t>
         </is>
       </c>
       <c r="E42" s="1" t="n">
-        <v>1236.0</v>
+        <v>2500.0</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>999.0</v>
+        <v>599.0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-19%</t>
+          <t>-76%</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S58018ae4cda34093a74e9e707253b2f7Y.jpg</t>
+          <t>https://th-live.slatic.net/p/6b840ac336714f7316c41461384d9ece.png</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/d-nee-honey-star-2800-x4-i958280372-s2029288172.html</t>
+          <t>https://pages.lazada.co.th/products/4-the-skin-collection-serum-special-set-i2882437105-s10518625649.html</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>D-nee</t>
+          <t>The skin collection</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>100180053374</t>
+          <t>100190928612</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -5521,12 +5521,12 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/d-nee-honey-star-2800-x4-i958280372-s2029288172.html?exlaz=e_xUbKy8aYZaVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcxCrze6G6DThOoskJvGhMeDZzd3uOh8OiHkOIqZ%252BuV7QjwxXsVGe3VvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zTRMqRDsMRQmHs31nKCaFK%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZGl9vmHh%252BcfjnBBDYyVZ9x12Ier%252F%252BtlCpQ%252FPn1Cq6P0tpvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FIYPSVh1KL1J%252BIZhXTHFYRpg%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/4-the-skin-collection-serum-special-set-i2882437105-s10518625649.html?exlaz=e_OmL6cMCSBBRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeuo4brKU219xOoskJvGhMeDZzd3uOh8OiHkOIqZ%252BuV7fkM7F0Et7Kx95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8yCWktsu77nPXFf%252BmK7MpLg%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZoW0rGgabSGeE0Wt1LeJjYb%252Bbo3qBc%252Bw9v3UMV4lAaz37VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpLYEdEhYg23sVOkkWUVMzoA%253D%253D</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALaz</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7Nh</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -5578,51 +5578,51 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.5295671074E10</v>
+        <v>2.1398464484E10</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3958695973</t>
+          <t>5065557204</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ไฮคิว พรีไบโอโพรเทก 2750 กรัม สูตร 3 Hi-Q1 Plus Prebio ProteQ สูตร 3 Hiq</t>
+          <t>บีลีฟกลูต้าพลัส ( กลูต้าพิมประภา ) Beleaf Gluta Plus บำรุงผิวขาว เนียน ใส [ ซื้อ 4 ฟรี 4 ] จัดส่งฟรี</t>
         </is>
       </c>
       <c r="E43" s="1" t="n">
-        <v>859.0</v>
+        <v>4720.0</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>859.0</v>
+        <v>989.0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-0%</t>
+          <t>-79%</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://th-live.slatic.net/p/42c4d818945df0d304521b913e98ac52.jpg</t>
+          <t>https://th-live-01.slatic.net/p/b7278a241e9d7ce53fd0592b93d3d46f.jpg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/2750-3-hi-q1-plus-prebio-proteq-3-hiq-i3958695973-s15295671074.html</t>
+          <t>https://pages.lazada.co.th/products/beleaf-gluta-plus-4-4-i5065557204-s21398464484.html</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>No Brand</t>
+          <t>Beleaf Natural (บีลีฟ เนเชอรัล)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>25.2%</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>100195440468</t>
+          <t>24063</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -5652,12 +5652,12 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/2750-3-hi-q1-plus-prebio-proteq-3-hiq-i3958695973-s15295671074.html?exlaz=e_QH0Xo%252BUVZM5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fVmzNO6weHukB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZBbYBZt11b6ZkHw40ugGWIb%252Bbo3qBc%252Bw99yQll%252FSYW137VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpQ%252BWWhCDgiOu7xA0ReIo3bw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/beleaf-gluta-plus-4-4-i5065557204-s21398464484.html?exlaz=e_pcN5aVObaA9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNeSt%252FFdmv4AMzdZgQYYh7jI6U8oeqr%252FymHvWa41U6SZ2XMroWAlB2uYj8QCKUe%252F0PbC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMJ65wg8ouk9UEVyfgzwdvW7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjstX54%252FgPQ6VcESZ2TVYd9FZGltRhDEi0mv3%252Fkiw%252FMIe0KEMiJpX0zwgf%252F1ifmAVx%252B8THmnlCE51gIfcP3zlpcZVE5PeYdFTxPblCJdB6IKK6IS%252FeMOlB5ew%253D%253D</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALZZ</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7NS</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -5709,51 +5709,51 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>2.0480932518E10</v>
+        <v>2.279567102E10</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4878501072</t>
+          <t>5362797046</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>S26 Progress สูตร 3 ขนาด 2,500-3,500 กรัม</t>
+          <t>1แถม1 Dr.PONG แอสตาแซนธิน จากญี่ปุ่น 2 กระป๋อง 60 แคปซูล Astaxanthin 6 mg  AstaREAL อาหารเสริมดูแลเรื่องริ้วรอย</t>
         </is>
       </c>
       <c r="E44" s="1" t="n">
-        <v>589.0</v>
+        <v>999.0</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>556.0</v>
+        <v>476.29</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-6%</t>
+          <t>-52%</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://sg-test-11.slatic.net/p/77c60daf56ee55befd966f732131edae.jpg</t>
+          <t>https://th-live-01.slatic.net/p/a68154264a0c02f8f535aa8a4c2c6172.png</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/s26-progress-3-2500-3500-i4878501072-s20480932518.html</t>
+          <t>https://pages.lazada.co.th/products/11-drpong-2-60-astaxanthin-6-mg-astareal-i5362797046-s22795671020.html</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>S-26</t>
+          <t>Dr. PONG</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>29.2%</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>100373312174</t>
+          <t>100913600401</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5783,12 +5783,12 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/s26-progress-3-2500-3500-i4878501072-s20480932518.html?exlaz=e_gvL2YdBsFs1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fVmELuxkN0RvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZS1KPNUUQYOuw8770vgDWEjun%252BSGcaQoMIG7etA721C77VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpeNM4j7iZ7azDujWU5jkFYw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/11-drpong-2-60-astaxanthin-6-mg-astareal-i5362797046-s22795671020.html?exlaz=e_Tuv357LciJRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc5efvsst7tUhJpec3OaCVl6U8oeqr%252FymHvWa41U6SZ2XsRkzqepfh9rxiUvOMlI2zC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNOysa3%252BG31ME4mOxs%252Fjq3l7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsCJSTY%252FPuD%252BKCPxFAgfx3DXrbfrHxTmCmTuJd%252BPb%252B2GZd5U9oP1ahrTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3eVEefsUVHCH%252FBA%252FBmM5NnHV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALZY</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7N7</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -5840,51 +5840,51 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B45" s="3" t="n">
-        <v>2.049066416E10</v>
+        <v>2.2919678749E10</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1120468948</t>
+          <t>5372041474</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[ถูกยกลัง] Merries ผ้าอ้อมเมอร์รี่ส์ชนิดกางเกง อัลตร้าจัมโบ้แพ็ค ขนาด M, L, XL, XXL 2 แพ็ค</t>
+          <t>Merycome One Size Natural Latex V-neck Wave Edge Women's Bra 022</t>
         </is>
       </c>
       <c r="E45" s="1" t="n">
-        <v>1198.0</v>
+        <v>915.0</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>875.0</v>
+        <v>768.0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-27%</t>
+          <t>-16%</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://sg-test-11.slatic.net/p/86a5de2404840fa92df0e1edef8529c9.png</t>
+          <t>https://th-live-01.slatic.net/p/e2567b9d549b491a34625893349a1a29.jpg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x-2-i1120468948-s20490664160.html</t>
+          <t>https://pages.lazada.co.th/products/merycome-vest-bra-latex-free-size-022-i5372041474-s22919678749.html</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Merries</t>
+          <t>MERYCOME</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>24.3%</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1000379863</t>
+          <t>100894560665</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5914,12 +5914,12 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/x-2-i1120468948-s20490664160.html?exlaz=e_e6SiQilQy4lsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Xk38abriRFHvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZyb4INwgt3boltocuCuwvGTSMl31BMDZu8plFHtsWWt4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKCIQV%252F390k8Gh9870b4J8uA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/merycome-vest-bra-latex-free-size-022-i5372041474-s22919678749.html?exlaz=e_qPzbuGOcKd9sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfP4%252Bs99qHVmz4ut99l2%252BG36U8oeqr%252FymHvWa41U6SZ2XsRkzqepfh9o6%252BtJnVkCKPC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNydRiblFVGzKLq9TD1fTEG7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsO7yq18H64rWIy7SFHr4V93rbfrHxTmCm%252BvABFpIrRS5GqpgS8zKf3zLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC306O1b7dRuqyOP5SQ4kNTWHV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALZc</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7Ni</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -5971,51 +5971,51 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.644670616E9</v>
+        <v>2.0476013717E10</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>808486069</t>
+          <t>4878089505</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SOFT nose cleaner SOFT003 Rechargable+</t>
+          <t>(2 Pcs.) Aquatia Double Water Filter for Shower (Water Softener , Water purifier fillter , Shower head filter)</t>
         </is>
       </c>
       <c r="E46" s="1" t="n">
-        <v>1990.0</v>
+        <v>598.0</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1798.0</v>
+        <v>349.0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-10%</t>
+          <t>-42%</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/77378080f544dacc7261f0ee28c0032c.jpg</t>
+          <t>https://th-live-01.slatic.net/p/22e848a708183a6881943e91a6c2582c.png</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/soft-soft003-rechargable-i808486069-s1644670616.html</t>
+          <t>https://pages.lazada.co.th/products/2-aquatia-2-i4878089505-s20476013717.html</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Soft</t>
+          <t>Aquatia</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>23.3%</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>100067630</t>
+          <t>100470784241</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/soft-soft003-rechargable-i808486069-s1644670616.html?exlaz=e_VWvd0ggwUQVsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdiCxNV0PBW5z2QuiCxWilE6U8oeqr%252FymHvWa41U6SZ2bschpuMtiRxmRXb%252FRopEQjC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrP2242J1m%252BZzLcjCd8LhOIR7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsJdUIa1OGAH7k3sdaF%252FrV9nYG6zENRPYJ0rtJzqFSs1wOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKV2B5RuRsVjuYhSCOPUP2JA%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/2-aquatia-2-i4878089505-s20476013717.html?exlaz=e_MetHKaCSHTZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdOhzw0gO6xJ7hkSJ7WGZbV6U8oeqr%252FymHvWa41U6SZ2XsRkzqepfh9E2h%252BYDiHFknC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9Tdb9VBeYhm57lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs%252Bqs9YZj%252FoLGdWheVGUpNiXrbfrHxTmCmqP8SOy5ufXRZF9smv39NUDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3stkKFI%252Fie7W1Uz%252Bt%252FdSGa3V0ZvOeGENU</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALZX</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7NR</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -6102,51 +6102,51 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.910893585E10</v>
+        <v>2.0743501109E10</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4648249312</t>
+          <t>4930097890</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[TOTAL 3 PACK] MAMYPOKO TAPE SUPER PREMIUM ORGANIC</t>
+          <t>AminoMOF อะมิโน มอฟ อาหารเสริมกรดอะมิโนผสมคอลลาเจน 75กรัม แพ็ก 15 ซอง/กล่อง Food supplement amino acid mix with collagen 75g Pack 15 Sachet/Box</t>
         </is>
       </c>
       <c r="E47" s="1" t="n">
-        <v>2007.0</v>
+        <v>795.0</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1350.0</v>
+        <v>755.0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-33%</t>
+          <t>-5%</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://th-live.slatic.net/p/52615f1f9ccd6f4eaf2d8777b55bc4ac.jpg</t>
+          <t>https://th-live-01.slatic.net/p/d385b0f95b1fba2353db09358fafdead.jpg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-i4648249312-s19108935850.html</t>
+          <t>https://pages.lazada.co.th/products/aminomof-75-15-food-supplement-amino-acid-mix-with-collagen-75g-pack-15-sachetbox-i4930097890-s20743501109.html</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>MamyPoko</t>
+          <t>Amino</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1000062324</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -6176,12 +6176,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/3-i4648249312-s19108935850.html?exlaz=e_5NdfSK72%252BIxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7Vkw85z2Cw5zkB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZFJvffPb8p%252F7THWh4YX5jdWcn7WG0FoLn%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SaV9TQOOiFaaY6xGhPNwawO0%253D</t>
+          <t>https://pages.lazada.co.th/products/aminomof-75-15-food-supplement-amino-acid-mix-with-collagen-75g-pack-15-sachetbox-i4930097890-s20743501109.html?exlaz=e_%252BQCCjIos%252FQNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdBlgMgjrsRSIvjB%252Fhb79FL6U8oeqr%252FymHvWa41U6SZ2XsRkzqepfh9y035hFNbmDHC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9s2jDZCvRaoT7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjslX47JJ5%252BGC2QjvGn6ZNgu3rbfrHxTmCm7upNKSHNbcL7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpQ9DrRtASCkz7THGDAWYDcQ%253D%253D</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALZ2</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7N8</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -6233,51 +6233,51 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.801368307E9</v>
+        <v>2.1023637832E10</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>894130417</t>
+          <t>4986099080</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>รางวัลอันดับ1[4ปีซ้อน Amarin] Saker เครื่องฆ่าเชื้อ+อบแห้ง+ลดกลิ่นอับ 3in1ไซซ์XL เวอร์ชั่นใหม่ล่าสุด</t>
+          <t>ALEENA COFFEE กาแฟอะลีน่า โปร 2 แถม 1 กาแฟบำรุงสายตา บำรุงกระดูก แก้ปวดเมื่อย ขำรุงเข่า รุ่นใหม่ล่าสุด ส่งฟรี</t>
         </is>
       </c>
       <c r="E48" s="1" t="n">
-        <v>14000.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>4676.0</v>
+        <v>560.0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-67%</t>
+          <t>-50%</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://th-live-01.slatic.net/p/793347b037b8cf8391a621461bba994b.jpg</t>
+          <t>https://th-live-01.slatic.net/p/78946985b7fd2318b1345b2ddc576d88.jpg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/14-amarin-saker-3in1xl-i894130417-s1801368307.html</t>
+          <t>https://pages.lazada.co.th/products/aleena-coffee-2-1-i4986099080-s21023637832.html</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Saker</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26523</t>
+          <t>100222305036</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -6307,12 +6307,12 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/14-amarin-saker-3in1xl-i894130417-s1801368307.html?exlaz=e_2%252F4cPi5LLUBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdQK8%252FuB7hQQxOoskJvGhMeDZzd3uOh8OiHkOIqZ%252BuV7VBxVuUpZM88q2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehP9AUJ%252Fta1t4%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZUaFWYmIsrNPzqLK7rQKA1Je8OY8viq3c%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SaeQEqk9zIMQTz4O50WXwmmg%253D</t>
+          <t>https://pages.lazada.co.th/products/aleena-coffee-2-1-i4986099080-s21023637832.html?exlaz=e_17e6xqzI2JhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcpJ4ONAvsAQ0RmhjPdPbWN6U8oeqr%252FymHvWa41U6SZ2Q5F3wQUt%252BqRvykN%252BX9Mnc3C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9m3n2pcfFf8R7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsoSjtRi80BdCrQehZTzUoeHrbfrHxTmCmS7RmJ4uHVQwpgN5naawEkjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3IuWIrcOP7195EunkBoLTCnV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALZ3</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7Nj</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -6364,41 +6364,41 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B49" s="3" t="n">
-        <v>9.447437446E9</v>
+        <v>2.1456947078E10</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2632676682</t>
+          <t>5085629453</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>แพ๊กเกจใหม่ ยูเซอริน โอเมก้า บาล์ม 200 มล.</t>
+          <t>ALEENA COFFEE กาแฟอะลีน่า 4 แถม 3  กาแฟบำรุงสายตา บำรุงกระดูก แก้ปวดเมื่อย บำรุงเข่า ปวดข้อ ปวดขา รุ่นใหม่ล่าสุด ส่งฟรี</t>
         </is>
       </c>
       <c r="E49" s="1" t="n">
-        <v>858.0</v>
+        <v>2999.0</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>720.75</v>
+        <v>1000.0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-16%</t>
+          <t>-67%</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S277cfa9f4b6d4a4fb1eb4ec90d79bc02x.jpg</t>
+          <t>https://th-live-01.slatic.net/p/db490afb506577e90b882af77f844f49.jpg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/200-i2632676682-s9447437446.html</t>
+          <t>https://pages.lazada.co.th/products/aleena-coffee-4-3-i5085629453-s21456947078.html</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>100193670403</t>
+          <t>100222305036</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6438,12 +6438,12 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>https://pages.lazada.co.th/products/200-i2632676682-s9447437446.html?exlaz=e_cugohCn6WgxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7VGmhpnRUQdaZUToY8G%252BUpf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ%252FsYB9aeUxsiGO1lQdqXaXr%252Bbo3qBc%252Bw9sDxb%252BNPZJlj7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpM1G4IseLW%252BIwux8aE9yWNw%253D%253D</t>
+          <t>https://pages.lazada.co.th/products/aleena-coffee-4-3-i5085629453-s21456947078.html?exlaz=e_Vp0XmZOJ%252FBdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcpJ4ONAvsAQ0RmhjPdPbWN6U8oeqr%252FymHvWa41U6SZ2Q5F3wQUt%252BqRE4YWB8SlFWvC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9m3n2pcfFf8R7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjs%252BZXsn1TSo3DTXMpea0KhnHrbfrHxTmCmS7RmJ4uHVQwpgN5naawEkjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3NzDwxLL3WAsrm49pwgEnWXV0ZvOeGENU</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://c.lazada.co.th/t/c.YcALZe</t>
+          <t>https://c.lazada.co.th/t/c.YXZ7NQ</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -6487,4460 +6487,6 @@
         </is>
       </c>
       <c r="AA49" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>1.5777826367E10</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>4051850978</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>นมกล่อง ยกลัง x4ลัง นมยูเอชที นมไฮคิวสูตร4 3พลัส ซูเปอร์โกลด์ รสจืด180 มล (108 กล่อง) นม UHT HiQ Super Gold UHT</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>3028.0</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>2637.0</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>-13%</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/83f4f030d1c6f0170a561eb72d9cc77b.jpg</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x4-4-3-180-108-uht-hiq-super-gold-uht-i4051850978-s15777826367.html</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>HiQ</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1000001025</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x4-4-3-180-108-uht-hiq-super-gold-uht-i4051850978-s15777826367.html?exlaz=e_rcFMCcejri5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Wi76wEhmVpCs3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ%252FNESctVulPiqJfkw8z5YYDSMl31BMDZuGIU0QW92Lb4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKtMqxRaAskRMg4rKTUmfIsg%253D%253D</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZ4</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>2.1309366401E10</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>5039719276</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Beige รถเข็นเด็ก โช๊คอัพ ล้อ พร้อมเบรก พกพาสะดวก สามารถผลักด้านหน้าและด้านหลังได้ (นั่งเอน/นอน/นอน) รถเข็นเด็ก พับได้</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>2999.0</v>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>949.05</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>-68%</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/ddea70c0003b3798038ce0d3877ccab7.jpg</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/beige-i5039719276-s21309366401.html</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>100321776425</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/beige-i5039719276-s21309366401.html?exlaz=e_IQqO3zAMJIhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdWBuUwyZn4J2HjvOgE8Y7v6U8oeqr%252FymHvWa41U6SZ2YhNhoLmfP%252BjJOtKAcipVanC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMJ65wg8ouk9b8JavHKj4qA7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsvymq%252BFAAIQHZHoXG82cM03rbfrHxTmCmxZ9QUX%252BvZ2ZWKZVtpCRmoDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3J1jdiwEizNHxyExbNNAmX3V0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZf</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>8.791046387E9</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>319818306</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>BabyLove รุ่น DayNight Pants Plus ยกลัง3ห่อ ขนาด S-XXL  #ผ้าอ้อมเด็ก</t>
-        </is>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>1090.0</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>825.0</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>-24%</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/480f8aa4a3fc9b7a1a2b7797dcc7755d.jpg</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/babylove-daynight-pants-plus-3-s-xxl-i319818306-s8791046387.html</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>BabyLove</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>100215860</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/babylove-daynight-pants-plus-3-s-xxl-i319818306-s8791046387.html?exlaz=e_q55OQstUXatsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XENHNwNZufJl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH7w81NdORbEjqNCLvshpx%252B7j%252FQZ%252B5JKMNZGy1Wl574%252BD9i08GEAoMvsKEMiJpX0zwgf%252F1ifmAVx%252B8THmnlCE51gIfcP3zlpcZWcr%252F0HGURXZPunOyk8E7W91dGbznhhDVA%253D%253D</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZ5</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="n">
-        <v>2.238373522E10</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>5265129875</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>นมผง x2 กล่อง ดูเม็กซ์สูตร3 ดูโกร อีแซดแคร์ ไอรอนแอคทีฟพลัส 1650 กรัม Dumex Dugro EZCare นมดูโกรสูตร3</t>
-        </is>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>1558.0</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>1303.0</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>-16%</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/bb6b8347fe4003166a5e76c5d3327c5f.jpg</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x2-3-1650-dumex-dugro-ezcare-3-i5265129875-s22383735220.html</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Dumex</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>1000001029</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x2-3-1650-dumex-dugro-ezcare-3-i5265129875-s22383735220.html?exlaz=e_FVaKkHMp99RsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7e%252F9lBKveQYX%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZBm%252BoM%252BsSpF17A9G5ed2xGjSMl31BMDZup8Mh7rCX0U4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKbQ5212gJoqe8wmZcnR7P4A%253D%253D</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZg</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>4.829932469E9</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1704912321</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>NAN Goldpro H.A.1 นมแนน โกลด์โปร เอชเอ สูตร1 1400กรัม หมดอายุ 21/11/2025</t>
-        </is>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>1155.0</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>1155.0</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>-0%</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/6d1b0fcc9fd557d5455a6a36dc7b7962.jpg</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/nan-goldpro-ha1-1-1400-21112025-i1704912321-s4829932469.html</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>100188126010</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/nan-goldpro-ha1-1-1400-21112025-i1704912321-s4829932469.html?exlaz=e_SQsAkMSFTPZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNd7NP91cGT6d31P4reACFju6U8oeqr%252FymHvWa41U6SZ2Sf23TvhBZa2d6oAIB4k0qrC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOs9SeI8JcngB0WX8xEPwuy7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsWODzrTsxfL%252BAU8P%252BAIIiInrbfrHxTmCmesxs4eJJb4lNl5M6o43ohDLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3jlUwCn8scWR1yql3ShIr1g%253D%253D</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZh</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="n">
-        <v>2.1092855703E10</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>4959469006</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Dr.isla wearable electric breast pump automatic milking machine with massage function, USB charging, hands free, BPA free, 9 suction strength adjustable, no pain, breast massage my376 eb29</t>
-        </is>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>1499.0</v>
-      </c>
-      <c r="F55" s="1" t="n">
-        <v>525.57</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>-65%</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/1613eb11ba125ef798a79f98a694b12c.jpg</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/drisla-usb-bpa-12-eb29-wearable-breast-pump-i4959469006-s21092855703.html</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Dr.Isla</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>100305168001</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/drisla-usb-bpa-12-eb29-wearable-breast-pump-i4959469006-s21092855703.html?exlaz=e_Odm%252BjRX%252F8U1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcg2FXF5FAmVczOHtvOE6L06U8oeqr%252FymHvWa41U6SZ2Sf23TvhBZa2J815S6r%252BBjjC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNVJF5aJMLujdhhDBrhwlXR7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsqr2utUSKpQMX5uzu9M6geHrbfrHxTmCmsQYD%252FGvI0a9d5U9oP1ahrTLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3IuWIrcOP719kpGyTTLtimnV0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZS</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="n">
-        <v>2.2324222357E10</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>718810182</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>[Carton_2Pack] MERRIES DIAPER PANTS UJB L 56</t>
-        </is>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>1538.0</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>1538.0</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>-0%</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S30b0b8fe31304e9dbd67d1f7ef9b10002.jpg</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-l56-x-2-merries-112-i718810182-s22324222357.html</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Merries</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2512</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/merries-japan-pants-size-l56-x-2-merries-112-i718810182-s22324222357.html?exlaz=e_OVZJJCEi6qNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7U5kg%252Brd4KUO%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZWMA8hH90xffnBBDYyVZ9xy%252BrMWhx2bM2ab0kUCnTYmdaANM%252BMLvs2nyXb%252BVCI0U6apvwW63pOXTm42JXw2YvyA1ExswjwDmcSWQyw92wO2E%253D</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZi</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="n">
-        <v>2.1931160222E10</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>5173722471</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Nestle BEBE นมผง นมตราหมี สูตร 1 2000 กรัม หมดอายุ 02/10/2025</t>
-        </is>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>919.0</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>919.0</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>-0%</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/Sf3a7e66e5f6942f68751ccdc56cfc83aI.jpg</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/nestle-bebe-1-2000-02102025-i5173722471-s21931160222.html</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Nestlé</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>100196151460</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/nestle-bebe-1-2000-02102025-i5173722471-s21931160222.html?exlaz=e_T0AZp0a2jNRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XDbm1sTDciLvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZDLA4F4UHkMzTirnyBwPJmL%252Bbo3qBc%252Bw9QhilVGhiBIz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpIIA53P68XHuxMPj5QFxjlQ%253D%253D</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZR</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="n">
-        <v>1.6929856916E10</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>4270665139</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>hi-q 1 plus super gold สูตร3 3850ไฮคิว 1 พลัส ซูเปอร์โกลด์ (ทอง)</t>
-        </is>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>1529.0</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>1519.0</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S3f3efdf408c14c48ac58cb5d5b92d384U.jpg</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/hi-q-1-plus-super-gold-3-3850-1-i4270665139-s16929856916.html</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>HiQ</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>100218105574</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/hi-q-1-plus-super-gold-3-3850-1-i4270665139-s16929856916.html?exlaz=e_qqifjVt3FJZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7SiPjGiP9YTO95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZTgF2G7tFd6bjYY1k4XK%252BhZ14eY4SxhuRF7v5eQIQ3oz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpAfwmfd156UUs5zHObFg34Q%253D%253D</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZ8</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="n">
-        <v>1.6929923738E10</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>4270675095</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>ดูโกรซอย สูตร3 Dugro soy นมถั่วเหลือง ขนาด 1600 กรัม ใหม่อายุยาว</t>
-        </is>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>755.0</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>755.0</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>-0%</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/3c477b0441c33686f0e22fd3a4899346.jpg</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/3-dugro-soy-1600-i4270675095-s16929923738.html</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Dumex</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>100218105574</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/3-dugro-soy-1600-i4270675095-s16929923738.html?exlaz=e_sgBqpDEjmxxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7WtPDdg2Q4Vy%252Fu0aE7wHKMn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZP%252FXuaN06Gg7GGEoY%252B6PEE514eY4SxhuRF7v5eQIQ3oz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpAfwmfd156UUueILDAzfZQw%253D%253D</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZQ</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="n">
-        <v>2.573864823E9</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>695270312</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>เมอร์รี่ส์ เจแปน แพ้นส์ กางเกงผ้าอ้อม   x 3 แพ็ค</t>
-        </is>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>1515.0</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>1052.0</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>-31%</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>https://sg-test-11.slatic.net/p/f0a0757dc570f29ff09f789d2bb524f7.png</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x-3-i695270312-s2573864823.html</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Merries</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1000379863</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x-3-i695270312-s2573864823.html?exlaz=e_1v%252BhWZevGWZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Wfrj812YhKhjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZO7UZX8x2QkjnBBDYyVZ9xx0QxMQLfNoTEnz31u5FQXPDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNar9vk5n4IVEdpJKgdhO%252Bjw%253D%253D</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZ9</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="n">
-        <v>1.4274323218E10</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>1416454165</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Enfalac A+ สูตร 2 นมผงดัดแปรงสำหรับทารกและเด็กเล็ก สำหรับช่วงวัยที่ 2 ขนาด 3800 กรัม (1 กล่อง) MG</t>
-        </is>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>3035.0</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>3035.0</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>-0%</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/da20bae815fbab48add850c5854e9ae6.jpg</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/enfalac-a-2-2-3800-1-mg-i1416454165-s14274323218.html</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Enfalac</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>100091446</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/enfalac-a-2-2-3800-1-mg-i1416454165-s14274323218.html?exlaz=e_axOwyzVHjOdsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7cozs%252FHziwW7kB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ2unUC3jpgcxXVl8NyUpeoTSMl31BMDZu7CBkecIhuiDDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVN0xof4sZQ0f5SZUlGiO6NLQ%253D%253D</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZP</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B62" s="3" t="n">
-        <v>2.2261735102E10</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>5243233323</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Enfalac A+2 MILD PRO เอนฟาแล็ค เอพลัส สูตร2 มายด์โปร ขนาด3800กรัม(475กรัมx8ซอง)</t>
-        </is>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>3095.0</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>3095.0</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>-0%</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S0e12cbd22730416b8b2966fe43519eeaw.jpg</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/enfalac-a2-mild-pro-2-3800475x8-i5243233323-s22261735102.html</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Enfalac</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>100196238277</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/enfalac-a2-mild-pro-2-3800475x8-i5243233323-s22261735102.html?exlaz=e_BqK%252BPLDc7KpsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7exWZaP%252Fc8W795scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZvrld39c1s%252FIOP2kWKpLrWb%252Bbo3qBc%252Bw9w62jLA0q15j7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpwCRsQwk9VJLjloEh458bQg%253D%253D</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZN</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="n">
-        <v>1.93339213E8</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>160552332</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>[โฉมใหม่ ขายยกลัง] BabyLove Easy Tape เบบี้เลิฟผ้าอ้อมแบบเทป รุ่นอีซี่เทป ไซส์ L 3 แพ็ค 216 ชิ้น (แพ็คละ 72 ชิ้น)</t>
-        </is>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>1467.0</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>1155.0</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>-21%</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/56813822f7694b949fe655b33c76ea0b.png</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/babylove-easy-tape-l-3-216-72-i160552332-s193339213.html</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>BabyLove</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>1000001002</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/babylove-easy-tape-l-3-216-72-i160552332-s193339213.html?exlaz=e_wqw11d1xBoBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7Rv18JpwGSgEl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ%252BU02oiH454PnBBDYyVZ9x7XvxAT%252FH7D6XWAwW4j7dHPDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVN3XpZ36bCqoE7fzuKMrVTTQ%253D%253D</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZn</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="n">
-        <v>2.1139049202E10</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>5004316644</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>✅ส่งด่วนทุกวันตัดรอบบ่ายโมง✅Lamoon วิตามินลดหวัด Immushi โปร 3 ขวดแถม 1 ขวด ลดการติดเชื้อหวัดหายเร็ว สารสกัดจากธรรมชาติ</t>
-        </is>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>1590.0</v>
-      </c>
-      <c r="F64" s="1" t="n">
-        <v>766.0</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>-52%</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/68e6f917f997bc6f8c15cc9edf27faf4.jpg</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/lamoon-immushi-3-1-i5004316644-s21139049202.html</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Lamoon baby</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>100196133613</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/lamoon-immushi-3-1-i5004316644-s21139049202.html?exlaz=e_zTkaWHsJhPhsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfZ8nwhaPL0N5NawOmjATTe6U8oeqr%252FymHvWa41U6SZ2VVquNEAsBQRrxiUvOMlI2zC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNydRiblFVGzDp4NWtl0Cy87lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsbZnzAApkhhm16mH9FMMU8XrbfrHxTmCm75ByUwpFUjDLjMly1GsN6zLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3dFd4GqTejjzEvQIHomEQ7XV0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZo</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B65" s="3" t="n">
-        <v>2.0928860387E10</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>4971066591</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>【1 กล่อง】พัฒนาสมอง เพิ่มสมาธิและความจำ นอนหลับสนิท: DHA Probio 9 (วิตามินรูปแบบผง รสมิกซ์เบอร์รี่)</t>
-        </is>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>990.0</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>-17%</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/b096aa3679243c83a81db9568408515c.jpg</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/1-dha-probio-9-i4971066591-s20928860387.html</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Promom(โปรมัม)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>100564496054</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/1-dha-probio-9-i4971066591-s20928860387.html?exlaz=e_YNxcX3np4WNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcOT6RjWBJf4MitWNw0wlly6U8oeqr%252FymHvWa41U6SZ2VVquNEAsBQRB6WwlWYhhS7C%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrOs9SeI8JcngNQmlUbbzc2M7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsvdc7hNEhXE4LZKRDXx91wnrbfrHxTmCmcwnKNg0EeA6b76OMdkVj3zLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3XsufeeSj8Ut70%252BF8tzBRvXV0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZp</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B66" s="3" t="n">
-        <v>2.091715278E10</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>4968820387</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>[ยกลัง 6 แพ็ค]DODOLOVE Double Soft Organic Topsheet กางเกงผ้าอ้อม ผ้าอ้อมสำเร็จรูป ผ้าอ้อมออแกนิค นุ่ม บางซึมซับดีเยี่ยม</t>
-        </is>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>2599.0</v>
-      </c>
-      <c r="F66" s="1" t="n">
-        <v>869.0</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>-67%</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/6ca2452bc558d5861f9382b3d32ace5c.jpg</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/6-dodolove-double-soft-organic-topsheet-i4968820387-s20917152780.html</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Dodolove</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>1000395507</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/6-dodolove-double-soft-organic-topsheet-i4968820387-s20917152780.html?exlaz=e_BaaFq1jsWntsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdWQ7WztrASWLgDo2m5A0Om6U8oeqr%252FymHvWa41U6SZ2VVquNEAsBQRlz0aNC35%252FLnC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrNUDkxq4ODM9kuOZm2GQxFt7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsrOSLYcx8ekrZsHLLyNmmj3rbfrHxTmCmbMfJHEfLmtD7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJp7pOhguS4EpE5z8uJyTz9Lw%253D%253D</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZK</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="n">
-        <v>4.567096781E9</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1647500736</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>นมกล่อง ยกลัง x2ลัง นมยูเอชที นมไฮคิวสูตร3 1พลัส ซูเปอร์โกลด์ รสจืด180 มล (54 กล่อง) นม UHT HiQ Super Gold UHT</t>
-        </is>
-      </c>
-      <c r="E67" s="1" t="n">
-        <v>1514.0</v>
-      </c>
-      <c r="F67" s="1" t="n">
-        <v>1343.0</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>-11%</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/3ab67cf72811006013fc8a6f6c4672c7.jpg</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x2-3-1-180-54-uht-hiq-super-gold-uht-i1647500736-s4567096781.html</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>HiQ</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>1000001025</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x2-3-1-180-54-uht-hiq-super-gold-uht-i1647500736-s4567096781.html?exlaz=e_txe7lJcZu9hsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7QYl%252FQlI6bIHs3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZrAuQKxx6WhuNv7EtgYsuBTSMl31BMDZuGIU0QW92Lb4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKSMllupRuryWBEcAXFatW4Q%253D%253D</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZJ</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B68" s="3" t="n">
-        <v>3.541300414E9</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1388642280</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>นมกล่อง เอนฟาโกร ยูเอชที ซุพีเรียร์ สูตร3 ชนิดจืด (27 กล่อง) x2 ลัง Enfagrow UHT Superior Stage3 Plain (27 boxes) x2 cases</t>
-        </is>
-      </c>
-      <c r="E68" s="1" t="n">
-        <v>1356.0</v>
-      </c>
-      <c r="F68" s="1" t="n">
-        <v>1175.0</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>-13%</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/a07b1fd2ad68811ef7abe8b91c61b4c3.jpg</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/3-27-x2-enfagrow-uht-superior-stage3-plain-27-boxes-x2-cases-i1388642280-s3541300414.html</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Enfagrow</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>1000001020</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/3-27-x2-enfagrow-uht-superior-stage3-plain-27-boxes-x2-cases-i1388642280-s3541300414.html?exlaz=e_bw07Aqy0cXpsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7TIlR%252BAyJnhU95scAHzqyFr6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ47eP0Vu8URB9Q%252FeeY3I47TSMl31BMDZuOLYwS%252F4Wk24OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKr8XwCTXGSGqt%252Bqqj0YGm1A%253D%253D</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZr</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B69" s="3" t="n">
-        <v>1.115998636E9</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>594384741</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>[นมกล่อง] BEAR BRAND UHT นมยูเอชที ตราหมี พรีไบโอพลัส ดีเอชเอ สูตร 3 รสจืด กลิ่นวานิลลา 180 มล. (2 ลัง : 72 กล่อง)</t>
-        </is>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>968.0</v>
-      </c>
-      <c r="F69" s="1" t="n">
-        <v>809.0</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>-16%</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/54c915eb8dd29647b90640f0b33c2931.jpg</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i594384741-s1115998636.html</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Bear Brand</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>1000001033</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/bear-brand-uht-3-180-2-72-i594384741-s1115998636.html?exlaz=e_GY%252BnSJNB29hsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7YivZqKk%252FZBls3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZc3Q9D700zXmblByqyqXQQrXvxAT%252FH7D66ct0cpBQgvfDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNJByKwEkSb1TRvoNLOJqgaw%253D%253D</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZs</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B70" s="3" t="n">
-        <v>8.892375196E9</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2509554592</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>พีเจ้น Pigeon ของแท้ ขวดนมสีชาคอกว้าง แพค3ขวด ขนาด 5/8oz ลาย Natural มีขีดบอก oz ml ฉลากไทย</t>
-        </is>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>990.0</v>
-      </c>
-      <c r="F70" s="1" t="n">
-        <v>970.0</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/b34858e52b5d83d41f0aaf4b3535ae66.jpg</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/pigeon-3-58oz-natural-oz-ml-i2509554592-s8892375196.html</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Pigeon</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>100183281329</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/pigeon-3-58oz-natural-oz-ml-i2509554592-s8892375196.html?exlaz=e_eZ5dBUZl5axsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7YZqxHQGlGGJjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwGdJQVHzjgUH0GKWIqjqlboXVHkJJGpacDnBBDYyVZ9x12Ier%252F%252BtlCpx1CCC2LA0WZpvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FIqx0u1d1c1fo3qWn1ifE%252BBQ%253D%253D</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZH</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="n">
-        <v>2.11177618E10</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>5001069321</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>( 1 กล่อง ) Enfa Smart+ เอนฟา สมาร์ท สูตร 2 สำหรับ 6 เดือน - 3 ปี ขนาด 4000 กรัม MG</t>
-        </is>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>1660.0</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>1660.0</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>-0%</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/fbc3d86e297a5d8c7c1555f1f5bffd22.jpg</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/1-enfa-smart-2-6-3-4000-mg-i5001069321-s21117761800.html</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Enfalac</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>100091446</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/1-enfa-smart-2-6-3-4000-mg-i5001069321-s21117761800.html?exlaz=e_LPJoG%252BkshNBsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fk8MbgANO62q2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZA%252FUMhvi7T3UJiCiLLRmsZTSMl31BMDZu7CBkecIhuiDDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNZNxG6UUF8XW9LX0HQckV0A%253D%253D</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZt</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B72" s="3" t="n">
-        <v>1.2419706804E10</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>3348917402</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Molfix โมลฟิกซ์ เอ็กซ์ตร้า ดราย แพ้นส์ M74 SJ (ยกลัง)</t>
-        </is>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>1287.0</v>
-      </c>
-      <c r="F72" s="1" t="n">
-        <v>802.0</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>-38%</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/3b9b23e9f8d982afdf86bd3c7881a3e2.jpg</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/molfix-m74-sj-i3348917402-s12419706804.html</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Molfix</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>100200927053</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/molfix-m74-sj-i3348917402-s12419706804.html?exlaz=e_myjaJuKvUhlsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdkjFCX%252F%252FLpZ%252BYGauRBkp%252BM6U8oeqr%252FymHvWa41U6SZ2aQzBpmaljoPjKiIlSu15QfC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMPHeSbD1Ps9c4VC74TE3wL7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsj7OmVyXi9svzf1wet3c%252BVnrbfrHxTmCmYAmF2TyPBZ%252BRptzIAJtG%252FjLqO8hEsggVRhc6yQbXJxG2FsJanuL19KbIE3DT2HC3BAQ4GPvGaPqLfR1msYmcLnV0ZvOeGENU</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZF</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA72" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="n">
-        <v>9.2966432E8</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>521908647</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>S-26 Progess Gold UHT (Formula 4) แพ็ค 4 x 9 (2 ลัง)</t>
-        </is>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>1378.0</v>
-      </c>
-      <c r="F73" s="1" t="n">
-        <v>1060.0</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>-23%</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/eda4676166c8a43aa62133c2de15fa6f.jpg</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/s-26-progess-gold-uht-formula-4-4-x-9-2-i521908647-s929664320.html</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>S-26</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>1000001031</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/s-26-progess-gold-uht-formula-4-4-x-9-2-i521908647-s929664320.html?exlaz=e_9FvssOg2jF5sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7X0vnAckSaPfM3%252FtGQr3o0z6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZ9M4wa2TCrw%252FzqLK7rQKA1LXvxAT%252FH7D6uTvW45Tm5GzDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNwi%252FM9vNhu1KEBEobxSO9Jg%253D%253D</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZD</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA73" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B74" s="3" t="n">
-        <v>2.773354496E9</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1173206529</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>มอเตอร์ไกวเปล Vinanoi VN 365N รับนน.100 kg เครื่องไกวเปล เครื่องไกวเปลอัตโนมัติ มอเตอร์ไกวเปลอัตโนมัติ</t>
-        </is>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>2359.0</v>
-      </c>
-      <c r="F74" s="1" t="n">
-        <v>823.0</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>-65%</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/cc8ae15a4143b266524ccea3a66a2690.png</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/vinanoi-vn-365n-100-kg-i1173206529-s2773354496.html</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>No Brand</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>1000478154</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/vinanoi-vn-365n-100-kg-i1173206529-s2773354496.html?exlaz=e_PhTf0%252BKqBzZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7c3WmUlp16y7s3s474dk%252BZP6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZEs3gsdG9V1rV0YC6McVs%252FzSMl31BMDZuBMVoeacsFG4OY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZK%252F5QkeH%252BK6DoU%252FAkJL6yWNg%253D%253D</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZx</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA74" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="n">
-        <v>2.1380011246E10</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1332304774</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>S-26 Progress Gold 2,750-3,500g</t>
-        </is>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>959.0</v>
-      </c>
-      <c r="F75" s="1" t="n">
-        <v>786.0</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>-18%</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>https://th-live.slatic.net/p/160ccfc7ee98d5eb61e591a9f2b3e2c3.png</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/s-26-progress-gold-2750-3500g-i1332304774-s21380011246.html</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>S-26</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>100184832188</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/s-26-progress-gold-2750-3500g-i1332304774-s21380011246.html?exlaz=e_TuLr2svD0DZsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7fJiybBQcpvnq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZonMGe6DlY0RNKsaO1r7XNb%252Bbo3qBc%252Bw9%252FmaFfHE%252Fqjj7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpKhwKJolba%252BEFc6mnRH0yjw%253D%253D</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZy</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="n">
-        <v>1.93387497E8</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>160577601</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>[ขายยกลังx2] โฟร์โมสต์ โอเมก้า 369 รสช็อคโกแลต 180มล (36กล่อง/ลัง) Foremost Omega 369 Chocolate 180ml (นมกล่องUHT)</t>
-        </is>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>783.0</v>
-      </c>
-      <c r="F76" s="1" t="n">
-        <v>726.0</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>-7%</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/cb1fff380cf788f86623e691ab05ce67.png</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x2-369-180-36-foremost-omega-369-chocolate-180ml-uht-i160577601-s193387497.html</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>FOREMOST</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>1000001028</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x2-369-180-36-foremost-omega-369-chocolate-180ml-uht-i160577601-s193387497.html?exlaz=e_M1fzbRxVi7dsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7exG%252BUTbxSvbjcGjSNlR3Wn6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZh2YHWLSWUfWblByqyqXQQrXvxAT%252FH7D60wXU96AZSunDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNWfQq%252Frq3yb%252FcM8NU1y1zkg%253D%253D</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZz</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA76" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="n">
-        <v>7.186524584E9</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2157326412</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Sekure Adult Wipes ซีเคียว ผ้าเช็ดผิวสำหรับผู้ใหญ่ ขนาดบรรจุ 100 แผ่น/ห่อ [[ ขายยกลัง 12 ห่อ ]]</t>
-        </is>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>1470.0</v>
-      </c>
-      <c r="F77" s="1" t="n">
-        <v>1450.0</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/S5ada63c80cb1426fa68863b6595bbcaf1.jpg</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/sekure-adult-wipes-100-12-i2157326412-s7186524584.html</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>SEKURE</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>1000307961</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/sekure-adult-wipes-100-12-i2157326412-s7186524584.html?exlaz=e_Tx%252Bhkw5Q3nNsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7WZxGtK1x9XXq2hYh%252B2WcKf6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZn0E8%252F8JgtNXTHWh4YX5jdTSMl31BMDZudElMKdvBaBUOY%252BzVtAjvWDSZ4n0Rdt%252BigOqQFiyljDKUBZoeeedN6XQIWCAZh2ZKW52v3fvW5Cz3XbTytIgVwA%253D%253D</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcALZA</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA77" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="n">
-        <v>1.93387496E8</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>160577600</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>[สินค้าขายดี][ขายยกลังx2] โฟร์โมสต์ โอเมก้า 369 รสจืด 180มล (36กล่อง/ลัง) Foremost Omega 369 Plain 180ml (นมกล่องUHT)</t>
-        </is>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>783.0</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <v>725.0</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>-7%</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/cf42111029fd58f6ed552016447fe78d.png</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x2-369-180-36-foremost-omega-369-plain-180ml-uht-i160577600-s193387496.html</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>FOREMOST</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>1000001028</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/x2-369-180-36-foremost-omega-369-plain-180ml-uht-i160577600-s193387496.html?exlaz=e_2g5p%252FSQKWYxsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7b4CkLxE0vsGvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZh2YHWLSWUfXdoouIs6WpS7XvxAT%252FH7D60wXU96AZSunDNujnvU2puMuzrM7xre5KgI5MBBwQUf53S%252BltMdv%252BuHywUwIL7HVNWfQq%252Frq3yb8cieKXsNfb2Q%253D%253D</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAL0a</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA78" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="n">
-        <v>2.1516595808E10</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>5101200068</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>(ใหม่) Pigeon พีเจ้น ขวดนมคอกว้างสีชา PPSU ปลาตะเพียน ขนาด 5/8 ออนซ์ แพคคู่</t>
-        </is>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>960.0</v>
-      </c>
-      <c r="F79" s="1" t="n">
-        <v>855.0</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>-11%</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/f65ad5a572d0a44e9b6f7e84e8591540.jpg</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/pigeon-ppsu-58-i5101200068-s21516595808.html</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Pigeon</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>1000454608</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/pigeon-ppsu-58-i5101200068-s21516595808.html?exlaz=e_4YeGhGhAJU1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdFHYwPqdMW2P0u8UlRiVDw6U8oeqr%252FymHvWa41U6SZ2ZojpfiZQu9lefwIHaSMnADC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMheldQbIfrBwoLk0cCwgos7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagiscllIJGI5mGhbzi1ZhkH%252BtrzfJBKNhx4bhP%252FZoQZe5HYG6zENRPYJaEAZb7ydj%252FxpvSRQKdNiZ1oA0z4wu%252BzafJdv5UIjRTpqm%252FBbrek5dObjYlfDZi%252FIXsWNaPOCWSKe6wdegDr9%252Fg%253D%253D</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAL00</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA79" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B80" s="3" t="n">
-        <v>1.710285502E10</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>4300090353</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Pigeon ชุดขวดนมคอกว้างสีชา PPSU สุดคุ้ม</t>
-        </is>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>1715.0</v>
-      </c>
-      <c r="F80" s="1" t="n">
-        <v>1475.0</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>-14%</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/72f7eb94b08bb06e239a5313b928af0e.jpg</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/pigeon-ppsu-i4300090353-s17102855020.html</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Pigeon</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>1000454608</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/pigeon-ppsu-i4300090353-s17102855020.html?exlaz=e_eKDh1Uly6qJsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNdFHYwPqdMW2P0u8UlRiVDw6U8oeqr%252FymHvWa41U6SZ2ZojpfiZQu9lHbAeUfhbVVfC%252F0VmDsb9qvkMl4%252BaMVHTFBqVXuC99PCJ1%252Fn1jfgXf3KhwCxTil35QbgoFAWgJESlsH%252F%252BQqHF9FAcs9ESx8d6zR3bR9EiKrMheldQbIfrBwoLk0cCwgos7lxFA%252FsDzFO9L0515LQIwFZJfUKQZvjLMuLCrBiNagjaQJcAEDJ%252BTRHXgfcKtmjsPoms%252BPSkE0NadrZerilCRXrbfrHxTmCmvnbqCDvwKzb7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpzw86a8HwmxNTAXXp5E1DGg%253D%253D</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAL0Y</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA80" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="n">
-        <v>1.12865594E8</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>110834657</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>[ส่งฟรี] Cetaphil Pro AD Derma Skin Restoring Moisturizer 295 ml. , เซตาฟิล โปร เอดี เดอร์มา สกิน เรสทอริ่ง มอยเจอร์ไรเซอร์ 295 มล. (ครีมบำรุงผิว)</t>
-        </is>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>1265.0</v>
-      </c>
-      <c r="F81" s="1" t="n">
-        <v>889.0</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>https://filebroker-cdn.lazada.co.th/kf/Se4f4e18d0db8477db3f022d75caaee5ba.jpg</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/cetaphil-pro-ad-derma-skin-restoring-moisturizer-295-ml-29-i110834657-s112865594.html</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Cetaphil</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>38960</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/cetaphil-pro-ad-derma-skin-restoring-moisturizer-295-ml-29-i110834657-s112865594.html?exlaz=e_Rn0ipc6URMRsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNcaN%252FuvK1zr4BmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7XmHyTDekyA5kB4FujilCcH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehLERPnD%252Fh5gW%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZH%252BkrCCkLJg3zqLK7rQKA1E7Ncq1YKsYW%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SaY3byR2qH%252BPJ6j0vuT6lvmo%253D</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAL0d</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA81" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B82" s="3" t="n">
-        <v>1.9108812024E10</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>4648157736</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>[SOLD CRATE!][TOTAL 4 PACK] MAMYPOKO PANTS PREMIUM PERFECT DRY</t>
-        </is>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>2356.0</v>
-      </c>
-      <c r="F82" s="1" t="n">
-        <v>1555.0</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>-34%</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/10e558d79c2850bb0abeed7bf16ffa5c.jpg</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/4-i4648157736-s19108812024.html</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>MamyPoko</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>1051</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/4-i4648157736-s19108812024.html?exlaz=e_E4wOIEd7GatsbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNc6dXp9rR3myTQOvLM5G95kDZzd3uOh8OiHkOIqZ%252BuV7VgNx67DLczHl9qd0vGWuiH6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zfj2THRl%252BehCqxzc0UHOYm%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZJKMZbvL%252BygKNv7EtgYsuBWcn7WG0FoLn%252B1Y0vTXjEGRRi6gVm0hwOKMTtrRbF8p%252Bh%252Bu7ym1KKQmyXJ8m0f3SaV9TQOOiFaaYYzB%252FffUeCBg%253D</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAL0e</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA82" t="inlineStr">
-        <is>
-          <t>Bonus Products Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2024-11-09</t>
-        </is>
-      </c>
-      <c r="B83" s="3" t="n">
-        <v>1.6929960495E10</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>4270606583</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>S26 โปรเกรส สูตร 3 S-26 Progress เอส26 3500 (ม่วง)</t>
-        </is>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>1029.0</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>999.0</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>https://th-live-01.slatic.net/p/85ada9808ff4f5fd5cc1be5702c7af85.jpg</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/s26-3-s-26-progress-26-3500-i4270606583-s16929960495.html</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>S-26</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>100218105574</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>https://pages.lazada.co.th/products/s26-3-s-26-progress-26-3500-i4270606583-s16929960495.html?exlaz=e_No8CI1CE7Q1sbdaDA0DvZK%252F23Xvf8d6ADAo3n60nGqE5XAIs%252FpBQfpFA9sGgileqHGYDc5%252FcpNfsHpzV4DIgRxmU0VZUxETVDZzd3uOh8OiHkOIqZ%252BuV7WbHvWkQVdmEvLei8bRzEy%252F6GJUiSqePqY1VfXBpyZtZDm5VTmE7wbJQ1LwLT7xgSC6PhWu80jJJ7Vuavcha884TFatEfMYBsSG8ctdkSt%252FL3khodPgKG8zUoP9hMEgLZ%252Bx7aF1Ej6Iv%252F6PsJ5uJIJQU25Dtk3hBAO6LdtiB4REUTDNLN0a7kwFRBfFGtzfj2n18jJ%252FvDPMZChtplA45Li6Tk7qvhQb8q514eY4SxhuRF7v5eQIQ3oz7VjS9NeMQZFGLqBWbSHA4oxO2tFsXyn6H67vKbUopCbJcnybR%252FdJpAfwmfd156UWLOweWdrc3wg%253D%253D</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>https://c.lazada.co.th/t/c.YcAL0V</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA83" t="inlineStr">
         <is>
           <t>Bonus Products Link</t>
         </is>
